--- a/Dokumentace/benchmark-results.xlsx
+++ b/Dokumentace/benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\diplomka\Dokumentace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E166B81C-3C5C-4EAC-BE0B-DD703F998516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CF9DEC3-2BEA-4CF1-84EF-04250028BB5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" activeTab="1" xr2:uid="{209728F2-C094-423C-80BE-A506D0BCB5A3}"/>
   </bookViews>
@@ -126,13 +126,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="265">
-  <si>
-    <t>Implementace zdrojového kódu 1</t>
-  </si>
-  <si>
-    <t>Velikost 2048 x 2048</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="263">
   <si>
     <t>Datový typ double</t>
   </si>
@@ -953,7 +947,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -1183,6 +1177,51 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -1229,15 +1268,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1261,6 +1291,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1665,738 +1704,738 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
         <v>8</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
         <v>9</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>10</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>12</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>14</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>15</v>
       </c>
-      <c r="I1" t="s">
-        <v>16</v>
-      </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="23" t="s">
+      <c r="B4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A5" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A6" s="20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A8" s="20" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J9" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="J11" s="20" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>244</v>
+      </c>
+      <c r="D12" s="20" t="s">
         <v>245</v>
       </c>
-      <c r="B2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J2" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I3" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J3" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I4" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J5" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I6" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="23" t="s">
-        <v>22</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I7" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J7" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I8" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I10" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>28</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="E11" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="23" t="s">
-        <v>32</v>
-      </c>
-      <c r="H11" s="23" t="s">
-        <v>33</v>
-      </c>
-      <c r="I11" s="23" t="s">
+      <c r="E12" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A13" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>246</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A14" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B12" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="D12" s="23" t="s">
+      <c r="C14" s="20" t="s">
         <v>247</v>
       </c>
-      <c r="E12" s="23" t="s">
+      <c r="D14" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="F12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I12" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J12" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="23" t="s">
+      <c r="E14" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A15" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="23" t="s">
+      <c r="B15" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="D13" s="23" t="s">
-        <v>163</v>
-      </c>
-      <c r="E13" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I13" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="23" t="s">
+      <c r="D15" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J15" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A16" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C14" s="23" t="s">
+      <c r="B16" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="20" t="s">
         <v>249</v>
       </c>
-      <c r="D14" s="23" t="s">
-        <v>79</v>
-      </c>
-      <c r="E14" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I14" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J14" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="23" t="s">
+      <c r="D16" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="B15" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="23" t="s">
+      <c r="B17" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="20" t="s">
         <v>250</v>
       </c>
-      <c r="D15" s="23" t="s">
-        <v>170</v>
-      </c>
-      <c r="E15" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I15" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J15" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="23" t="s">
+      <c r="D17" s="20" t="s">
+        <v>251</v>
+      </c>
+      <c r="E17" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J17" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B16" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>103</v>
-      </c>
-      <c r="E16" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I16" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="23" t="s">
+      <c r="B18" s="20" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="20" t="s">
+        <v>245</v>
+      </c>
+      <c r="E18" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C17" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="D17" s="23" t="s">
+      <c r="B19" s="20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C19" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="E17" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I17" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J17" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="23" t="s">
+      <c r="D19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="20" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="23" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="23" t="s">
+      <c r="B20" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="D18" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I18" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J18" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="23" t="s">
+      <c r="C20" s="20" t="s">
+        <v>255</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B19" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>255</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>174</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I19" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J19" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="23" t="s">
+      <c r="B21" s="20" t="s">
+        <v>219</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>257</v>
+      </c>
+      <c r="D21" s="20" t="s">
+        <v>258</v>
+      </c>
+      <c r="E21" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="B20" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>257</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>258</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I20" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J20" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="23" t="s">
+      <c r="B22" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E22" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="B21" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="C21" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>260</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I21" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J21" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="23" t="s">
+      <c r="B23" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C23" s="20" t="s">
         <v>261</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D23" s="20" t="s">
         <v>262</v>
       </c>
-      <c r="E22" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I22" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J22" s="23" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>69</v>
-      </c>
-      <c r="C23" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>264</v>
-      </c>
-      <c r="E23" s="23" t="s">
-        <v>77</v>
-      </c>
-      <c r="F23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="G23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="H23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="I23" s="23" t="s">
-        <v>18</v>
-      </c>
-      <c r="J23" s="23" t="s">
-        <v>18</v>
+      <c r="E23" s="20" t="s">
+        <v>75</v>
+      </c>
+      <c r="F23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" s="20" t="s">
+        <v>16</v>
       </c>
     </row>
   </sheetData>
@@ -2409,10 +2448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950500D-10BC-4704-8A46-A63808D85E74}">
-  <dimension ref="C3:M80"/>
+  <dimension ref="C3:M78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68:I68"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2451,77 +2490,101 @@
       <c r="H5" s="14"/>
       <c r="I5" s="15"/>
     </row>
-    <row r="6" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C6" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="18"/>
-      <c r="H6" s="18"/>
-      <c r="I6" s="19"/>
+    <row r="6" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C6" s="3"/>
+      <c r="D6" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H6" s="11"/>
+      <c r="I6" s="13"/>
     </row>
     <row r="7" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C7" s="16" t="s">
-        <v>3</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="14"/>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="15"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="8" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C8" s="3"/>
-      <c r="D8" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="12"/>
-      <c r="G8" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="13"/>
+      <c r="C8" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="21">
+        <v>112000</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="G8" s="21">
+        <v>298667</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="9" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="C9" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>74</v>
+      <c r="D9" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G9" s="21">
+        <v>280000</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="10" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D10" s="24">
-        <v>112000</v>
+      <c r="D10" s="21">
+        <v>8960</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="24">
-        <v>298667</v>
+        <v>77</v>
+      </c>
+      <c r="G10" s="21">
+        <v>20364</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>88</v>
@@ -2534,8 +2597,8 @@
       <c r="C11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D11" s="24">
-        <v>100000</v>
+      <c r="D11" s="21">
+        <v>8960</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>82</v>
@@ -2543,8 +2606,8 @@
       <c r="F11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G11" s="24">
-        <v>280000</v>
+      <c r="G11" s="21">
+        <v>20364</v>
       </c>
       <c r="H11" s="2" t="s">
         <v>94</v>
@@ -2557,8 +2620,8 @@
       <c r="C12" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="24">
-        <v>8960</v>
+      <c r="D12" s="21">
+        <v>320</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>78</v>
@@ -2566,8 +2629,8 @@
       <c r="F12" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="G12" s="24">
-        <v>20364</v>
+      <c r="G12" s="21">
+        <v>747</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>90</v>
@@ -2576,126 +2639,126 @@
         <v>91</v>
       </c>
     </row>
-    <row r="13" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C13" s="3" t="s">
+    <row r="13" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D13" s="24">
-        <v>8960</v>
-      </c>
-      <c r="E13" s="2" t="s">
+      <c r="D13" s="22">
+        <v>154</v>
+      </c>
+      <c r="E13" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="2" t="s">
+      <c r="F13" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="G13" s="24">
-        <v>20364</v>
-      </c>
-      <c r="H13" s="2" t="s">
+      <c r="G13" s="22">
+        <v>448</v>
+      </c>
+      <c r="H13" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="8" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="14" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C14" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D14" s="24">
-        <v>320</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="C14" s="9"/>
+      <c r="D14" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C15" s="3"/>
+      <c r="D15" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="13"/>
+    </row>
+    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C16" s="3"/>
+      <c r="D16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C17" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G17" s="21">
+        <v>280000</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I17" s="5" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="24">
-        <v>747</v>
-      </c>
-      <c r="H14" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I14" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="15" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D15" s="25">
-        <v>154</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="G15" s="25">
-        <v>448</v>
-      </c>
-      <c r="H15" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="I15" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C17" s="3"/>
-      <c r="D17" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="13"/>
-    </row>
-    <row r="18" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C18" s="3"/>
-      <c r="D18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I18" s="4" t="s">
-        <v>74</v>
+      <c r="G18" s="21">
+        <v>280000</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="I18" s="5" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="19" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C19" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="24">
-        <v>100000</v>
+      <c r="D19" s="21">
+        <v>8960</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>100</v>
@@ -2703,31 +2766,31 @@
       <c r="F19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="G19" s="24">
-        <v>280000</v>
+      <c r="G19" s="21">
+        <v>17231</v>
       </c>
       <c r="H19" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I19" s="5" t="s">
         <v>110</v>
-      </c>
-      <c r="I19" s="5" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="20" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="24">
-        <v>100000</v>
+      <c r="D20" s="21">
+        <v>8960</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="G20" s="24">
-        <v>280000</v>
+      <c r="G20" s="21">
+        <v>19478</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>115</v>
@@ -2740,8 +2803,8 @@
       <c r="C21" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="24">
-        <v>8960</v>
+      <c r="D21" s="21">
+        <v>299</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>102</v>
@@ -2749,8 +2812,8 @@
       <c r="F21" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G21" s="24">
-        <v>17231</v>
+      <c r="G21" s="21">
+        <v>640</v>
       </c>
       <c r="H21" s="2" t="s">
         <v>111</v>
@@ -2759,135 +2822,135 @@
         <v>112</v>
       </c>
     </row>
-    <row r="22" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C22" s="3" t="s">
+    <row r="22" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D22" s="24">
-        <v>8960</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D22" s="22">
+        <v>160</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F22" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G22" s="24">
-        <v>19478</v>
-      </c>
-      <c r="H22" s="2" t="s">
+      <c r="G22" s="22">
+        <v>448</v>
+      </c>
+      <c r="H22" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="I22" s="5" t="s">
+      <c r="I22" s="8" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="23" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C23" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="24">
-        <v>299</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G23" s="24">
-        <v>640</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="I23" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="24" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C24" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D24" s="25">
-        <v>160</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G24" s="25">
-        <v>448</v>
-      </c>
-      <c r="H24" s="7" t="s">
+      <c r="C23" s="9"/>
+      <c r="D23" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="G23" s="14"/>
+      <c r="H23" s="14"/>
+      <c r="I23" s="15"/>
+    </row>
+    <row r="24" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C24" s="3"/>
+      <c r="D24" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="11"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="13"/>
+    </row>
+    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C25" s="3"/>
+      <c r="D25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I25" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="21">
+        <v>100000</v>
+      </c>
+      <c r="E26" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="I24" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="25" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="14"/>
-      <c r="F25" s="14"/>
-      <c r="G25" s="14"/>
-      <c r="H25" s="14"/>
-      <c r="I25" s="15"/>
-    </row>
-    <row r="26" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C26" s="3"/>
-      <c r="D26" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="12"/>
-      <c r="G26" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="13"/>
+      <c r="F26" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="G26" s="21">
+        <v>298667</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I26" s="5" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="27" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C27" s="3"/>
-      <c r="D27" s="1" t="s">
+      <c r="C27" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F27" s="1" t="s">
+      <c r="D27" s="21">
+        <v>112000</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F27" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="G27" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I27" s="4" t="s">
-        <v>74</v>
+      <c r="G27" s="21">
+        <v>298667</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C28" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="24">
-        <v>100000</v>
+      <c r="D28" s="21">
+        <v>8960</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="G28" s="24">
-        <v>298667</v>
+        <v>77</v>
+      </c>
+      <c r="G28" s="21">
+        <v>19478</v>
       </c>
       <c r="H28" s="2" t="s">
         <v>128</v>
@@ -2900,40 +2963,40 @@
       <c r="C29" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="24">
-        <v>112000</v>
+      <c r="D29" s="21">
+        <v>8960</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="G29" s="24">
-        <v>298667</v>
+        <v>77</v>
+      </c>
+      <c r="G29" s="21">
+        <v>20364</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I29" s="5" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="30" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C30" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D30" s="24">
-        <v>8960</v>
+      <c r="D30" s="21">
+        <v>299</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G30" s="24">
-        <v>19478</v>
+        <v>103</v>
+      </c>
+      <c r="G30" s="21">
+        <v>640</v>
       </c>
       <c r="H30" s="2" t="s">
         <v>130</v>
@@ -2942,657 +3005,659 @@
         <v>131</v>
       </c>
     </row>
-    <row r="31" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C31" s="3" t="s">
+    <row r="31" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="D31" s="24">
+      <c r="D31" s="22">
+        <v>160</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" s="22">
+        <v>448</v>
+      </c>
+      <c r="H31" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="32" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="33" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C33" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="25"/>
+    </row>
+    <row r="34" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C34" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="18"/>
+      <c r="F34" s="18"/>
+      <c r="G34" s="18"/>
+      <c r="H34" s="18"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C35" s="3"/>
+      <c r="D35" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="E35" s="18"/>
+      <c r="F35" s="18"/>
+      <c r="G35" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="H35" s="18"/>
+      <c r="I35" s="19"/>
+    </row>
+    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C36" s="3"/>
+      <c r="D36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M36" s="20"/>
+    </row>
+    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
+      <c r="C37" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="21">
+        <v>2635</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F37" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="21">
         <v>8960</v>
       </c>
-      <c r="E31" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="G31" s="24">
-        <v>20364</v>
-      </c>
-      <c r="H31" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="32" spans="3:9" x14ac:dyDescent="0.3">
-      <c r="C32" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D32" s="24">
-        <v>299</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F32" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="G32" s="24">
-        <v>640</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I32" s="5" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="33" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C33" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D33" s="25">
-        <v>160</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="F33" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="G33" s="25">
-        <v>448</v>
-      </c>
-      <c r="H33" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="I33" s="8" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="34" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="35" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C35" s="26" t="s">
-        <v>2</v>
-      </c>
-      <c r="D35" s="27"/>
-      <c r="E35" s="27"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-      <c r="H35" s="27"/>
-      <c r="I35" s="28"/>
-    </row>
-    <row r="36" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C36" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="D36" s="21"/>
-      <c r="E36" s="21"/>
-      <c r="F36" s="21"/>
-      <c r="G36" s="21"/>
-      <c r="H36" s="21"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C37" s="3"/>
-      <c r="D37" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="F37" s="21"/>
-      <c r="G37" s="21" t="s">
-        <v>7</v>
-      </c>
-      <c r="H37" s="21"/>
-      <c r="I37" s="22"/>
+      <c r="H37" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="M37" s="20"/>
     </row>
     <row r="38" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C38" s="3"/>
-      <c r="D38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="M38" s="23"/>
+      <c r="C38" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="21">
+        <v>2800</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G38" s="21">
+        <v>8960</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="I38" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="M38" s="20"/>
     </row>
     <row r="39" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C39" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D39" s="24">
-        <v>2635</v>
+      <c r="D39" s="21">
+        <v>2240</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G39" s="24">
+        <v>144</v>
+      </c>
+      <c r="G39" s="21">
         <v>8960</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="I39" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="M39" s="23"/>
+        <v>166</v>
+      </c>
+      <c r="M39" s="20"/>
     </row>
     <row r="40" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C40" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D40" s="24">
-        <v>2800</v>
+      <c r="D40" s="21">
+        <v>1792</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>141</v>
+        <v>147</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G40" s="24">
-        <v>8960</v>
+        <v>148</v>
+      </c>
+      <c r="G40" s="21">
+        <v>11200</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>164</v>
+        <v>169</v>
       </c>
       <c r="I40" s="5" t="s">
-        <v>165</v>
-      </c>
-      <c r="M40" s="23"/>
+        <v>170</v>
+      </c>
+      <c r="M40" s="20"/>
     </row>
     <row r="41" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C41" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D41" s="24">
-        <v>2240</v>
+      <c r="D41" s="21">
+        <v>2489</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>145</v>
+        <v>151</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G41" s="24">
-        <v>8960</v>
+        <v>152</v>
+      </c>
+      <c r="G41" s="21">
+        <v>11200</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>167</v>
+        <v>173</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>168</v>
-      </c>
-      <c r="M41" s="23"/>
+        <v>174</v>
+      </c>
+      <c r="M41" s="20"/>
     </row>
     <row r="42" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C42" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D42" s="24">
-        <v>1792</v>
+      <c r="D42" s="21">
+        <v>2358</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="G42" s="24">
+        <v>156</v>
+      </c>
+      <c r="G42" s="21">
         <v>11200</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>171</v>
+        <v>177</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>172</v>
-      </c>
-      <c r="M42" s="23"/>
+        <v>178</v>
+      </c>
+      <c r="M42" s="20"/>
     </row>
     <row r="43" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C43" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="24">
-        <v>2489</v>
+      <c r="D43" s="21">
+        <v>45</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G43" s="24">
-        <v>11200</v>
+        <v>138</v>
+      </c>
+      <c r="G43" s="21">
+        <v>112</v>
       </c>
       <c r="H43" s="2" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>176</v>
-      </c>
-      <c r="M43" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="M43" s="20"/>
     </row>
     <row r="44" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C44" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D44" s="24">
-        <v>2358</v>
+      <c r="D44" s="21">
+        <v>45</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>157</v>
+        <v>141</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>158</v>
-      </c>
-      <c r="G44" s="24">
-        <v>11200</v>
+        <v>142</v>
+      </c>
+      <c r="G44" s="21">
+        <v>112</v>
       </c>
       <c r="H44" s="2" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>180</v>
-      </c>
-      <c r="M44" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="M44" s="20"/>
     </row>
     <row r="45" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C45" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D45" s="24">
-        <v>45</v>
+      <c r="D45" s="21">
+        <v>32</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>139</v>
+        <v>145</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="G45" s="24">
+        <v>146</v>
+      </c>
+      <c r="G45" s="21">
         <v>112</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>162</v>
+        <v>167</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M45" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="M45" s="20"/>
     </row>
     <row r="46" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C46" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D46" s="24">
-        <v>45</v>
+      <c r="D46" s="21">
+        <v>34</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="G46" s="24">
-        <v>112</v>
+        <v>150</v>
+      </c>
+      <c r="G46" s="21">
+        <v>100</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>166</v>
+        <v>171</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="M46" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="M46" s="20"/>
     </row>
     <row r="47" spans="3:13" x14ac:dyDescent="0.3">
       <c r="C47" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D47" s="24">
-        <v>32</v>
+      <c r="D47" s="21">
+        <v>45</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>147</v>
+        <v>153</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="G47" s="24">
-        <v>112</v>
+        <v>154</v>
+      </c>
+      <c r="G47" s="21">
+        <v>224</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="M47" s="23"/>
-    </row>
-    <row r="48" spans="3:13" x14ac:dyDescent="0.3">
-      <c r="C48" s="3" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" spans="3:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C48" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D48" s="24">
+      <c r="D48" s="22">
         <v>34</v>
       </c>
-      <c r="E48" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="G48" s="24">
-        <v>100</v>
-      </c>
-      <c r="H48" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="I48" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="M48" s="23"/>
+      <c r="E48" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G48" s="22">
+        <v>224</v>
+      </c>
+      <c r="H48" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="I48" s="8" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="49" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C49" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D49" s="24">
-        <v>45</v>
-      </c>
-      <c r="E49" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>156</v>
-      </c>
-      <c r="G49" s="24">
-        <v>224</v>
-      </c>
-      <c r="H49" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="I49" s="5" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C50" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D50" s="25">
-        <v>34</v>
-      </c>
-      <c r="E50" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="F50" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G50" s="25">
-        <v>224</v>
-      </c>
-      <c r="H50" s="7" t="s">
+      <c r="C49" s="9"/>
+      <c r="D49" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="E49" s="14"/>
+      <c r="F49" s="14"/>
+      <c r="G49" s="14"/>
+      <c r="H49" s="14"/>
+      <c r="I49" s="15"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C50" s="3"/>
+      <c r="D50" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="13"/>
+      <c r="L50" s="20"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C51" s="3"/>
+      <c r="D51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="L51" s="20"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C52" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D52" s="2">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="I50" s="8" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C51" s="9"/>
-      <c r="D51" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="14"/>
-      <c r="F51" s="14"/>
-      <c r="G51" s="14"/>
-      <c r="H51" s="14"/>
-      <c r="I51" s="15"/>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C52" s="3"/>
-      <c r="D52" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12"/>
-      <c r="G52" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="13"/>
-      <c r="L52" s="23"/>
+      <c r="F52" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="21">
+        <v>8960</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="I52" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L52" s="20"/>
     </row>
     <row r="53" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C53" s="3"/>
-      <c r="D53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H53" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I53" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="L53" s="23"/>
+      <c r="C53" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D53" s="2">
+        <v>2635</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="G53" s="21">
+        <v>8960</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="I53" s="5" t="s">
+        <v>206</v>
+      </c>
+      <c r="L53" s="20"/>
     </row>
     <row r="54" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C54" s="3" t="s">
         <v>57</v>
       </c>
       <c r="D54" s="2">
-        <v>2800</v>
+        <v>2240</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G54" s="24">
+        <v>188</v>
+      </c>
+      <c r="G54" s="21">
         <v>8960</v>
       </c>
       <c r="H54" s="2" t="s">
-        <v>204</v>
+        <v>209</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L54" s="23"/>
+        <v>210</v>
+      </c>
+      <c r="L54" s="20"/>
     </row>
     <row r="55" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C55" s="3" t="s">
         <v>58</v>
       </c>
       <c r="D55" s="2">
-        <v>2635</v>
+        <v>2240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="G55" s="24">
-        <v>8960</v>
+        <v>192</v>
+      </c>
+      <c r="G55" s="21">
+        <v>6400</v>
       </c>
       <c r="H55" s="2" t="s">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>208</v>
-      </c>
-      <c r="L55" s="23"/>
+        <v>214</v>
+      </c>
+      <c r="L55" s="20"/>
     </row>
     <row r="56" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C56" s="3" t="s">
         <v>59</v>
       </c>
       <c r="D56" s="2">
-        <v>2240</v>
+        <v>2489</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G56" s="24">
-        <v>8960</v>
+        <v>152</v>
+      </c>
+      <c r="G56" s="21">
+        <v>11200</v>
       </c>
       <c r="H56" s="2" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>212</v>
-      </c>
-      <c r="L56" s="23"/>
+        <v>218</v>
+      </c>
+      <c r="L56" s="20"/>
     </row>
     <row r="57" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C57" s="3" t="s">
         <v>60</v>
       </c>
       <c r="D57" s="2">
-        <v>2240</v>
+        <v>2133</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G57" s="24">
-        <v>6400</v>
+        <v>199</v>
+      </c>
+      <c r="G57" s="21">
+        <v>11200</v>
       </c>
       <c r="H57" s="2" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="L57" s="23"/>
+        <v>218</v>
+      </c>
+      <c r="L57" s="20"/>
     </row>
     <row r="58" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C58" s="3" t="s">
         <v>61</v>
       </c>
       <c r="D58" s="2">
-        <v>2489</v>
+        <v>41</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="G58" s="24">
-        <v>11200</v>
+        <v>183</v>
+      </c>
+      <c r="G58" s="21">
+        <v>112</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>219</v>
+        <v>203</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="L58" s="23"/>
+        <v>204</v>
+      </c>
+      <c r="L58" s="20"/>
     </row>
     <row r="59" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C59" s="3" t="s">
         <v>62</v>
       </c>
       <c r="D59" s="2">
-        <v>2133</v>
+        <v>45</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="G59" s="24">
-        <v>11200</v>
+        <v>186</v>
+      </c>
+      <c r="G59" s="21">
+        <v>112</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>224</v>
+        <v>207</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="L59" s="23"/>
+        <v>208</v>
+      </c>
+      <c r="L59" s="20"/>
     </row>
     <row r="60" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C60" s="3" t="s">
         <v>63</v>
       </c>
       <c r="D60" s="2">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="G60" s="24">
-        <v>112</v>
+        <v>190</v>
+      </c>
+      <c r="G60" s="21">
+        <v>90</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>206</v>
-      </c>
-      <c r="L60" s="23"/>
+        <v>212</v>
+      </c>
+      <c r="L60" s="20"/>
     </row>
     <row r="61" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C61" s="3" t="s">
         <v>64</v>
       </c>
       <c r="D61" s="2">
-        <v>45</v>
+        <v>34</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G61" s="24">
-        <v>112</v>
+        <v>194</v>
+      </c>
+      <c r="G61" s="21">
+        <v>75</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>209</v>
+        <v>215</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>210</v>
-      </c>
-      <c r="L61" s="23"/>
+        <v>216</v>
+      </c>
+      <c r="L61" s="20"/>
     </row>
     <row r="62" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C62" s="3" t="s">
@@ -3602,449 +3667,399 @@
         <v>32</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="G62" s="24">
-        <v>90</v>
+        <v>197</v>
+      </c>
+      <c r="G62" s="21">
+        <v>204</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>214</v>
-      </c>
-      <c r="L62" s="23"/>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C63" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C63" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D63" s="2">
-        <v>34</v>
-      </c>
-      <c r="E63" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G63" s="24">
-        <v>75</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="I63" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="L63" s="23"/>
+      <c r="D63" s="7">
+        <v>41</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" s="22">
+        <v>224</v>
+      </c>
+      <c r="H63" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="I63" s="8" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="64" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C64" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D64" s="2">
-        <v>32</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F64" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="G64" s="24">
-        <v>204</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="I64" s="5" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="65" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C65" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D65" s="7">
-        <v>41</v>
-      </c>
-      <c r="E65" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="F65" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="G65" s="25">
-        <v>224</v>
-      </c>
-      <c r="H65" s="7" t="s">
+      <c r="C64" s="9"/>
+      <c r="D64" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E64" s="14"/>
+      <c r="F64" s="14"/>
+      <c r="G64" s="14"/>
+      <c r="H64" s="14"/>
+      <c r="I64" s="15"/>
+    </row>
+    <row r="65" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C65" s="3"/>
+      <c r="D65" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="E65" s="11"/>
+      <c r="F65" s="12"/>
+      <c r="G65" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="H65" s="11"/>
+      <c r="I65" s="13"/>
+    </row>
+    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C66" s="3"/>
+      <c r="D66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="C67" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D67" s="21">
+        <v>2800</v>
+      </c>
+      <c r="E67" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="I65" s="8" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C66" s="9"/>
-      <c r="D66" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="14"/>
-      <c r="F66" s="14"/>
-      <c r="G66" s="14"/>
-      <c r="H66" s="14"/>
-      <c r="I66" s="15"/>
-    </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C67" s="3"/>
-      <c r="D67" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E67" s="11"/>
-      <c r="F67" s="12"/>
-      <c r="G67" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="13"/>
+      <c r="F67" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="G67" s="21">
+        <v>8960</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="I67" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="L67" s="20"/>
     </row>
     <row r="68" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C68" s="3"/>
-      <c r="D68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="F68" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H68" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="I68" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C68" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D68" s="21">
+        <v>2800</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="F68" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="G68" s="21">
+        <v>8960</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L68" s="20"/>
     </row>
     <row r="69" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C69" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D69" s="24">
-        <v>2800</v>
+      <c r="D69" s="21">
+        <v>2240</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="G69" s="24">
+        <v>232</v>
+      </c>
+      <c r="G69" s="21">
         <v>8960</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="L69" s="23"/>
+        <v>101</v>
+      </c>
+      <c r="L69" s="20"/>
     </row>
     <row r="70" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C70" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="D70" s="24">
-        <v>2800</v>
+      <c r="D70" s="21">
+        <v>2240</v>
       </c>
       <c r="E70" s="2" t="s">
-        <v>229</v>
+        <v>234</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="G70" s="24">
+        <v>188</v>
+      </c>
+      <c r="G70" s="21">
         <v>8960</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L70" s="23"/>
+        <v>245</v>
+      </c>
+      <c r="L70" s="20"/>
     </row>
     <row r="71" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C71" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="D71" s="24">
+      <c r="D71" s="21">
         <v>2240</v>
       </c>
       <c r="E71" s="2" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>234</v>
-      </c>
-      <c r="G71" s="24">
-        <v>8960</v>
+        <v>144</v>
+      </c>
+      <c r="G71" s="21">
+        <v>16000</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="L71" s="23"/>
+        <v>256</v>
+      </c>
+      <c r="L71" s="20"/>
     </row>
     <row r="72" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C72" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D72" s="24">
+      <c r="D72" s="21">
         <v>2240</v>
       </c>
       <c r="E72" s="2" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="G72" s="24">
-        <v>8960</v>
+        <v>192</v>
+      </c>
+      <c r="G72" s="21">
+        <v>10000</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="L72" s="23"/>
+        <v>260</v>
+      </c>
+      <c r="L72" s="20"/>
     </row>
     <row r="73" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C73" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="D73" s="24">
-        <v>2240</v>
+      <c r="D73" s="21">
+        <v>45</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>239</v>
+        <v>226</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="G73" s="24">
-        <v>16000</v>
+        <v>186</v>
+      </c>
+      <c r="G73" s="21">
+        <v>112</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>257</v>
+        <v>246</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>258</v>
-      </c>
-      <c r="L73" s="23"/>
+        <v>161</v>
+      </c>
+      <c r="L73" s="20"/>
     </row>
     <row r="74" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C74" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D74" s="24">
-        <v>2240</v>
+      <c r="D74" s="21">
+        <v>45</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>242</v>
+        <v>229</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="G74" s="24">
-        <v>10000</v>
+        <v>230</v>
+      </c>
+      <c r="G74" s="21">
+        <v>112</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>262</v>
-      </c>
-      <c r="L74" s="23"/>
+        <v>168</v>
+      </c>
+      <c r="L74" s="20"/>
     </row>
     <row r="75" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C75" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="D75" s="24">
-        <v>45</v>
+      <c r="D75" s="21">
+        <v>34</v>
       </c>
       <c r="E75" s="2" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="G75" s="24">
-        <v>112</v>
+        <v>194</v>
+      </c>
+      <c r="G75" s="21">
+        <v>100</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="I75" s="5" t="s">
-        <v>163</v>
-      </c>
-      <c r="L75" s="23"/>
+        <v>251</v>
+      </c>
+      <c r="L75" s="20"/>
     </row>
     <row r="76" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C76" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D76" s="24">
-        <v>45</v>
+      <c r="D76" s="21">
+        <v>34</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="G76" s="24">
-        <v>112</v>
+        <v>236</v>
+      </c>
+      <c r="G76" s="21">
+        <v>100</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="I76" s="5" t="s">
-        <v>170</v>
-      </c>
-      <c r="L76" s="23"/>
+        <v>172</v>
+      </c>
+      <c r="L76" s="20"/>
     </row>
     <row r="77" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C77" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="D77" s="24">
-        <v>34</v>
+      <c r="D77" s="21">
+        <v>37</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="G77" s="24">
-        <v>100</v>
+        <v>239</v>
+      </c>
+      <c r="G77" s="21">
+        <v>204</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="L77" s="23"/>
-    </row>
-    <row r="78" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C78" s="3" t="s">
+        <v>258</v>
+      </c>
+      <c r="L77" s="20"/>
+    </row>
+    <row r="78" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C78" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D78" s="24">
-        <v>34</v>
-      </c>
-      <c r="E78" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="F78" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="G78" s="24">
-        <v>100</v>
-      </c>
-      <c r="H78" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="I78" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="L78" s="23"/>
-    </row>
-    <row r="79" spans="3:12" x14ac:dyDescent="0.3">
-      <c r="C79" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D79" s="24">
+      <c r="D78" s="22">
         <v>37</v>
       </c>
-      <c r="E79" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="F79" s="2" t="s">
+      <c r="E78" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="G79" s="24">
-        <v>204</v>
-      </c>
-      <c r="H79" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="I79" s="5" t="s">
-        <v>260</v>
-      </c>
-      <c r="L79" s="23"/>
-    </row>
-    <row r="80" spans="3:12" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C80" s="6" t="s">
-        <v>68</v>
-      </c>
-      <c r="D80" s="25">
-        <v>37</v>
-      </c>
-      <c r="E80" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="F80" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="G80" s="25">
+      <c r="F78" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="G78" s="22">
         <v>224</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>263</v>
-      </c>
-      <c r="I80" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="L80" s="23"/>
+      <c r="H78" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="I78" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="L78" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="22">
+  <mergeCells count="20">
     <mergeCell ref="C4:I4"/>
+    <mergeCell ref="C33:I33"/>
     <mergeCell ref="C5:I5"/>
-    <mergeCell ref="C6:I6"/>
-    <mergeCell ref="C35:I35"/>
-    <mergeCell ref="C7:I7"/>
-    <mergeCell ref="D16:I16"/>
-    <mergeCell ref="D25:I25"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D66:I66"/>
-    <mergeCell ref="C36:I36"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D51:I51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="G52:I52"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="G65:I65"/>
+    <mergeCell ref="D64:I64"/>
+    <mergeCell ref="C34:I34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D49:I49"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="G50:I50"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Dokumentace/benchmark-results.xlsx
+++ b/Dokumentace/benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\diplomka\Dokumentace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37DE86-5D81-405B-8E4A-A5E9B11AFFD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177ACB76-DC95-4F2C-99F9-BACE1EF412C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{209728F2-C094-423C-80BE-A506D0BCB5A3}"/>
   </bookViews>
@@ -1001,6 +1001,33 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1029,33 +1056,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,14 +1373,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950500D-10BC-4704-8A46-A63808D85E74}">
   <dimension ref="C3:AN482"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A431" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L459" sqref="L459"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5:I40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="14.88671875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
@@ -1518,14 +1518,14 @@
     </row>
     <row r="5" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C5" s="6"/>
-      <c r="D5" s="31" t="s">
+      <c r="D5" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="33"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="42"/>
       <c r="L5" s="1" t="s">
         <v>10</v>
       </c>
@@ -1601,16 +1601,16 @@
     </row>
     <row r="6" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
-      <c r="D6" s="27" t="s">
+      <c r="D6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="27"/>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27" t="s">
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="27"/>
-      <c r="I6" s="28"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
@@ -1686,22 +1686,22 @@
     </row>
     <row r="7" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C7" s="7"/>
-      <c r="D7" s="37" t="s">
+      <c r="D7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E7" s="37" t="s">
+      <c r="E7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="37" t="s">
+      <c r="F7" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="37" t="s">
+      <c r="G7" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H7" s="37" t="s">
+      <c r="H7" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I7" s="38" t="s">
+      <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
       <c r="L7" s="1" t="s">
@@ -1779,14 +1779,14 @@
     </row>
     <row r="8" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C8" s="7"/>
-      <c r="D8" s="34" t="s">
+      <c r="D8" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
-      <c r="G8" s="35"/>
-      <c r="H8" s="35"/>
-      <c r="I8" s="36"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="45"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="S8" s="5"/>
@@ -1992,14 +1992,14 @@
     </row>
     <row r="11" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C11" s="7"/>
-      <c r="D11" s="34" t="s">
+      <c r="D11" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="36"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="44"/>
+      <c r="G11" s="44"/>
+      <c r="H11" s="44"/>
+      <c r="I11" s="45"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="S11" s="5"/>
@@ -2169,14 +2169,14 @@
     </row>
     <row r="14" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C14" s="7"/>
-      <c r="D14" s="34" t="s">
+      <c r="D14" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
-      <c r="G14" s="35"/>
-      <c r="H14" s="35"/>
-      <c r="I14" s="36"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="45"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="S14" s="5"/>
@@ -2382,14 +2382,14 @@
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
-      <c r="D17" s="27" t="s">
+      <c r="D17" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="28"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="37"/>
       <c r="L17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2465,16 +2465,16 @@
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
-      <c r="D18" s="27" t="s">
+      <c r="D18" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27" t="s">
+      <c r="E18" s="36"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="27"/>
-      <c r="I18" s="28"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="37"/>
       <c r="L18" s="1" t="s">
         <v>18</v>
       </c>
@@ -2550,22 +2550,22 @@
     </row>
     <row r="19" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C19" s="7"/>
-      <c r="D19" s="37" t="s">
+      <c r="D19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E19" s="37" t="s">
+      <c r="E19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="37" t="s">
+      <c r="F19" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G19" s="37" t="s">
+      <c r="G19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H19" s="37" t="s">
+      <c r="H19" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I19" s="38" t="s">
+      <c r="I19" s="28" t="s">
         <v>7</v>
       </c>
       <c r="L19" s="1" t="s">
@@ -2643,14 +2643,14 @@
     </row>
     <row r="20" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C20" s="7"/>
-      <c r="D20" s="34" t="s">
+      <c r="D20" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="35"/>
-      <c r="I20" s="36"/>
+      <c r="E20" s="44"/>
+      <c r="F20" s="44"/>
+      <c r="G20" s="44"/>
+      <c r="H20" s="44"/>
+      <c r="I20" s="45"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="S20" s="5"/>
@@ -2856,14 +2856,14 @@
     </row>
     <row r="23" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C23" s="7"/>
-      <c r="D23" s="34" t="s">
+      <c r="D23" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="35"/>
-      <c r="I23" s="36"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="45"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="S23" s="5"/>
@@ -3069,14 +3069,14 @@
     </row>
     <row r="26" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C26" s="7"/>
-      <c r="D26" s="34" t="s">
+      <c r="D26" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="35"/>
-      <c r="I26" s="36"/>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="45"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="S26" s="5"/>
@@ -3282,14 +3282,14 @@
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-      <c r="H29" s="27"/>
-      <c r="I29" s="28"/>
+      <c r="E29" s="36"/>
+      <c r="F29" s="36"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="36"/>
+      <c r="I29" s="37"/>
       <c r="L29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3365,16 +3365,16 @@
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="27"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="36"/>
+      <c r="G30" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="27"/>
-      <c r="I30" s="28"/>
+      <c r="H30" s="36"/>
+      <c r="I30" s="37"/>
       <c r="L30" s="1" t="s">
         <v>9</v>
       </c>
@@ -3432,22 +3432,22 @@
     </row>
     <row r="31" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C31" s="7"/>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="E31" s="37" t="s">
+      <c r="E31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="37" t="s">
+      <c r="F31" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="37" t="s">
+      <c r="G31" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="H31" s="37" t="s">
+      <c r="H31" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="I31" s="38" t="s">
+      <c r="I31" s="28" t="s">
         <v>7</v>
       </c>
       <c r="L31" s="1" t="s">
@@ -3507,14 +3507,14 @@
     </row>
     <row r="32" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C32" s="7"/>
-      <c r="D32" s="34" t="s">
+      <c r="D32" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="35"/>
-      <c r="I32" s="36"/>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="45"/>
       <c r="N32" s="5"/>
       <c r="O32" s="5"/>
       <c r="S32" s="5"/>
@@ -3720,14 +3720,14 @@
     </row>
     <row r="35" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C35" s="7"/>
-      <c r="D35" s="34" t="s">
+      <c r="D35" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="35"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="35"/>
-      <c r="I35" s="36"/>
+      <c r="E35" s="44"/>
+      <c r="F35" s="44"/>
+      <c r="G35" s="44"/>
+      <c r="H35" s="44"/>
+      <c r="I35" s="45"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="S35" s="5"/>
@@ -3933,14 +3933,14 @@
     </row>
     <row r="38" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C38" s="7"/>
-      <c r="D38" s="34" t="s">
+      <c r="D38" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="E38" s="35"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="35"/>
-      <c r="I38" s="36"/>
+      <c r="E38" s="44"/>
+      <c r="F38" s="44"/>
+      <c r="G38" s="44"/>
+      <c r="H38" s="44"/>
+      <c r="I38" s="45"/>
       <c r="N38" s="5"/>
       <c r="O38" s="5"/>
       <c r="S38" s="5"/>
@@ -4265,14 +4265,14 @@
     </row>
     <row r="43" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C43" s="6"/>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E43" s="32"/>
-      <c r="F43" s="32"/>
-      <c r="G43" s="32"/>
-      <c r="H43" s="32"/>
-      <c r="I43" s="33"/>
+      <c r="E43" s="41"/>
+      <c r="F43" s="41"/>
+      <c r="G43" s="41"/>
+      <c r="H43" s="41"/>
+      <c r="I43" s="42"/>
       <c r="L43" s="1" t="s">
         <v>33</v>
       </c>
@@ -4348,16 +4348,16 @@
     </row>
     <row r="44" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C44" s="7"/>
-      <c r="D44" s="27" t="s">
+      <c r="D44" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="27"/>
-      <c r="F44" s="27"/>
-      <c r="G44" s="27" t="s">
+      <c r="E44" s="36"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="27"/>
-      <c r="I44" s="28"/>
+      <c r="H44" s="36"/>
+      <c r="I44" s="37"/>
       <c r="L44" s="1" t="s">
         <v>34</v>
       </c>
@@ -4433,22 +4433,22 @@
     </row>
     <row r="45" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C45" s="7"/>
-      <c r="D45" s="39" t="s">
+      <c r="D45" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E45" s="39" t="s">
+      <c r="E45" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F45" s="39" t="s">
+      <c r="F45" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G45" s="39" t="s">
+      <c r="G45" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H45" s="39" t="s">
+      <c r="H45" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I45" s="40" t="s">
+      <c r="I45" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L45" s="1" t="s">
@@ -4526,14 +4526,14 @@
     </row>
     <row r="46" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C46" s="7"/>
-      <c r="D46" s="42" t="s">
+      <c r="D46" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43"/>
-      <c r="G46" s="43"/>
-      <c r="H46" s="43"/>
-      <c r="I46" s="44"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="33"/>
       <c r="N46" s="5"/>
       <c r="O46" s="5"/>
       <c r="S46" s="5"/>
@@ -5119,14 +5119,14 @@
     </row>
     <row r="53" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C53" s="7"/>
-      <c r="D53" s="42" t="s">
+      <c r="D53" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E53" s="43"/>
-      <c r="F53" s="43"/>
-      <c r="G53" s="43"/>
-      <c r="H53" s="43"/>
-      <c r="I53" s="44"/>
+      <c r="E53" s="32"/>
+      <c r="F53" s="32"/>
+      <c r="G53" s="32"/>
+      <c r="H53" s="32"/>
+      <c r="I53" s="33"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="S53" s="5"/>
@@ -5669,14 +5669,14 @@
     </row>
     <row r="60" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C60" s="7"/>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="F60" s="27"/>
-      <c r="G60" s="27"/>
-      <c r="H60" s="27"/>
-      <c r="I60" s="28"/>
+      <c r="E60" s="36"/>
+      <c r="F60" s="36"/>
+      <c r="G60" s="36"/>
+      <c r="H60" s="36"/>
+      <c r="I60" s="37"/>
       <c r="L60" s="1" t="s">
         <v>46</v>
       </c>
@@ -5752,16 +5752,16 @@
     </row>
     <row r="61" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C61" s="7"/>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="27"/>
-      <c r="F61" s="27"/>
-      <c r="G61" s="27" t="s">
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="27"/>
-      <c r="I61" s="28"/>
+      <c r="H61" s="36"/>
+      <c r="I61" s="37"/>
       <c r="L61" s="1" t="s">
         <v>47</v>
       </c>
@@ -5837,22 +5837,22 @@
     </row>
     <row r="62" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C62" s="7"/>
-      <c r="D62" s="39" t="s">
+      <c r="D62" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E62" s="39" t="s">
+      <c r="E62" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F62" s="39" t="s">
+      <c r="F62" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G62" s="39" t="s">
+      <c r="G62" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H62" s="39" t="s">
+      <c r="H62" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I62" s="40" t="s">
+      <c r="I62" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L62" s="1" t="s">
@@ -5930,14 +5930,14 @@
     </row>
     <row r="63" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C63" s="7"/>
-      <c r="D63" s="42" t="s">
+      <c r="D63" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E63" s="43"/>
-      <c r="F63" s="43"/>
-      <c r="G63" s="43"/>
-      <c r="H63" s="43"/>
-      <c r="I63" s="44"/>
+      <c r="E63" s="32"/>
+      <c r="F63" s="32"/>
+      <c r="G63" s="32"/>
+      <c r="H63" s="32"/>
+      <c r="I63" s="33"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="S63" s="5"/>
@@ -6487,14 +6487,14 @@
     </row>
     <row r="70" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C70" s="7"/>
-      <c r="D70" s="42" t="s">
+      <c r="D70" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E70" s="43"/>
-      <c r="F70" s="43"/>
-      <c r="G70" s="43"/>
-      <c r="H70" s="43"/>
-      <c r="I70" s="44"/>
+      <c r="E70" s="32"/>
+      <c r="F70" s="32"/>
+      <c r="G70" s="32"/>
+      <c r="H70" s="32"/>
+      <c r="I70" s="33"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="S70" s="5"/>
@@ -7062,14 +7062,14 @@
     </row>
     <row r="77" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
-      <c r="D77" s="27" t="s">
+      <c r="D77" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="27"/>
-      <c r="F77" s="27"/>
-      <c r="G77" s="27"/>
-      <c r="H77" s="27"/>
-      <c r="I77" s="28"/>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36"/>
+      <c r="G77" s="36"/>
+      <c r="H77" s="36"/>
+      <c r="I77" s="37"/>
       <c r="L77" s="1" t="s">
         <v>9</v>
       </c>
@@ -7127,16 +7127,16 @@
     </row>
     <row r="78" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C78" s="7"/>
-      <c r="D78" s="27" t="s">
+      <c r="D78" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="27"/>
-      <c r="F78" s="27"/>
-      <c r="G78" s="27" t="s">
+      <c r="E78" s="36"/>
+      <c r="F78" s="36"/>
+      <c r="G78" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="27"/>
-      <c r="I78" s="28"/>
+      <c r="H78" s="36"/>
+      <c r="I78" s="37"/>
       <c r="L78" s="1" t="s">
         <v>58</v>
       </c>
@@ -7209,22 +7209,22 @@
     </row>
     <row r="79" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C79" s="7"/>
-      <c r="D79" s="39" t="s">
+      <c r="D79" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E79" s="39" t="s">
+      <c r="E79" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F79" s="39" t="s">
+      <c r="F79" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G79" s="39" t="s">
+      <c r="G79" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H79" s="39" t="s">
+      <c r="H79" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I79" s="40" t="s">
+      <c r="I79" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L79" s="1" t="s">
@@ -7302,14 +7302,14 @@
     </row>
     <row r="80" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C80" s="7"/>
-      <c r="D80" s="42" t="s">
+      <c r="D80" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="E80" s="43"/>
-      <c r="F80" s="43"/>
-      <c r="G80" s="43"/>
-      <c r="H80" s="43"/>
-      <c r="I80" s="44"/>
+      <c r="E80" s="32"/>
+      <c r="F80" s="32"/>
+      <c r="G80" s="32"/>
+      <c r="H80" s="32"/>
+      <c r="I80" s="33"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="S80" s="5"/>
@@ -7862,14 +7862,14 @@
     </row>
     <row r="87" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C87" s="7"/>
-      <c r="D87" s="42" t="s">
+      <c r="D87" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E87" s="43"/>
-      <c r="F87" s="43"/>
-      <c r="G87" s="43"/>
-      <c r="H87" s="43"/>
-      <c r="I87" s="44"/>
+      <c r="E87" s="32"/>
+      <c r="F87" s="32"/>
+      <c r="G87" s="32"/>
+      <c r="H87" s="32"/>
+      <c r="I87" s="33"/>
       <c r="N87" s="5"/>
       <c r="O87" s="5"/>
       <c r="S87" s="5"/>
@@ -8511,14 +8511,14 @@
     </row>
     <row r="95" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
-      <c r="D95" s="31" t="s">
+      <c r="D95" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="32"/>
-      <c r="F95" s="32"/>
-      <c r="G95" s="32"/>
-      <c r="H95" s="32"/>
-      <c r="I95" s="33"/>
+      <c r="E95" s="41"/>
+      <c r="F95" s="41"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="41"/>
+      <c r="I95" s="42"/>
       <c r="L95" s="1" t="s">
         <v>9</v>
       </c>
@@ -8576,16 +8576,16 @@
     </row>
     <row r="96" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C96" s="7"/>
-      <c r="D96" s="27" t="s">
+      <c r="D96" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="27"/>
-      <c r="F96" s="27"/>
-      <c r="G96" s="27" t="s">
+      <c r="E96" s="36"/>
+      <c r="F96" s="36"/>
+      <c r="G96" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="27"/>
-      <c r="I96" s="28"/>
+      <c r="H96" s="36"/>
+      <c r="I96" s="37"/>
       <c r="L96" s="1" t="s">
         <v>33</v>
       </c>
@@ -8658,22 +8658,22 @@
     </row>
     <row r="97" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C97" s="7"/>
-      <c r="D97" s="39" t="s">
+      <c r="D97" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E97" s="39" t="s">
+      <c r="E97" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F97" s="39" t="s">
+      <c r="F97" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G97" s="39" t="s">
+      <c r="G97" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H97" s="39" t="s">
+      <c r="H97" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I97" s="40" t="s">
+      <c r="I97" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L97" s="1" t="s">
@@ -8751,14 +8751,14 @@
     </row>
     <row r="98" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C98" s="7"/>
-      <c r="D98" s="42" t="s">
+      <c r="D98" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="43"/>
-      <c r="F98" s="43"/>
-      <c r="G98" s="43"/>
-      <c r="H98" s="43"/>
-      <c r="I98" s="44"/>
+      <c r="E98" s="32"/>
+      <c r="F98" s="32"/>
+      <c r="G98" s="32"/>
+      <c r="H98" s="32"/>
+      <c r="I98" s="33"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="S98" s="5"/>
@@ -8964,14 +8964,14 @@
     </row>
     <row r="101" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C101" s="18"/>
-      <c r="D101" s="42" t="s">
+      <c r="D101" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="43"/>
-      <c r="F101" s="43"/>
-      <c r="G101" s="43"/>
-      <c r="H101" s="43"/>
-      <c r="I101" s="44"/>
+      <c r="E101" s="32"/>
+      <c r="F101" s="32"/>
+      <c r="G101" s="32"/>
+      <c r="H101" s="32"/>
+      <c r="I101" s="33"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="S101" s="5"/>
@@ -9177,14 +9177,14 @@
     </row>
     <row r="104" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C104" s="18"/>
-      <c r="D104" s="42" t="s">
+      <c r="D104" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="43"/>
-      <c r="F104" s="43"/>
-      <c r="G104" s="43"/>
-      <c r="H104" s="43"/>
-      <c r="I104" s="44"/>
+      <c r="E104" s="32"/>
+      <c r="F104" s="32"/>
+      <c r="G104" s="32"/>
+      <c r="H104" s="32"/>
+      <c r="I104" s="33"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="S104" s="5"/>
@@ -9360,14 +9360,14 @@
     </row>
     <row r="107" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C107" s="18"/>
-      <c r="D107" s="27" t="s">
+      <c r="D107" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E107" s="27"/>
-      <c r="F107" s="27"/>
-      <c r="G107" s="27"/>
-      <c r="H107" s="27"/>
-      <c r="I107" s="28"/>
+      <c r="E107" s="36"/>
+      <c r="F107" s="36"/>
+      <c r="G107" s="36"/>
+      <c r="H107" s="36"/>
+      <c r="I107" s="37"/>
       <c r="L107" s="1" t="s">
         <v>74</v>
       </c>
@@ -9440,16 +9440,16 @@
     </row>
     <row r="108" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C108" s="18"/>
-      <c r="D108" s="27" t="s">
+      <c r="D108" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="27"/>
-      <c r="F108" s="27"/>
-      <c r="G108" s="27" t="s">
+      <c r="E108" s="36"/>
+      <c r="F108" s="36"/>
+      <c r="G108" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H108" s="27"/>
-      <c r="I108" s="28"/>
+      <c r="H108" s="36"/>
+      <c r="I108" s="37"/>
       <c r="L108" s="1" t="s">
         <v>75</v>
       </c>
@@ -9525,22 +9525,22 @@
     </row>
     <row r="109" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C109" s="18"/>
-      <c r="D109" s="39" t="s">
+      <c r="D109" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E109" s="39" t="s">
+      <c r="E109" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F109" s="39" t="s">
+      <c r="F109" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G109" s="39" t="s">
+      <c r="G109" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H109" s="39" t="s">
+      <c r="H109" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I109" s="40" t="s">
+      <c r="I109" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L109" s="1" t="s">
@@ -9618,14 +9618,14 @@
     </row>
     <row r="110" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C110" s="18"/>
-      <c r="D110" s="42" t="s">
+      <c r="D110" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="43"/>
-      <c r="F110" s="43"/>
-      <c r="G110" s="43"/>
-      <c r="H110" s="43"/>
-      <c r="I110" s="44"/>
+      <c r="E110" s="32"/>
+      <c r="F110" s="32"/>
+      <c r="G110" s="32"/>
+      <c r="H110" s="32"/>
+      <c r="I110" s="33"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="S110" s="5"/>
@@ -9831,14 +9831,14 @@
     </row>
     <row r="113" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C113" s="18"/>
-      <c r="D113" s="42" t="s">
+      <c r="D113" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="E113" s="43"/>
-      <c r="F113" s="43"/>
-      <c r="G113" s="43"/>
-      <c r="H113" s="43"/>
-      <c r="I113" s="44"/>
+      <c r="E113" s="32"/>
+      <c r="F113" s="32"/>
+      <c r="G113" s="32"/>
+      <c r="H113" s="32"/>
+      <c r="I113" s="33"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="S113" s="5"/>
@@ -10026,14 +10026,14 @@
     </row>
     <row r="116" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C116" s="18"/>
-      <c r="D116" s="42" t="s">
+      <c r="D116" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="43"/>
-      <c r="F116" s="43"/>
-      <c r="G116" s="43"/>
-      <c r="H116" s="43"/>
-      <c r="I116" s="44"/>
+      <c r="E116" s="32"/>
+      <c r="F116" s="32"/>
+      <c r="G116" s="32"/>
+      <c r="H116" s="32"/>
+      <c r="I116" s="33"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="S116" s="5"/>
@@ -10221,14 +10221,14 @@
     </row>
     <row r="119" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C119" s="18"/>
-      <c r="D119" s="27" t="s">
+      <c r="D119" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="27"/>
-      <c r="F119" s="27"/>
-      <c r="G119" s="27"/>
-      <c r="H119" s="27"/>
-      <c r="I119" s="28"/>
+      <c r="E119" s="36"/>
+      <c r="F119" s="36"/>
+      <c r="G119" s="36"/>
+      <c r="H119" s="36"/>
+      <c r="I119" s="37"/>
       <c r="L119" s="1" t="s">
         <v>81</v>
       </c>
@@ -10304,16 +10304,16 @@
     </row>
     <row r="120" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C120" s="18"/>
-      <c r="D120" s="27" t="s">
+      <c r="D120" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="27"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="27" t="s">
+      <c r="E120" s="36"/>
+      <c r="F120" s="36"/>
+      <c r="G120" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H120" s="27"/>
-      <c r="I120" s="28"/>
+      <c r="H120" s="36"/>
+      <c r="I120" s="37"/>
       <c r="L120" s="1" t="s">
         <v>82</v>
       </c>
@@ -10389,22 +10389,22 @@
     </row>
     <row r="121" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C121" s="18"/>
-      <c r="D121" s="39" t="s">
+      <c r="D121" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="39" t="s">
+      <c r="E121" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F121" s="39" t="s">
+      <c r="F121" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G121" s="39" t="s">
+      <c r="G121" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H121" s="39" t="s">
+      <c r="H121" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I121" s="40" t="s">
+      <c r="I121" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L121" s="1" t="s">
@@ -10482,14 +10482,14 @@
     </row>
     <row r="122" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C122" s="18"/>
-      <c r="D122" s="42" t="s">
+      <c r="D122" s="31" t="s">
         <v>134</v>
       </c>
-      <c r="E122" s="43"/>
-      <c r="F122" s="43"/>
-      <c r="G122" s="43"/>
-      <c r="H122" s="43"/>
-      <c r="I122" s="44"/>
+      <c r="E122" s="32"/>
+      <c r="F122" s="32"/>
+      <c r="G122" s="32"/>
+      <c r="H122" s="32"/>
+      <c r="I122" s="33"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="S122" s="5"/>
@@ -10695,14 +10695,14 @@
     </row>
     <row r="125" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C125" s="18"/>
-      <c r="D125" s="42" t="s">
+      <c r="D125" s="31" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="43"/>
-      <c r="F125" s="43"/>
-      <c r="G125" s="43"/>
-      <c r="H125" s="43"/>
-      <c r="I125" s="44"/>
+      <c r="E125" s="32"/>
+      <c r="F125" s="32"/>
+      <c r="G125" s="32"/>
+      <c r="H125" s="32"/>
+      <c r="I125" s="33"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="S125" s="5"/>
@@ -10908,14 +10908,14 @@
     </row>
     <row r="128" spans="3:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C128" s="18"/>
-      <c r="D128" s="42" t="s">
+      <c r="D128" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="43"/>
-      <c r="F128" s="43"/>
-      <c r="G128" s="43"/>
-      <c r="H128" s="43"/>
-      <c r="I128" s="44"/>
+      <c r="E128" s="32"/>
+      <c r="F128" s="32"/>
+      <c r="G128" s="32"/>
+      <c r="H128" s="32"/>
+      <c r="I128" s="33"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="S128" s="5"/>
@@ -11162,14 +11162,14 @@
     </row>
     <row r="132" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
-      <c r="D132" s="29" t="s">
+      <c r="D132" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E132" s="29"/>
-      <c r="F132" s="29"/>
-      <c r="G132" s="29"/>
-      <c r="H132" s="29"/>
-      <c r="I132" s="30"/>
+      <c r="E132" s="38"/>
+      <c r="F132" s="38"/>
+      <c r="G132" s="38"/>
+      <c r="H132" s="38"/>
+      <c r="I132" s="39"/>
       <c r="L132" s="1" t="s">
         <v>89</v>
       </c>
@@ -11242,16 +11242,16 @@
     </row>
     <row r="133" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C133" s="7"/>
-      <c r="D133" s="27" t="s">
+      <c r="D133" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="27"/>
-      <c r="F133" s="27"/>
-      <c r="G133" s="27" t="s">
+      <c r="E133" s="36"/>
+      <c r="F133" s="36"/>
+      <c r="G133" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H133" s="27"/>
-      <c r="I133" s="28"/>
+      <c r="H133" s="36"/>
+      <c r="I133" s="37"/>
       <c r="L133" s="1" t="s">
         <v>90</v>
       </c>
@@ -11327,22 +11327,22 @@
     </row>
     <row r="134" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C134" s="7"/>
-      <c r="D134" s="39" t="s">
+      <c r="D134" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="39" t="s">
+      <c r="E134" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F134" s="39" t="s">
+      <c r="F134" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G134" s="39" t="s">
+      <c r="G134" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H134" s="39" t="s">
+      <c r="H134" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I134" s="40" t="s">
+      <c r="I134" s="30" t="s">
         <v>7</v>
       </c>
       <c r="L134" s="1" t="s">
@@ -11417,14 +11417,14 @@
     </row>
     <row r="135" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C135" s="7"/>
-      <c r="D135" s="41" t="s">
+      <c r="D135" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E135" s="41"/>
-      <c r="F135" s="41"/>
-      <c r="G135" s="41"/>
-      <c r="H135" s="41"/>
-      <c r="I135" s="45"/>
+      <c r="E135" s="34"/>
+      <c r="F135" s="34"/>
+      <c r="G135" s="34"/>
+      <c r="H135" s="34"/>
+      <c r="I135" s="35"/>
       <c r="L135" s="1" t="s">
         <v>9</v>
       </c>
@@ -11740,14 +11740,14 @@
     </row>
     <row r="139" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C139" s="18"/>
-      <c r="D139" s="41" t="s">
+      <c r="D139" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E139" s="41"/>
-      <c r="F139" s="41"/>
-      <c r="G139" s="41"/>
-      <c r="H139" s="41"/>
-      <c r="I139" s="45"/>
+      <c r="E139" s="34"/>
+      <c r="F139" s="34"/>
+      <c r="G139" s="34"/>
+      <c r="H139" s="34"/>
+      <c r="I139" s="35"/>
       <c r="AK139" s="1" t="s">
         <v>94</v>
       </c>
@@ -11832,14 +11832,14 @@
     </row>
     <row r="143" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C143" s="18"/>
-      <c r="D143" s="41" t="s">
+      <c r="D143" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E143" s="41"/>
-      <c r="F143" s="41"/>
-      <c r="G143" s="41"/>
-      <c r="H143" s="41"/>
-      <c r="I143" s="45"/>
+      <c r="E143" s="34"/>
+      <c r="F143" s="34"/>
+      <c r="G143" s="34"/>
+      <c r="H143" s="34"/>
+      <c r="I143" s="35"/>
     </row>
     <row r="144" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C144" s="18" t="s">
@@ -11912,59 +11912,59 @@
     </row>
     <row r="147" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C147" s="18"/>
-      <c r="D147" s="27" t="s">
+      <c r="D147" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E147" s="27"/>
-      <c r="F147" s="27"/>
-      <c r="G147" s="27"/>
-      <c r="H147" s="27"/>
-      <c r="I147" s="28"/>
+      <c r="E147" s="36"/>
+      <c r="F147" s="36"/>
+      <c r="G147" s="36"/>
+      <c r="H147" s="36"/>
+      <c r="I147" s="37"/>
     </row>
     <row r="148" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C148" s="18"/>
-      <c r="D148" s="27" t="s">
+      <c r="D148" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="27"/>
-      <c r="F148" s="27"/>
-      <c r="G148" s="27" t="s">
+      <c r="E148" s="36"/>
+      <c r="F148" s="36"/>
+      <c r="G148" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H148" s="27"/>
-      <c r="I148" s="28"/>
+      <c r="H148" s="36"/>
+      <c r="I148" s="37"/>
     </row>
     <row r="149" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C149" s="18"/>
-      <c r="D149" s="39" t="s">
+      <c r="D149" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E149" s="39" t="s">
+      <c r="E149" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F149" s="39" t="s">
+      <c r="F149" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G149" s="39" t="s">
+      <c r="G149" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H149" s="39" t="s">
+      <c r="H149" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I149" s="40" t="s">
+      <c r="I149" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="150" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C150" s="18"/>
-      <c r="D150" s="41" t="s">
+      <c r="D150" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E150" s="41"/>
-      <c r="F150" s="41"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="45"/>
+      <c r="E150" s="34"/>
+      <c r="F150" s="34"/>
+      <c r="G150" s="34"/>
+      <c r="H150" s="34"/>
+      <c r="I150" s="35"/>
     </row>
     <row r="151" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C151" s="18" t="s">
@@ -12037,14 +12037,14 @@
     </row>
     <row r="154" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C154" s="18"/>
-      <c r="D154" s="41" t="s">
+      <c r="D154" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E154" s="41"/>
-      <c r="F154" s="41"/>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="45"/>
+      <c r="E154" s="34"/>
+      <c r="F154" s="34"/>
+      <c r="G154" s="34"/>
+      <c r="H154" s="34"/>
+      <c r="I154" s="35"/>
     </row>
     <row r="155" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C155" s="18" t="s">
@@ -12117,14 +12117,14 @@
     </row>
     <row r="158" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C158" s="18"/>
-      <c r="D158" s="41" t="s">
+      <c r="D158" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E158" s="41"/>
-      <c r="F158" s="41"/>
-      <c r="G158" s="41"/>
-      <c r="H158" s="41"/>
-      <c r="I158" s="45"/>
+      <c r="E158" s="34"/>
+      <c r="F158" s="34"/>
+      <c r="G158" s="34"/>
+      <c r="H158" s="34"/>
+      <c r="I158" s="35"/>
     </row>
     <row r="159" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C159" s="18" t="s">
@@ -12205,14 +12205,14 @@
     </row>
     <row r="162" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C162" s="18"/>
-      <c r="D162" s="27" t="s">
+      <c r="D162" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E162" s="27"/>
-      <c r="F162" s="27"/>
-      <c r="G162" s="27"/>
-      <c r="H162" s="27"/>
-      <c r="I162" s="28"/>
+      <c r="E162" s="36"/>
+      <c r="F162" s="36"/>
+      <c r="G162" s="36"/>
+      <c r="H162" s="36"/>
+      <c r="I162" s="37"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="S162" s="5"/>
@@ -12220,16 +12220,16 @@
     </row>
     <row r="163" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C163" s="18"/>
-      <c r="D163" s="27" t="s">
+      <c r="D163" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="27"/>
-      <c r="F163" s="27"/>
-      <c r="G163" s="27" t="s">
+      <c r="E163" s="36"/>
+      <c r="F163" s="36"/>
+      <c r="G163" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H163" s="27"/>
-      <c r="I163" s="28"/>
+      <c r="H163" s="36"/>
+      <c r="I163" s="37"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="S163" s="5"/>
@@ -12237,22 +12237,22 @@
     </row>
     <row r="164" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C164" s="18"/>
-      <c r="D164" s="39" t="s">
+      <c r="D164" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E164" s="39" t="s">
+      <c r="E164" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F164" s="39" t="s">
+      <c r="F164" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G164" s="39" t="s">
+      <c r="G164" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H164" s="39" t="s">
+      <c r="H164" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I164" s="40" t="s">
+      <c r="I164" s="30" t="s">
         <v>7</v>
       </c>
       <c r="N164" s="5"/>
@@ -12262,14 +12262,14 @@
     </row>
     <row r="165" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C165" s="18"/>
-      <c r="D165" s="41" t="s">
+      <c r="D165" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E165" s="41"/>
-      <c r="F165" s="41"/>
-      <c r="G165" s="41"/>
-      <c r="H165" s="41"/>
-      <c r="I165" s="45"/>
+      <c r="E165" s="34"/>
+      <c r="F165" s="34"/>
+      <c r="G165" s="34"/>
+      <c r="H165" s="34"/>
+      <c r="I165" s="35"/>
       <c r="N165" s="5"/>
       <c r="O165" s="5"/>
       <c r="S165" s="5"/>
@@ -12358,14 +12358,14 @@
     </row>
     <row r="169" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C169" s="18"/>
-      <c r="D169" s="41" t="s">
+      <c r="D169" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E169" s="41"/>
-      <c r="F169" s="41"/>
-      <c r="G169" s="41"/>
-      <c r="H169" s="41"/>
-      <c r="I169" s="45"/>
+      <c r="E169" s="34"/>
+      <c r="F169" s="34"/>
+      <c r="G169" s="34"/>
+      <c r="H169" s="34"/>
+      <c r="I169" s="35"/>
       <c r="N169" s="5"/>
       <c r="O169" s="5"/>
       <c r="S169" s="5"/>
@@ -12448,14 +12448,14 @@
     </row>
     <row r="173" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C173" s="18"/>
-      <c r="D173" s="41" t="s">
+      <c r="D173" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E173" s="41"/>
-      <c r="F173" s="41"/>
-      <c r="G173" s="41"/>
-      <c r="H173" s="41"/>
-      <c r="I173" s="45"/>
+      <c r="E173" s="34"/>
+      <c r="F173" s="34"/>
+      <c r="G173" s="34"/>
+      <c r="H173" s="34"/>
+      <c r="I173" s="35"/>
       <c r="R173" s="5"/>
       <c r="S173" s="5"/>
       <c r="W173" s="5"/>
@@ -12560,14 +12560,14 @@
     </row>
     <row r="178" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C178" s="25"/>
-      <c r="D178" s="29" t="s">
+      <c r="D178" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E178" s="29"/>
-      <c r="F178" s="29"/>
-      <c r="G178" s="29"/>
-      <c r="H178" s="29"/>
-      <c r="I178" s="30"/>
+      <c r="E178" s="38"/>
+      <c r="F178" s="38"/>
+      <c r="G178" s="38"/>
+      <c r="H178" s="38"/>
+      <c r="I178" s="39"/>
       <c r="R178" s="5"/>
       <c r="S178" s="5"/>
       <c r="W178" s="5"/>
@@ -12577,16 +12577,16 @@
     </row>
     <row r="179" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C179" s="26"/>
-      <c r="D179" s="27" t="s">
+      <c r="D179" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="27"/>
-      <c r="F179" s="27"/>
-      <c r="G179" s="27" t="s">
+      <c r="E179" s="36"/>
+      <c r="F179" s="36"/>
+      <c r="G179" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H179" s="27"/>
-      <c r="I179" s="28"/>
+      <c r="H179" s="36"/>
+      <c r="I179" s="37"/>
       <c r="R179" s="5"/>
       <c r="S179" s="5"/>
       <c r="W179" s="5"/>
@@ -12596,22 +12596,22 @@
     </row>
     <row r="180" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C180" s="26"/>
-      <c r="D180" s="39" t="s">
+      <c r="D180" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E180" s="39" t="s">
+      <c r="E180" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F180" s="39" t="s">
+      <c r="F180" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G180" s="39" t="s">
+      <c r="G180" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H180" s="39" t="s">
+      <c r="H180" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I180" s="40" t="s">
+      <c r="I180" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R180" s="5"/>
@@ -12886,48 +12886,48 @@
     </row>
     <row r="191" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C191" s="7"/>
-      <c r="D191" s="27" t="s">
+      <c r="D191" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E191" s="27"/>
-      <c r="F191" s="27"/>
-      <c r="G191" s="27"/>
-      <c r="H191" s="27"/>
-      <c r="I191" s="28"/>
+      <c r="E191" s="36"/>
+      <c r="F191" s="36"/>
+      <c r="G191" s="36"/>
+      <c r="H191" s="36"/>
+      <c r="I191" s="37"/>
       <c r="R191" s="5"/>
     </row>
     <row r="192" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C192" s="7"/>
-      <c r="D192" s="27" t="s">
+      <c r="D192" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E192" s="27"/>
-      <c r="F192" s="27"/>
-      <c r="G192" s="27" t="s">
+      <c r="E192" s="36"/>
+      <c r="F192" s="36"/>
+      <c r="G192" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H192" s="27"/>
-      <c r="I192" s="28"/>
+      <c r="H192" s="36"/>
+      <c r="I192" s="37"/>
       <c r="R192" s="5"/>
     </row>
     <row r="193" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C193" s="7"/>
-      <c r="D193" s="39" t="s">
+      <c r="D193" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E193" s="39" t="s">
+      <c r="E193" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F193" s="39" t="s">
+      <c r="F193" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G193" s="39" t="s">
+      <c r="G193" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H193" s="39" t="s">
+      <c r="H193" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I193" s="40" t="s">
+      <c r="I193" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13163,46 +13163,46 @@
     </row>
     <row r="204" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C204" s="18"/>
-      <c r="D204" s="27" t="s">
+      <c r="D204" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E204" s="27"/>
-      <c r="F204" s="27"/>
-      <c r="G204" s="27"/>
-      <c r="H204" s="27"/>
-      <c r="I204" s="28"/>
+      <c r="E204" s="36"/>
+      <c r="F204" s="36"/>
+      <c r="G204" s="36"/>
+      <c r="H204" s="36"/>
+      <c r="I204" s="37"/>
     </row>
     <row r="205" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C205" s="18"/>
-      <c r="D205" s="27" t="s">
+      <c r="D205" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E205" s="27"/>
-      <c r="F205" s="27"/>
-      <c r="G205" s="27" t="s">
+      <c r="E205" s="36"/>
+      <c r="F205" s="36"/>
+      <c r="G205" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H205" s="27"/>
-      <c r="I205" s="28"/>
+      <c r="H205" s="36"/>
+      <c r="I205" s="37"/>
     </row>
     <row r="206" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C206" s="18"/>
-      <c r="D206" s="39" t="s">
+      <c r="D206" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E206" s="39" t="s">
+      <c r="E206" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F206" s="39" t="s">
+      <c r="F206" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G206" s="39" t="s">
+      <c r="G206" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H206" s="39" t="s">
+      <c r="H206" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I206" s="40" t="s">
+      <c r="I206" s="30" t="s">
         <v>7</v>
       </c>
       <c r="AC206" s="5"/>
@@ -13474,50 +13474,50 @@
     </row>
     <row r="221" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C221" s="25"/>
-      <c r="D221" s="29" t="s">
+      <c r="D221" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E221" s="29"/>
-      <c r="F221" s="29"/>
-      <c r="G221" s="29"/>
-      <c r="H221" s="29"/>
-      <c r="I221" s="30"/>
+      <c r="E221" s="38"/>
+      <c r="F221" s="38"/>
+      <c r="G221" s="38"/>
+      <c r="H221" s="38"/>
+      <c r="I221" s="39"/>
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
     <row r="222" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C222" s="26"/>
-      <c r="D222" s="27" t="s">
+      <c r="D222" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E222" s="27"/>
-      <c r="F222" s="27"/>
-      <c r="G222" s="27" t="s">
+      <c r="E222" s="36"/>
+      <c r="F222" s="36"/>
+      <c r="G222" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H222" s="27"/>
-      <c r="I222" s="28"/>
+      <c r="H222" s="36"/>
+      <c r="I222" s="37"/>
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
     <row r="223" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C223" s="26"/>
-      <c r="D223" s="39" t="s">
+      <c r="D223" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E223" s="39" t="s">
+      <c r="E223" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F223" s="39" t="s">
+      <c r="F223" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G223" s="39" t="s">
+      <c r="G223" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H223" s="39" t="s">
+      <c r="H223" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I223" s="40" t="s">
+      <c r="I223" s="30" t="s">
         <v>7</v>
       </c>
       <c r="N223" s="5"/>
@@ -13663,46 +13663,46 @@
     </row>
     <row r="230" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C230" s="7"/>
-      <c r="D230" s="27" t="s">
+      <c r="D230" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E230" s="27"/>
-      <c r="F230" s="27"/>
-      <c r="G230" s="27"/>
-      <c r="H230" s="27"/>
-      <c r="I230" s="28"/>
+      <c r="E230" s="36"/>
+      <c r="F230" s="36"/>
+      <c r="G230" s="36"/>
+      <c r="H230" s="36"/>
+      <c r="I230" s="37"/>
     </row>
     <row r="231" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C231" s="7"/>
-      <c r="D231" s="27" t="s">
+      <c r="D231" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E231" s="27"/>
-      <c r="F231" s="27"/>
-      <c r="G231" s="27" t="s">
+      <c r="E231" s="36"/>
+      <c r="F231" s="36"/>
+      <c r="G231" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H231" s="27"/>
-      <c r="I231" s="28"/>
+      <c r="H231" s="36"/>
+      <c r="I231" s="37"/>
     </row>
     <row r="232" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C232" s="7"/>
-      <c r="D232" s="39" t="s">
+      <c r="D232" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E232" s="39" t="s">
+      <c r="E232" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F232" s="39" t="s">
+      <c r="F232" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G232" s="39" t="s">
+      <c r="G232" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H232" s="39" t="s">
+      <c r="H232" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I232" s="40" t="s">
+      <c r="I232" s="30" t="s">
         <v>7</v>
       </c>
     </row>
@@ -13852,50 +13852,50 @@
     </row>
     <row r="239" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C239" s="18"/>
-      <c r="D239" s="27" t="s">
+      <c r="D239" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E239" s="27"/>
-      <c r="F239" s="27"/>
-      <c r="G239" s="27"/>
-      <c r="H239" s="27"/>
-      <c r="I239" s="28"/>
+      <c r="E239" s="36"/>
+      <c r="F239" s="36"/>
+      <c r="G239" s="36"/>
+      <c r="H239" s="36"/>
+      <c r="I239" s="37"/>
       <c r="AC239" s="5"/>
       <c r="AD239" s="5"/>
     </row>
     <row r="240" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C240" s="18"/>
-      <c r="D240" s="27" t="s">
+      <c r="D240" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E240" s="27"/>
-      <c r="F240" s="27"/>
-      <c r="G240" s="27" t="s">
+      <c r="E240" s="36"/>
+      <c r="F240" s="36"/>
+      <c r="G240" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H240" s="27"/>
-      <c r="I240" s="28"/>
+      <c r="H240" s="36"/>
+      <c r="I240" s="37"/>
       <c r="AC240" s="5"/>
       <c r="AD240" s="5"/>
     </row>
     <row r="241" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C241" s="18"/>
-      <c r="D241" s="39" t="s">
+      <c r="D241" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E241" s="39" t="s">
+      <c r="E241" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F241" s="39" t="s">
+      <c r="F241" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G241" s="39" t="s">
+      <c r="G241" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H241" s="39" t="s">
+      <c r="H241" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I241" s="40" t="s">
+      <c r="I241" s="30" t="s">
         <v>7</v>
       </c>
       <c r="AC241" s="5"/>
@@ -14046,59 +14046,59 @@
     <row r="248" spans="3:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="249" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C249" s="25"/>
-      <c r="D249" s="29" t="s">
+      <c r="D249" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E249" s="29"/>
-      <c r="F249" s="29"/>
-      <c r="G249" s="29"/>
-      <c r="H249" s="29"/>
-      <c r="I249" s="30"/>
+      <c r="E249" s="38"/>
+      <c r="F249" s="38"/>
+      <c r="G249" s="38"/>
+      <c r="H249" s="38"/>
+      <c r="I249" s="39"/>
     </row>
     <row r="250" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C250" s="26"/>
-      <c r="D250" s="27" t="s">
+      <c r="D250" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E250" s="27"/>
-      <c r="F250" s="27"/>
-      <c r="G250" s="27" t="s">
+      <c r="E250" s="36"/>
+      <c r="F250" s="36"/>
+      <c r="G250" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H250" s="27"/>
-      <c r="I250" s="28"/>
+      <c r="H250" s="36"/>
+      <c r="I250" s="37"/>
     </row>
     <row r="251" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C251" s="26"/>
-      <c r="D251" s="39" t="s">
+      <c r="D251" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E251" s="39" t="s">
+      <c r="E251" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F251" s="39" t="s">
+      <c r="F251" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G251" s="39" t="s">
+      <c r="G251" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H251" s="39" t="s">
+      <c r="H251" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I251" s="40" t="s">
+      <c r="I251" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="252" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C252" s="26"/>
-      <c r="D252" s="41" t="s">
+      <c r="D252" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E252" s="41"/>
-      <c r="F252" s="41"/>
-      <c r="G252" s="41"/>
-      <c r="H252" s="41"/>
-      <c r="I252" s="45"/>
+      <c r="E252" s="34"/>
+      <c r="F252" s="34"/>
+      <c r="G252" s="34"/>
+      <c r="H252" s="34"/>
+      <c r="I252" s="35"/>
     </row>
     <row r="253" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C253" s="7" t="s">
@@ -14148,14 +14148,14 @@
     </row>
     <row r="255" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C255" s="7"/>
-      <c r="D255" s="41" t="s">
+      <c r="D255" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E255" s="41"/>
-      <c r="F255" s="41"/>
-      <c r="G255" s="41"/>
-      <c r="H255" s="41"/>
-      <c r="I255" s="45"/>
+      <c r="E255" s="34"/>
+      <c r="F255" s="34"/>
+      <c r="G255" s="34"/>
+      <c r="H255" s="34"/>
+      <c r="I255" s="35"/>
     </row>
     <row r="256" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C256" s="7" t="s">
@@ -14205,14 +14205,14 @@
     </row>
     <row r="258" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C258" s="7"/>
-      <c r="D258" s="42" t="s">
+      <c r="D258" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E258" s="43"/>
-      <c r="F258" s="43"/>
-      <c r="G258" s="43"/>
-      <c r="H258" s="43"/>
-      <c r="I258" s="44"/>
+      <c r="E258" s="32"/>
+      <c r="F258" s="32"/>
+      <c r="G258" s="32"/>
+      <c r="H258" s="32"/>
+      <c r="I258" s="33"/>
     </row>
     <row r="259" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C259" s="7" t="s">
@@ -14262,59 +14262,59 @@
     </row>
     <row r="261" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C261" s="7"/>
-      <c r="D261" s="27" t="s">
+      <c r="D261" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E261" s="27"/>
-      <c r="F261" s="27"/>
-      <c r="G261" s="27"/>
-      <c r="H261" s="27"/>
-      <c r="I261" s="28"/>
+      <c r="E261" s="36"/>
+      <c r="F261" s="36"/>
+      <c r="G261" s="36"/>
+      <c r="H261" s="36"/>
+      <c r="I261" s="37"/>
     </row>
     <row r="262" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C262" s="7"/>
-      <c r="D262" s="27" t="s">
+      <c r="D262" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E262" s="27"/>
-      <c r="F262" s="27"/>
-      <c r="G262" s="27" t="s">
+      <c r="E262" s="36"/>
+      <c r="F262" s="36"/>
+      <c r="G262" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H262" s="27"/>
-      <c r="I262" s="28"/>
+      <c r="H262" s="36"/>
+      <c r="I262" s="37"/>
     </row>
     <row r="263" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C263" s="7"/>
-      <c r="D263" s="39" t="s">
+      <c r="D263" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E263" s="39" t="s">
+      <c r="E263" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F263" s="39" t="s">
+      <c r="F263" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G263" s="39" t="s">
+      <c r="G263" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H263" s="39" t="s">
+      <c r="H263" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I263" s="40" t="s">
+      <c r="I263" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="264" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C264" s="7"/>
-      <c r="D264" s="41" t="s">
+      <c r="D264" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E264" s="41"/>
-      <c r="F264" s="41"/>
-      <c r="G264" s="41"/>
-      <c r="H264" s="41"/>
-      <c r="I264" s="45"/>
+      <c r="E264" s="34"/>
+      <c r="F264" s="34"/>
+      <c r="G264" s="34"/>
+      <c r="H264" s="34"/>
+      <c r="I264" s="35"/>
     </row>
     <row r="265" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C265" s="7" t="s">
@@ -14364,14 +14364,14 @@
     </row>
     <row r="267" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C267" s="7"/>
-      <c r="D267" s="41" t="s">
+      <c r="D267" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E267" s="41"/>
-      <c r="F267" s="41"/>
-      <c r="G267" s="41"/>
-      <c r="H267" s="41"/>
-      <c r="I267" s="45"/>
+      <c r="E267" s="34"/>
+      <c r="F267" s="34"/>
+      <c r="G267" s="34"/>
+      <c r="H267" s="34"/>
+      <c r="I267" s="35"/>
     </row>
     <row r="268" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C268" s="7" t="s">
@@ -14424,14 +14424,14 @@
     </row>
     <row r="270" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C270" s="7"/>
-      <c r="D270" s="42" t="s">
+      <c r="D270" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E270" s="43"/>
-      <c r="F270" s="43"/>
-      <c r="G270" s="43"/>
-      <c r="H270" s="43"/>
-      <c r="I270" s="44"/>
+      <c r="E270" s="32"/>
+      <c r="F270" s="32"/>
+      <c r="G270" s="32"/>
+      <c r="H270" s="32"/>
+      <c r="I270" s="33"/>
       <c r="R270" s="5"/>
       <c r="AB270" s="5"/>
       <c r="AC270" s="5"/>
@@ -14490,52 +14490,52 @@
     </row>
     <row r="273" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C273" s="18"/>
-      <c r="D273" s="27" t="s">
+      <c r="D273" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E273" s="27"/>
-      <c r="F273" s="27"/>
-      <c r="G273" s="27"/>
-      <c r="H273" s="27"/>
-      <c r="I273" s="28"/>
+      <c r="E273" s="36"/>
+      <c r="F273" s="36"/>
+      <c r="G273" s="36"/>
+      <c r="H273" s="36"/>
+      <c r="I273" s="37"/>
       <c r="R273" s="5"/>
       <c r="AB273" s="5"/>
       <c r="AC273" s="5"/>
     </row>
     <row r="274" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C274" s="18"/>
-      <c r="D274" s="27" t="s">
+      <c r="D274" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E274" s="27"/>
-      <c r="F274" s="27"/>
-      <c r="G274" s="27" t="s">
+      <c r="E274" s="36"/>
+      <c r="F274" s="36"/>
+      <c r="G274" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H274" s="27"/>
-      <c r="I274" s="28"/>
+      <c r="H274" s="36"/>
+      <c r="I274" s="37"/>
       <c r="R274" s="5"/>
       <c r="AB274" s="5"/>
       <c r="AC274" s="5"/>
     </row>
     <row r="275" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C275" s="18"/>
-      <c r="D275" s="39" t="s">
+      <c r="D275" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E275" s="39" t="s">
+      <c r="E275" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F275" s="39" t="s">
+      <c r="F275" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G275" s="39" t="s">
+      <c r="G275" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H275" s="39" t="s">
+      <c r="H275" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I275" s="40" t="s">
+      <c r="I275" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R275" s="5"/>
@@ -14544,14 +14544,14 @@
     </row>
     <row r="276" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C276" s="18"/>
-      <c r="D276" s="41" t="s">
+      <c r="D276" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E276" s="41"/>
-      <c r="F276" s="41"/>
-      <c r="G276" s="41"/>
-      <c r="H276" s="41"/>
-      <c r="I276" s="45"/>
+      <c r="E276" s="34"/>
+      <c r="F276" s="34"/>
+      <c r="G276" s="34"/>
+      <c r="H276" s="34"/>
+      <c r="I276" s="35"/>
       <c r="R276" s="5"/>
       <c r="AB276" s="5"/>
       <c r="AC276" s="5"/>
@@ -14607,14 +14607,14 @@
     </row>
     <row r="279" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C279" s="7"/>
-      <c r="D279" s="41" t="s">
+      <c r="D279" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E279" s="41"/>
-      <c r="F279" s="41"/>
-      <c r="G279" s="41"/>
-      <c r="H279" s="41"/>
-      <c r="I279" s="45"/>
+      <c r="E279" s="34"/>
+      <c r="F279" s="34"/>
+      <c r="G279" s="34"/>
+      <c r="H279" s="34"/>
+      <c r="I279" s="35"/>
     </row>
     <row r="280" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C280" s="7" t="s">
@@ -14666,14 +14666,14 @@
     </row>
     <row r="282" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C282" s="7"/>
-      <c r="D282" s="42" t="s">
+      <c r="D282" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E282" s="43"/>
-      <c r="F282" s="43"/>
-      <c r="G282" s="43"/>
-      <c r="H282" s="43"/>
-      <c r="I282" s="44"/>
+      <c r="E282" s="32"/>
+      <c r="F282" s="32"/>
+      <c r="G282" s="32"/>
+      <c r="H282" s="32"/>
+      <c r="I282" s="33"/>
       <c r="R282" s="5"/>
     </row>
     <row r="283" spans="3:29" x14ac:dyDescent="0.3">
@@ -14729,61 +14729,61 @@
     </row>
     <row r="286" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C286" s="25"/>
-      <c r="D286" s="29" t="s">
+      <c r="D286" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E286" s="29"/>
-      <c r="F286" s="29"/>
-      <c r="G286" s="29"/>
-      <c r="H286" s="29"/>
-      <c r="I286" s="30"/>
+      <c r="E286" s="38"/>
+      <c r="F286" s="38"/>
+      <c r="G286" s="38"/>
+      <c r="H286" s="38"/>
+      <c r="I286" s="39"/>
       <c r="R286" s="5"/>
     </row>
     <row r="287" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C287" s="26"/>
-      <c r="D287" s="27" t="s">
+      <c r="D287" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E287" s="27"/>
-      <c r="F287" s="27"/>
-      <c r="G287" s="27" t="s">
+      <c r="E287" s="36"/>
+      <c r="F287" s="36"/>
+      <c r="G287" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H287" s="27"/>
-      <c r="I287" s="28"/>
+      <c r="H287" s="36"/>
+      <c r="I287" s="37"/>
       <c r="R287" s="5"/>
     </row>
     <row r="288" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C288" s="26"/>
-      <c r="D288" s="39" t="s">
+      <c r="D288" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E288" s="39" t="s">
+      <c r="E288" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F288" s="39" t="s">
+      <c r="F288" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G288" s="39" t="s">
+      <c r="G288" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H288" s="39" t="s">
+      <c r="H288" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I288" s="40" t="s">
+      <c r="I288" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="289" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C289" s="26"/>
-      <c r="D289" s="41" t="s">
+      <c r="D289" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E289" s="41"/>
-      <c r="F289" s="41"/>
-      <c r="G289" s="41"/>
-      <c r="H289" s="41"/>
-      <c r="I289" s="45"/>
+      <c r="E289" s="34"/>
+      <c r="F289" s="34"/>
+      <c r="G289" s="34"/>
+      <c r="H289" s="34"/>
+      <c r="I289" s="35"/>
     </row>
     <row r="290" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C290" s="7" t="s">
@@ -14833,14 +14833,14 @@
     </row>
     <row r="292" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C292" s="7"/>
-      <c r="D292" s="41" t="s">
+      <c r="D292" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E292" s="41"/>
-      <c r="F292" s="41"/>
-      <c r="G292" s="41"/>
-      <c r="H292" s="41"/>
-      <c r="I292" s="45"/>
+      <c r="E292" s="34"/>
+      <c r="F292" s="34"/>
+      <c r="G292" s="34"/>
+      <c r="H292" s="34"/>
+      <c r="I292" s="35"/>
     </row>
     <row r="293" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C293" s="7" t="s">
@@ -14890,14 +14890,14 @@
     </row>
     <row r="295" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C295" s="7"/>
-      <c r="D295" s="42" t="s">
+      <c r="D295" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E295" s="43"/>
-      <c r="F295" s="43"/>
-      <c r="G295" s="43"/>
-      <c r="H295" s="43"/>
-      <c r="I295" s="44"/>
+      <c r="E295" s="32"/>
+      <c r="F295" s="32"/>
+      <c r="G295" s="32"/>
+      <c r="H295" s="32"/>
+      <c r="I295" s="33"/>
     </row>
     <row r="296" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C296" s="7" t="s">
@@ -14947,59 +14947,59 @@
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C298" s="7"/>
-      <c r="D298" s="27" t="s">
+      <c r="D298" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E298" s="27"/>
-      <c r="F298" s="27"/>
-      <c r="G298" s="27"/>
-      <c r="H298" s="27"/>
-      <c r="I298" s="28"/>
+      <c r="E298" s="36"/>
+      <c r="F298" s="36"/>
+      <c r="G298" s="36"/>
+      <c r="H298" s="36"/>
+      <c r="I298" s="37"/>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C299" s="7"/>
-      <c r="D299" s="27" t="s">
+      <c r="D299" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E299" s="27"/>
-      <c r="F299" s="27"/>
-      <c r="G299" s="27" t="s">
+      <c r="E299" s="36"/>
+      <c r="F299" s="36"/>
+      <c r="G299" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H299" s="27"/>
-      <c r="I299" s="28"/>
+      <c r="H299" s="36"/>
+      <c r="I299" s="37"/>
     </row>
     <row r="300" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C300" s="7"/>
-      <c r="D300" s="39" t="s">
+      <c r="D300" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E300" s="39" t="s">
+      <c r="E300" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F300" s="39" t="s">
+      <c r="F300" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G300" s="39" t="s">
+      <c r="G300" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H300" s="39" t="s">
+      <c r="H300" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I300" s="40" t="s">
+      <c r="I300" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="301" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C301" s="7"/>
-      <c r="D301" s="41" t="s">
+      <c r="D301" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E301" s="41"/>
-      <c r="F301" s="41"/>
-      <c r="G301" s="41"/>
-      <c r="H301" s="41"/>
-      <c r="I301" s="45"/>
+      <c r="E301" s="34"/>
+      <c r="F301" s="34"/>
+      <c r="G301" s="34"/>
+      <c r="H301" s="34"/>
+      <c r="I301" s="35"/>
     </row>
     <row r="302" spans="3:9" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C302" s="7" t="s">
@@ -15049,14 +15049,14 @@
     </row>
     <row r="304" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C304" s="7"/>
-      <c r="D304" s="41" t="s">
+      <c r="D304" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E304" s="41"/>
-      <c r="F304" s="41"/>
-      <c r="G304" s="41"/>
-      <c r="H304" s="41"/>
-      <c r="I304" s="45"/>
+      <c r="E304" s="34"/>
+      <c r="F304" s="34"/>
+      <c r="G304" s="34"/>
+      <c r="H304" s="34"/>
+      <c r="I304" s="35"/>
     </row>
     <row r="305" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C305" s="7" t="s">
@@ -15106,14 +15106,14 @@
     </row>
     <row r="307" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C307" s="7"/>
-      <c r="D307" s="42" t="s">
+      <c r="D307" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E307" s="43"/>
-      <c r="F307" s="43"/>
-      <c r="G307" s="43"/>
-      <c r="H307" s="43"/>
-      <c r="I307" s="44"/>
+      <c r="E307" s="32"/>
+      <c r="F307" s="32"/>
+      <c r="G307" s="32"/>
+      <c r="H307" s="32"/>
+      <c r="I307" s="33"/>
     </row>
     <row r="308" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C308" s="7" t="s">
@@ -15187,52 +15187,52 @@
     </row>
     <row r="310" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C310" s="18"/>
-      <c r="D310" s="27" t="s">
+      <c r="D310" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E310" s="27"/>
-      <c r="F310" s="27"/>
-      <c r="G310" s="27"/>
-      <c r="H310" s="27"/>
-      <c r="I310" s="28"/>
+      <c r="E310" s="36"/>
+      <c r="F310" s="36"/>
+      <c r="G310" s="36"/>
+      <c r="H310" s="36"/>
+      <c r="I310" s="37"/>
       <c r="R310" s="5"/>
       <c r="AB310" s="5"/>
       <c r="AC310" s="5"/>
     </row>
     <row r="311" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C311" s="18"/>
-      <c r="D311" s="27" t="s">
+      <c r="D311" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E311" s="27"/>
-      <c r="F311" s="27"/>
-      <c r="G311" s="27" t="s">
+      <c r="E311" s="36"/>
+      <c r="F311" s="36"/>
+      <c r="G311" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H311" s="27"/>
-      <c r="I311" s="28"/>
+      <c r="H311" s="36"/>
+      <c r="I311" s="37"/>
       <c r="R311" s="5"/>
       <c r="AB311" s="5"/>
       <c r="AC311" s="5"/>
     </row>
     <row r="312" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C312" s="18"/>
-      <c r="D312" s="39" t="s">
+      <c r="D312" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E312" s="39" t="s">
+      <c r="E312" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F312" s="39" t="s">
+      <c r="F312" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G312" s="39" t="s">
+      <c r="G312" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H312" s="39" t="s">
+      <c r="H312" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I312" s="40" t="s">
+      <c r="I312" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R312" s="5"/>
@@ -15241,14 +15241,14 @@
     </row>
     <row r="313" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C313" s="18"/>
-      <c r="D313" s="41" t="s">
+      <c r="D313" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E313" s="41"/>
-      <c r="F313" s="41"/>
-      <c r="G313" s="41"/>
-      <c r="H313" s="41"/>
-      <c r="I313" s="45"/>
+      <c r="E313" s="34"/>
+      <c r="F313" s="34"/>
+      <c r="G313" s="34"/>
+      <c r="H313" s="34"/>
+      <c r="I313" s="35"/>
       <c r="R313" s="5"/>
       <c r="AB313" s="5"/>
       <c r="AC313" s="5"/>
@@ -15307,14 +15307,14 @@
     </row>
     <row r="316" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C316" s="7"/>
-      <c r="D316" s="41" t="s">
+      <c r="D316" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E316" s="41"/>
-      <c r="F316" s="41"/>
-      <c r="G316" s="41"/>
-      <c r="H316" s="41"/>
-      <c r="I316" s="45"/>
+      <c r="E316" s="34"/>
+      <c r="F316" s="34"/>
+      <c r="G316" s="34"/>
+      <c r="H316" s="34"/>
+      <c r="I316" s="35"/>
       <c r="R316" s="5"/>
       <c r="AB316" s="5"/>
       <c r="AC316" s="5"/>
@@ -15371,14 +15371,14 @@
     </row>
     <row r="319" spans="3:39" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C319" s="7"/>
-      <c r="D319" s="42" t="s">
+      <c r="D319" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E319" s="43"/>
-      <c r="F319" s="43"/>
-      <c r="G319" s="43"/>
-      <c r="H319" s="43"/>
-      <c r="I319" s="44"/>
+      <c r="E319" s="32"/>
+      <c r="F319" s="32"/>
+      <c r="G319" s="32"/>
+      <c r="H319" s="32"/>
+      <c r="I319" s="33"/>
       <c r="R319" s="5"/>
     </row>
     <row r="320" spans="3:39" x14ac:dyDescent="0.3">
@@ -15434,62 +15434,62 @@
     </row>
     <row r="323" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C323" s="25"/>
-      <c r="D323" s="29" t="s">
+      <c r="D323" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E323" s="29"/>
-      <c r="F323" s="29"/>
-      <c r="G323" s="29"/>
-      <c r="H323" s="29"/>
-      <c r="I323" s="30"/>
+      <c r="E323" s="38"/>
+      <c r="F323" s="38"/>
+      <c r="G323" s="38"/>
+      <c r="H323" s="38"/>
+      <c r="I323" s="39"/>
       <c r="R323" s="5"/>
     </row>
     <row r="324" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C324" s="26"/>
-      <c r="D324" s="27" t="s">
+      <c r="D324" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E324" s="27"/>
-      <c r="F324" s="27"/>
-      <c r="G324" s="27" t="s">
+      <c r="E324" s="36"/>
+      <c r="F324" s="36"/>
+      <c r="G324" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H324" s="27"/>
-      <c r="I324" s="28"/>
+      <c r="H324" s="36"/>
+      <c r="I324" s="37"/>
       <c r="R324" s="5"/>
     </row>
     <row r="325" spans="3:18" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C325" s="26"/>
-      <c r="D325" s="39" t="s">
+      <c r="D325" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E325" s="39" t="s">
+      <c r="E325" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F325" s="39" t="s">
+      <c r="F325" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G325" s="39" t="s">
+      <c r="G325" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H325" s="39" t="s">
+      <c r="H325" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I325" s="40" t="s">
+      <c r="I325" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R325" s="5"/>
     </row>
     <row r="326" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C326" s="26"/>
-      <c r="D326" s="41" t="s">
+      <c r="D326" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E326" s="41"/>
-      <c r="F326" s="41"/>
-      <c r="G326" s="41"/>
-      <c r="H326" s="41"/>
-      <c r="I326" s="45"/>
+      <c r="E326" s="34"/>
+      <c r="F326" s="34"/>
+      <c r="G326" s="34"/>
+      <c r="H326" s="34"/>
+      <c r="I326" s="35"/>
       <c r="R326" s="5"/>
     </row>
     <row r="327" spans="3:18" x14ac:dyDescent="0.3">
@@ -15540,14 +15540,14 @@
     </row>
     <row r="329" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C329" s="7"/>
-      <c r="D329" s="41" t="s">
+      <c r="D329" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E329" s="41"/>
-      <c r="F329" s="41"/>
-      <c r="G329" s="41"/>
-      <c r="H329" s="41"/>
-      <c r="I329" s="45"/>
+      <c r="E329" s="34"/>
+      <c r="F329" s="34"/>
+      <c r="G329" s="34"/>
+      <c r="H329" s="34"/>
+      <c r="I329" s="35"/>
     </row>
     <row r="330" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C330" s="7" t="s">
@@ -15597,14 +15597,14 @@
     </row>
     <row r="332" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C332" s="7"/>
-      <c r="D332" s="42" t="s">
+      <c r="D332" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E332" s="43"/>
-      <c r="F332" s="43"/>
-      <c r="G332" s="43"/>
-      <c r="H332" s="43"/>
-      <c r="I332" s="44"/>
+      <c r="E332" s="32"/>
+      <c r="F332" s="32"/>
+      <c r="G332" s="32"/>
+      <c r="H332" s="32"/>
+      <c r="I332" s="33"/>
     </row>
     <row r="333" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C333" s="7" t="s">
@@ -15654,59 +15654,59 @@
     </row>
     <row r="335" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C335" s="7"/>
-      <c r="D335" s="27" t="s">
+      <c r="D335" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E335" s="27"/>
-      <c r="F335" s="27"/>
-      <c r="G335" s="27"/>
-      <c r="H335" s="27"/>
-      <c r="I335" s="28"/>
+      <c r="E335" s="36"/>
+      <c r="F335" s="36"/>
+      <c r="G335" s="36"/>
+      <c r="H335" s="36"/>
+      <c r="I335" s="37"/>
     </row>
     <row r="336" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C336" s="7"/>
-      <c r="D336" s="27" t="s">
+      <c r="D336" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E336" s="27"/>
-      <c r="F336" s="27"/>
-      <c r="G336" s="27" t="s">
+      <c r="E336" s="36"/>
+      <c r="F336" s="36"/>
+      <c r="G336" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H336" s="27"/>
-      <c r="I336" s="28"/>
+      <c r="H336" s="36"/>
+      <c r="I336" s="37"/>
     </row>
     <row r="337" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C337" s="7"/>
-      <c r="D337" s="39" t="s">
+      <c r="D337" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E337" s="39" t="s">
+      <c r="E337" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F337" s="39" t="s">
+      <c r="F337" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G337" s="39" t="s">
+      <c r="G337" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H337" s="39" t="s">
+      <c r="H337" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I337" s="40" t="s">
+      <c r="I337" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="338" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C338" s="7"/>
-      <c r="D338" s="41" t="s">
+      <c r="D338" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E338" s="41"/>
-      <c r="F338" s="41"/>
-      <c r="G338" s="41"/>
-      <c r="H338" s="41"/>
-      <c r="I338" s="45"/>
+      <c r="E338" s="34"/>
+      <c r="F338" s="34"/>
+      <c r="G338" s="34"/>
+      <c r="H338" s="34"/>
+      <c r="I338" s="35"/>
     </row>
     <row r="339" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C339" s="7" t="s">
@@ -15756,14 +15756,14 @@
     </row>
     <row r="341" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C341" s="7"/>
-      <c r="D341" s="41" t="s">
+      <c r="D341" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E341" s="41"/>
-      <c r="F341" s="41"/>
-      <c r="G341" s="41"/>
-      <c r="H341" s="41"/>
-      <c r="I341" s="45"/>
+      <c r="E341" s="34"/>
+      <c r="F341" s="34"/>
+      <c r="G341" s="34"/>
+      <c r="H341" s="34"/>
+      <c r="I341" s="35"/>
     </row>
     <row r="342" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C342" s="7" t="s">
@@ -15834,14 +15834,14 @@
     </row>
     <row r="344" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C344" s="7"/>
-      <c r="D344" s="42" t="s">
+      <c r="D344" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E344" s="43"/>
-      <c r="F344" s="43"/>
-      <c r="G344" s="43"/>
-      <c r="H344" s="43"/>
-      <c r="I344" s="44"/>
+      <c r="E344" s="32"/>
+      <c r="F344" s="32"/>
+      <c r="G344" s="32"/>
+      <c r="H344" s="32"/>
+      <c r="I344" s="33"/>
       <c r="R344" s="5"/>
       <c r="AB344" s="5"/>
       <c r="AC344" s="5"/>
@@ -15912,14 +15912,14 @@
     </row>
     <row r="347" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C347" s="18"/>
-      <c r="D347" s="27" t="s">
+      <c r="D347" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E347" s="27"/>
-      <c r="F347" s="27"/>
-      <c r="G347" s="27"/>
-      <c r="H347" s="27"/>
-      <c r="I347" s="28"/>
+      <c r="E347" s="36"/>
+      <c r="F347" s="36"/>
+      <c r="G347" s="36"/>
+      <c r="H347" s="36"/>
+      <c r="I347" s="37"/>
       <c r="R347" s="5"/>
       <c r="AB347" s="5"/>
       <c r="AC347" s="5"/>
@@ -15930,16 +15930,16 @@
     </row>
     <row r="348" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C348" s="18"/>
-      <c r="D348" s="27" t="s">
+      <c r="D348" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E348" s="27"/>
-      <c r="F348" s="27"/>
-      <c r="G348" s="27" t="s">
+      <c r="E348" s="36"/>
+      <c r="F348" s="36"/>
+      <c r="G348" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H348" s="27"/>
-      <c r="I348" s="28"/>
+      <c r="H348" s="36"/>
+      <c r="I348" s="37"/>
       <c r="R348" s="5"/>
       <c r="AB348" s="5"/>
       <c r="AC348" s="5"/>
@@ -15950,22 +15950,22 @@
     </row>
     <row r="349" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C349" s="18"/>
-      <c r="D349" s="39" t="s">
+      <c r="D349" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E349" s="39" t="s">
+      <c r="E349" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F349" s="39" t="s">
+      <c r="F349" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G349" s="39" t="s">
+      <c r="G349" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H349" s="39" t="s">
+      <c r="H349" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I349" s="40" t="s">
+      <c r="I349" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R349" s="5"/>
@@ -15978,14 +15978,14 @@
     </row>
     <row r="350" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C350" s="18"/>
-      <c r="D350" s="41" t="s">
+      <c r="D350" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E350" s="41"/>
-      <c r="F350" s="41"/>
-      <c r="G350" s="41"/>
-      <c r="H350" s="41"/>
-      <c r="I350" s="45"/>
+      <c r="E350" s="34"/>
+      <c r="F350" s="34"/>
+      <c r="G350" s="34"/>
+      <c r="H350" s="34"/>
+      <c r="I350" s="35"/>
       <c r="R350" s="5"/>
       <c r="AB350" s="5"/>
       <c r="AC350" s="5"/>
@@ -16056,14 +16056,14 @@
     </row>
     <row r="353" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C353" s="7"/>
-      <c r="D353" s="41" t="s">
+      <c r="D353" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E353" s="41"/>
-      <c r="F353" s="41"/>
-      <c r="G353" s="41"/>
-      <c r="H353" s="41"/>
-      <c r="I353" s="45"/>
+      <c r="E353" s="34"/>
+      <c r="F353" s="34"/>
+      <c r="G353" s="34"/>
+      <c r="H353" s="34"/>
+      <c r="I353" s="35"/>
       <c r="R353" s="5"/>
       <c r="AB353" s="5"/>
       <c r="AC353" s="5"/>
@@ -16134,14 +16134,14 @@
     </row>
     <row r="356" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C356" s="7"/>
-      <c r="D356" s="42" t="s">
+      <c r="D356" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E356" s="43"/>
-      <c r="F356" s="43"/>
-      <c r="G356" s="43"/>
-      <c r="H356" s="43"/>
-      <c r="I356" s="44"/>
+      <c r="E356" s="32"/>
+      <c r="F356" s="32"/>
+      <c r="G356" s="32"/>
+      <c r="H356" s="32"/>
+      <c r="I356" s="33"/>
       <c r="R356" s="5"/>
       <c r="AB356" s="5"/>
       <c r="AC356" s="5"/>
@@ -16218,14 +16218,14 @@
     </row>
     <row r="360" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C360" s="25"/>
-      <c r="D360" s="29" t="s">
+      <c r="D360" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E360" s="29"/>
-      <c r="F360" s="29"/>
-      <c r="G360" s="29"/>
-      <c r="H360" s="29"/>
-      <c r="I360" s="30"/>
+      <c r="E360" s="38"/>
+      <c r="F360" s="38"/>
+      <c r="G360" s="38"/>
+      <c r="H360" s="38"/>
+      <c r="I360" s="39"/>
       <c r="AG360" s="5"/>
       <c r="AH360" s="5"/>
       <c r="AL360" s="5"/>
@@ -16233,16 +16233,16 @@
     </row>
     <row r="361" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C361" s="26"/>
-      <c r="D361" s="27" t="s">
+      <c r="D361" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E361" s="27"/>
-      <c r="F361" s="27"/>
-      <c r="G361" s="27" t="s">
+      <c r="E361" s="36"/>
+      <c r="F361" s="36"/>
+      <c r="G361" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H361" s="27"/>
-      <c r="I361" s="28"/>
+      <c r="H361" s="36"/>
+      <c r="I361" s="37"/>
       <c r="AG361" s="5"/>
       <c r="AH361" s="5"/>
       <c r="AL361" s="5"/>
@@ -16250,22 +16250,22 @@
     </row>
     <row r="362" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C362" s="26"/>
-      <c r="D362" s="39" t="s">
+      <c r="D362" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E362" s="39" t="s">
+      <c r="E362" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F362" s="39" t="s">
+      <c r="F362" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G362" s="39" t="s">
+      <c r="G362" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H362" s="39" t="s">
+      <c r="H362" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I362" s="40" t="s">
+      <c r="I362" s="30" t="s">
         <v>7</v>
       </c>
       <c r="AG362" s="5"/>
@@ -16275,14 +16275,14 @@
     </row>
     <row r="363" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C363" s="26"/>
-      <c r="D363" s="41" t="s">
+      <c r="D363" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E363" s="41"/>
-      <c r="F363" s="41"/>
-      <c r="G363" s="41"/>
-      <c r="H363" s="41"/>
-      <c r="I363" s="45"/>
+      <c r="E363" s="34"/>
+      <c r="F363" s="34"/>
+      <c r="G363" s="34"/>
+      <c r="H363" s="34"/>
+      <c r="I363" s="35"/>
       <c r="AG363" s="5"/>
       <c r="AH363" s="5"/>
       <c r="AL363" s="5"/>
@@ -16344,14 +16344,14 @@
     </row>
     <row r="366" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C366" s="7"/>
-      <c r="D366" s="41" t="s">
+      <c r="D366" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E366" s="41"/>
-      <c r="F366" s="41"/>
-      <c r="G366" s="41"/>
-      <c r="H366" s="41"/>
-      <c r="I366" s="45"/>
+      <c r="E366" s="34"/>
+      <c r="F366" s="34"/>
+      <c r="G366" s="34"/>
+      <c r="H366" s="34"/>
+      <c r="I366" s="35"/>
       <c r="AG366" s="5"/>
       <c r="AH366" s="5"/>
       <c r="AL366" s="5"/>
@@ -16413,14 +16413,14 @@
     </row>
     <row r="369" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C369" s="7"/>
-      <c r="D369" s="42" t="s">
+      <c r="D369" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E369" s="43"/>
-      <c r="F369" s="43"/>
-      <c r="G369" s="43"/>
-      <c r="H369" s="43"/>
-      <c r="I369" s="44"/>
+      <c r="E369" s="32"/>
+      <c r="F369" s="32"/>
+      <c r="G369" s="32"/>
+      <c r="H369" s="32"/>
+      <c r="I369" s="33"/>
       <c r="AG369" s="5"/>
       <c r="AH369" s="5"/>
       <c r="AL369" s="5"/>
@@ -16477,62 +16477,62 @@
     </row>
     <row r="372" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C372" s="7"/>
-      <c r="D372" s="27" t="s">
+      <c r="D372" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E372" s="27"/>
-      <c r="F372" s="27"/>
-      <c r="G372" s="27"/>
-      <c r="H372" s="27"/>
-      <c r="I372" s="28"/>
+      <c r="E372" s="36"/>
+      <c r="F372" s="36"/>
+      <c r="G372" s="36"/>
+      <c r="H372" s="36"/>
+      <c r="I372" s="37"/>
       <c r="R372" s="5"/>
     </row>
     <row r="373" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C373" s="7"/>
-      <c r="D373" s="27" t="s">
+      <c r="D373" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E373" s="27"/>
-      <c r="F373" s="27"/>
-      <c r="G373" s="27" t="s">
+      <c r="E373" s="36"/>
+      <c r="F373" s="36"/>
+      <c r="G373" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H373" s="27"/>
-      <c r="I373" s="28"/>
+      <c r="H373" s="36"/>
+      <c r="I373" s="37"/>
       <c r="R373" s="5"/>
     </row>
     <row r="374" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C374" s="7"/>
-      <c r="D374" s="39" t="s">
+      <c r="D374" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E374" s="39" t="s">
+      <c r="E374" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F374" s="39" t="s">
+      <c r="F374" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G374" s="39" t="s">
+      <c r="G374" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H374" s="39" t="s">
+      <c r="H374" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I374" s="40" t="s">
+      <c r="I374" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R374" s="5"/>
     </row>
     <row r="375" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C375" s="7"/>
-      <c r="D375" s="41" t="s">
+      <c r="D375" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E375" s="41"/>
-      <c r="F375" s="41"/>
-      <c r="G375" s="41"/>
-      <c r="H375" s="41"/>
-      <c r="I375" s="45"/>
+      <c r="E375" s="34"/>
+      <c r="F375" s="34"/>
+      <c r="G375" s="34"/>
+      <c r="H375" s="34"/>
+      <c r="I375" s="35"/>
       <c r="R375" s="5"/>
     </row>
     <row r="376" spans="3:39" x14ac:dyDescent="0.3">
@@ -16585,14 +16585,14 @@
     </row>
     <row r="378" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C378" s="7"/>
-      <c r="D378" s="41" t="s">
+      <c r="D378" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E378" s="41"/>
-      <c r="F378" s="41"/>
-      <c r="G378" s="41"/>
-      <c r="H378" s="41"/>
-      <c r="I378" s="45"/>
+      <c r="E378" s="34"/>
+      <c r="F378" s="34"/>
+      <c r="G378" s="34"/>
+      <c r="H378" s="34"/>
+      <c r="I378" s="35"/>
       <c r="R378" s="5"/>
     </row>
     <row r="379" spans="3:39" x14ac:dyDescent="0.3">
@@ -16643,14 +16643,14 @@
     </row>
     <row r="381" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C381" s="7"/>
-      <c r="D381" s="42" t="s">
+      <c r="D381" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E381" s="43"/>
-      <c r="F381" s="43"/>
-      <c r="G381" s="43"/>
-      <c r="H381" s="43"/>
-      <c r="I381" s="44"/>
+      <c r="E381" s="32"/>
+      <c r="F381" s="32"/>
+      <c r="G381" s="32"/>
+      <c r="H381" s="32"/>
+      <c r="I381" s="33"/>
     </row>
     <row r="382" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C382" s="7" t="s">
@@ -16700,59 +16700,59 @@
     </row>
     <row r="384" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C384" s="18"/>
-      <c r="D384" s="27" t="s">
+      <c r="D384" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E384" s="27"/>
-      <c r="F384" s="27"/>
-      <c r="G384" s="27"/>
-      <c r="H384" s="27"/>
-      <c r="I384" s="28"/>
+      <c r="E384" s="36"/>
+      <c r="F384" s="36"/>
+      <c r="G384" s="36"/>
+      <c r="H384" s="36"/>
+      <c r="I384" s="37"/>
     </row>
     <row r="385" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C385" s="18"/>
-      <c r="D385" s="27" t="s">
+      <c r="D385" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E385" s="27"/>
-      <c r="F385" s="27"/>
-      <c r="G385" s="27" t="s">
+      <c r="E385" s="36"/>
+      <c r="F385" s="36"/>
+      <c r="G385" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H385" s="27"/>
-      <c r="I385" s="28"/>
+      <c r="H385" s="36"/>
+      <c r="I385" s="37"/>
     </row>
     <row r="386" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C386" s="18"/>
-      <c r="D386" s="39" t="s">
+      <c r="D386" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E386" s="39" t="s">
+      <c r="E386" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F386" s="39" t="s">
+      <c r="F386" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G386" s="39" t="s">
+      <c r="G386" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H386" s="39" t="s">
+      <c r="H386" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I386" s="40" t="s">
+      <c r="I386" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="387" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C387" s="18"/>
-      <c r="D387" s="41" t="s">
+      <c r="D387" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E387" s="41"/>
-      <c r="F387" s="41"/>
-      <c r="G387" s="41"/>
-      <c r="H387" s="41"/>
-      <c r="I387" s="45"/>
+      <c r="E387" s="34"/>
+      <c r="F387" s="34"/>
+      <c r="G387" s="34"/>
+      <c r="H387" s="34"/>
+      <c r="I387" s="35"/>
     </row>
     <row r="388" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C388" s="7" t="s">
@@ -16802,14 +16802,14 @@
     </row>
     <row r="390" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C390" s="7"/>
-      <c r="D390" s="41" t="s">
+      <c r="D390" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E390" s="41"/>
-      <c r="F390" s="41"/>
-      <c r="G390" s="41"/>
-      <c r="H390" s="41"/>
-      <c r="I390" s="45"/>
+      <c r="E390" s="34"/>
+      <c r="F390" s="34"/>
+      <c r="G390" s="34"/>
+      <c r="H390" s="34"/>
+      <c r="I390" s="35"/>
     </row>
     <row r="391" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C391" s="7" t="s">
@@ -16862,14 +16862,14 @@
     </row>
     <row r="393" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C393" s="7"/>
-      <c r="D393" s="42" t="s">
+      <c r="D393" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E393" s="43"/>
-      <c r="F393" s="43"/>
-      <c r="G393" s="43"/>
-      <c r="H393" s="43"/>
-      <c r="I393" s="44"/>
+      <c r="E393" s="32"/>
+      <c r="F393" s="32"/>
+      <c r="G393" s="32"/>
+      <c r="H393" s="32"/>
+      <c r="I393" s="33"/>
       <c r="R393" s="5"/>
       <c r="AB393" s="5"/>
       <c r="AC393" s="5"/>
@@ -16945,14 +16945,14 @@
     </row>
     <row r="397" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C397" s="25"/>
-      <c r="D397" s="29" t="s">
+      <c r="D397" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E397" s="29"/>
-      <c r="F397" s="29"/>
-      <c r="G397" s="29"/>
-      <c r="H397" s="29"/>
-      <c r="I397" s="30"/>
+      <c r="E397" s="38"/>
+      <c r="F397" s="38"/>
+      <c r="G397" s="38"/>
+      <c r="H397" s="38"/>
+      <c r="I397" s="39"/>
       <c r="R397" s="5"/>
       <c r="AB397" s="5"/>
       <c r="AC397" s="5"/>
@@ -16963,16 +16963,16 @@
     </row>
     <row r="398" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C398" s="26"/>
-      <c r="D398" s="27" t="s">
+      <c r="D398" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E398" s="27"/>
-      <c r="F398" s="27"/>
-      <c r="G398" s="27" t="s">
+      <c r="E398" s="36"/>
+      <c r="F398" s="36"/>
+      <c r="G398" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H398" s="27"/>
-      <c r="I398" s="28"/>
+      <c r="H398" s="36"/>
+      <c r="I398" s="37"/>
       <c r="R398" s="5"/>
       <c r="AB398" s="5"/>
       <c r="AC398" s="5"/>
@@ -16983,22 +16983,22 @@
     </row>
     <row r="399" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C399" s="26"/>
-      <c r="D399" s="39" t="s">
+      <c r="D399" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E399" s="39" t="s">
+      <c r="E399" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F399" s="39" t="s">
+      <c r="F399" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G399" s="39" t="s">
+      <c r="G399" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H399" s="39" t="s">
+      <c r="H399" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I399" s="40" t="s">
+      <c r="I399" s="30" t="s">
         <v>7</v>
       </c>
       <c r="R399" s="5"/>
@@ -17011,14 +17011,14 @@
     </row>
     <row r="400" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C400" s="26"/>
-      <c r="D400" s="41" t="s">
+      <c r="D400" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E400" s="41"/>
-      <c r="F400" s="41"/>
-      <c r="G400" s="41"/>
-      <c r="H400" s="41"/>
-      <c r="I400" s="45"/>
+      <c r="E400" s="34"/>
+      <c r="F400" s="34"/>
+      <c r="G400" s="34"/>
+      <c r="H400" s="34"/>
+      <c r="I400" s="35"/>
       <c r="R400" s="5"/>
       <c r="AB400" s="5"/>
       <c r="AC400" s="5"/>
@@ -17114,14 +17114,14 @@
     </row>
     <row r="404" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C404" s="7"/>
-      <c r="D404" s="41" t="s">
+      <c r="D404" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E404" s="41"/>
-      <c r="F404" s="41"/>
-      <c r="G404" s="41"/>
-      <c r="H404" s="41"/>
-      <c r="I404" s="45"/>
+      <c r="E404" s="34"/>
+      <c r="F404" s="34"/>
+      <c r="G404" s="34"/>
+      <c r="H404" s="34"/>
+      <c r="I404" s="35"/>
       <c r="AL404" s="5"/>
       <c r="AM404" s="5"/>
     </row>
@@ -17196,14 +17196,14 @@
     </row>
     <row r="408" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C408" s="26"/>
-      <c r="D408" s="42" t="s">
+      <c r="D408" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E408" s="43"/>
-      <c r="F408" s="43"/>
-      <c r="G408" s="43"/>
-      <c r="H408" s="43"/>
-      <c r="I408" s="44"/>
+      <c r="E408" s="32"/>
+      <c r="F408" s="32"/>
+      <c r="G408" s="32"/>
+      <c r="H408" s="32"/>
+      <c r="I408" s="33"/>
     </row>
     <row r="409" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C409" s="7" t="s">
@@ -17276,59 +17276,59 @@
     </row>
     <row r="412" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C412" s="7"/>
-      <c r="D412" s="27" t="s">
+      <c r="D412" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E412" s="27"/>
-      <c r="F412" s="27"/>
-      <c r="G412" s="27"/>
-      <c r="H412" s="27"/>
-      <c r="I412" s="28"/>
+      <c r="E412" s="36"/>
+      <c r="F412" s="36"/>
+      <c r="G412" s="36"/>
+      <c r="H412" s="36"/>
+      <c r="I412" s="37"/>
     </row>
     <row r="413" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C413" s="7"/>
-      <c r="D413" s="27" t="s">
+      <c r="D413" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E413" s="27"/>
-      <c r="F413" s="27"/>
-      <c r="G413" s="27" t="s">
+      <c r="E413" s="36"/>
+      <c r="F413" s="36"/>
+      <c r="G413" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H413" s="27"/>
-      <c r="I413" s="28"/>
+      <c r="H413" s="36"/>
+      <c r="I413" s="37"/>
     </row>
     <row r="414" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C414" s="7"/>
-      <c r="D414" s="39" t="s">
+      <c r="D414" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E414" s="39" t="s">
+      <c r="E414" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F414" s="39" t="s">
+      <c r="F414" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G414" s="39" t="s">
+      <c r="G414" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H414" s="39" t="s">
+      <c r="H414" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I414" s="40" t="s">
+      <c r="I414" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="415" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C415" s="7"/>
-      <c r="D415" s="41" t="s">
+      <c r="D415" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E415" s="41"/>
-      <c r="F415" s="41"/>
-      <c r="G415" s="41"/>
-      <c r="H415" s="41"/>
-      <c r="I415" s="45"/>
+      <c r="E415" s="34"/>
+      <c r="F415" s="34"/>
+      <c r="G415" s="34"/>
+      <c r="H415" s="34"/>
+      <c r="I415" s="35"/>
     </row>
     <row r="416" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C416" s="7" t="s">
@@ -17401,14 +17401,14 @@
     </row>
     <row r="419" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C419" s="7"/>
-      <c r="D419" s="41" t="s">
+      <c r="D419" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E419" s="41"/>
-      <c r="F419" s="41"/>
-      <c r="G419" s="41"/>
-      <c r="H419" s="41"/>
-      <c r="I419" s="45"/>
+      <c r="E419" s="34"/>
+      <c r="F419" s="34"/>
+      <c r="G419" s="34"/>
+      <c r="H419" s="34"/>
+      <c r="I419" s="35"/>
     </row>
     <row r="420" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C420" s="7" t="s">
@@ -17481,14 +17481,14 @@
     </row>
     <row r="423" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C423" s="7"/>
-      <c r="D423" s="42" t="s">
+      <c r="D423" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E423" s="43"/>
-      <c r="F423" s="43"/>
-      <c r="G423" s="43"/>
-      <c r="H423" s="43"/>
-      <c r="I423" s="44"/>
+      <c r="E423" s="32"/>
+      <c r="F423" s="32"/>
+      <c r="G423" s="32"/>
+      <c r="H423" s="32"/>
+      <c r="I423" s="33"/>
     </row>
     <row r="424" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C424" s="7" t="s">
@@ -17561,59 +17561,59 @@
     </row>
     <row r="427" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C427" s="18"/>
-      <c r="D427" s="27" t="s">
+      <c r="D427" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E427" s="27"/>
-      <c r="F427" s="27"/>
-      <c r="G427" s="27"/>
-      <c r="H427" s="27"/>
-      <c r="I427" s="28"/>
+      <c r="E427" s="36"/>
+      <c r="F427" s="36"/>
+      <c r="G427" s="36"/>
+      <c r="H427" s="36"/>
+      <c r="I427" s="37"/>
     </row>
     <row r="428" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C428" s="18"/>
-      <c r="D428" s="27" t="s">
+      <c r="D428" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E428" s="27"/>
-      <c r="F428" s="27"/>
-      <c r="G428" s="27" t="s">
+      <c r="E428" s="36"/>
+      <c r="F428" s="36"/>
+      <c r="G428" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H428" s="27"/>
-      <c r="I428" s="28"/>
+      <c r="H428" s="36"/>
+      <c r="I428" s="37"/>
     </row>
     <row r="429" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C429" s="18"/>
-      <c r="D429" s="39" t="s">
+      <c r="D429" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E429" s="39" t="s">
+      <c r="E429" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F429" s="39" t="s">
+      <c r="F429" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G429" s="39" t="s">
+      <c r="G429" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H429" s="39" t="s">
+      <c r="H429" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I429" s="40" t="s">
+      <c r="I429" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="430" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C430" s="18"/>
-      <c r="D430" s="41" t="s">
+      <c r="D430" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E430" s="41"/>
-      <c r="F430" s="41"/>
-      <c r="G430" s="41"/>
-      <c r="H430" s="41"/>
-      <c r="I430" s="45"/>
+      <c r="E430" s="34"/>
+      <c r="F430" s="34"/>
+      <c r="G430" s="34"/>
+      <c r="H430" s="34"/>
+      <c r="I430" s="35"/>
     </row>
     <row r="431" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C431" s="7" t="s">
@@ -17686,14 +17686,14 @@
     </row>
     <row r="434" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C434" s="7"/>
-      <c r="D434" s="41" t="s">
+      <c r="D434" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E434" s="41"/>
-      <c r="F434" s="41"/>
-      <c r="G434" s="41"/>
-      <c r="H434" s="41"/>
-      <c r="I434" s="45"/>
+      <c r="E434" s="34"/>
+      <c r="F434" s="34"/>
+      <c r="G434" s="34"/>
+      <c r="H434" s="34"/>
+      <c r="I434" s="35"/>
     </row>
     <row r="435" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C435" s="7" t="s">
@@ -17766,14 +17766,14 @@
     </row>
     <row r="438" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C438" s="7"/>
-      <c r="D438" s="42" t="s">
+      <c r="D438" s="31" t="s">
         <v>136</v>
       </c>
-      <c r="E438" s="43"/>
-      <c r="F438" s="43"/>
-      <c r="G438" s="43"/>
-      <c r="H438" s="43"/>
-      <c r="I438" s="44"/>
+      <c r="E438" s="32"/>
+      <c r="F438" s="32"/>
+      <c r="G438" s="32"/>
+      <c r="H438" s="32"/>
+      <c r="I438" s="33"/>
     </row>
     <row r="439" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C439" s="7" t="s">
@@ -17847,59 +17847,59 @@
     <row r="442" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="443" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C443" s="25"/>
-      <c r="D443" s="29" t="s">
+      <c r="D443" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E443" s="29"/>
-      <c r="F443" s="29"/>
-      <c r="G443" s="29"/>
-      <c r="H443" s="29"/>
-      <c r="I443" s="30"/>
+      <c r="E443" s="38"/>
+      <c r="F443" s="38"/>
+      <c r="G443" s="38"/>
+      <c r="H443" s="38"/>
+      <c r="I443" s="39"/>
     </row>
     <row r="444" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C444" s="26"/>
-      <c r="D444" s="27" t="s">
+      <c r="D444" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E444" s="27"/>
-      <c r="F444" s="27"/>
-      <c r="G444" s="27" t="s">
+      <c r="E444" s="36"/>
+      <c r="F444" s="36"/>
+      <c r="G444" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H444" s="27"/>
-      <c r="I444" s="28"/>
+      <c r="H444" s="36"/>
+      <c r="I444" s="37"/>
     </row>
     <row r="445" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C445" s="7"/>
-      <c r="D445" s="39" t="s">
+      <c r="D445" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E445" s="39" t="s">
+      <c r="E445" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F445" s="39" t="s">
+      <c r="F445" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G445" s="39" t="s">
+      <c r="G445" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H445" s="39" t="s">
+      <c r="H445" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I445" s="40" t="s">
+      <c r="I445" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="446" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C446" s="7"/>
-      <c r="D446" s="42" t="s">
+      <c r="D446" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E446" s="43"/>
-      <c r="F446" s="43"/>
-      <c r="G446" s="43"/>
-      <c r="H446" s="43"/>
-      <c r="I446" s="44"/>
+      <c r="E446" s="32"/>
+      <c r="F446" s="32"/>
+      <c r="G446" s="32"/>
+      <c r="H446" s="32"/>
+      <c r="I446" s="33"/>
     </row>
     <row r="447" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C447" s="7" t="s">
@@ -17972,59 +17972,59 @@
     </row>
     <row r="450" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C450" s="7"/>
-      <c r="D450" s="27" t="s">
+      <c r="D450" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E450" s="27"/>
-      <c r="F450" s="27"/>
-      <c r="G450" s="27"/>
-      <c r="H450" s="27"/>
-      <c r="I450" s="28"/>
+      <c r="E450" s="36"/>
+      <c r="F450" s="36"/>
+      <c r="G450" s="36"/>
+      <c r="H450" s="36"/>
+      <c r="I450" s="37"/>
     </row>
     <row r="451" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C451" s="7"/>
-      <c r="D451" s="27" t="s">
+      <c r="D451" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E451" s="27"/>
-      <c r="F451" s="27"/>
-      <c r="G451" s="27" t="s">
+      <c r="E451" s="36"/>
+      <c r="F451" s="36"/>
+      <c r="G451" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H451" s="27"/>
-      <c r="I451" s="28"/>
+      <c r="H451" s="36"/>
+      <c r="I451" s="37"/>
     </row>
     <row r="452" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C452" s="7"/>
-      <c r="D452" s="39" t="s">
+      <c r="D452" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E452" s="39" t="s">
+      <c r="E452" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F452" s="39" t="s">
+      <c r="F452" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G452" s="39" t="s">
+      <c r="G452" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H452" s="39" t="s">
+      <c r="H452" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I452" s="40" t="s">
+      <c r="I452" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="453" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C453" s="7"/>
-      <c r="D453" s="42" t="s">
+      <c r="D453" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E453" s="43"/>
-      <c r="F453" s="43"/>
-      <c r="G453" s="43"/>
-      <c r="H453" s="43"/>
-      <c r="I453" s="44"/>
+      <c r="E453" s="32"/>
+      <c r="F453" s="32"/>
+      <c r="G453" s="32"/>
+      <c r="H453" s="32"/>
+      <c r="I453" s="33"/>
     </row>
     <row r="454" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C454" s="7" t="s">
@@ -18097,59 +18097,59 @@
     </row>
     <row r="457" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C457" s="18"/>
-      <c r="D457" s="27" t="s">
+      <c r="D457" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E457" s="27"/>
-      <c r="F457" s="27"/>
-      <c r="G457" s="27"/>
-      <c r="H457" s="27"/>
-      <c r="I457" s="28"/>
+      <c r="E457" s="36"/>
+      <c r="F457" s="36"/>
+      <c r="G457" s="36"/>
+      <c r="H457" s="36"/>
+      <c r="I457" s="37"/>
     </row>
     <row r="458" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C458" s="18"/>
-      <c r="D458" s="27" t="s">
+      <c r="D458" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E458" s="27"/>
-      <c r="F458" s="27"/>
-      <c r="G458" s="27" t="s">
+      <c r="E458" s="36"/>
+      <c r="F458" s="36"/>
+      <c r="G458" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H458" s="27"/>
-      <c r="I458" s="28"/>
+      <c r="H458" s="36"/>
+      <c r="I458" s="37"/>
     </row>
     <row r="459" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C459" s="18"/>
-      <c r="D459" s="39" t="s">
+      <c r="D459" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E459" s="39" t="s">
+      <c r="E459" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F459" s="39" t="s">
+      <c r="F459" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G459" s="39" t="s">
+      <c r="G459" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H459" s="39" t="s">
+      <c r="H459" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I459" s="40" t="s">
+      <c r="I459" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="460" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C460" s="18"/>
-      <c r="D460" s="42" t="s">
+      <c r="D460" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E460" s="43"/>
-      <c r="F460" s="43"/>
-      <c r="G460" s="43"/>
-      <c r="H460" s="43"/>
-      <c r="I460" s="44"/>
+      <c r="E460" s="32"/>
+      <c r="F460" s="32"/>
+      <c r="G460" s="32"/>
+      <c r="H460" s="32"/>
+      <c r="I460" s="33"/>
     </row>
     <row r="461" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C461" s="7" t="s">
@@ -18223,59 +18223,59 @@
     <row r="464" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="465" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C465" s="25"/>
-      <c r="D465" s="29" t="s">
+      <c r="D465" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="E465" s="29"/>
-      <c r="F465" s="29"/>
-      <c r="G465" s="29"/>
-      <c r="H465" s="29"/>
-      <c r="I465" s="30"/>
+      <c r="E465" s="38"/>
+      <c r="F465" s="38"/>
+      <c r="G465" s="38"/>
+      <c r="H465" s="38"/>
+      <c r="I465" s="39"/>
     </row>
     <row r="466" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C466" s="26"/>
-      <c r="D466" s="27" t="s">
+      <c r="D466" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E466" s="27"/>
-      <c r="F466" s="27"/>
-      <c r="G466" s="27" t="s">
+      <c r="E466" s="36"/>
+      <c r="F466" s="36"/>
+      <c r="G466" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H466" s="27"/>
-      <c r="I466" s="28"/>
+      <c r="H466" s="36"/>
+      <c r="I466" s="37"/>
     </row>
     <row r="467" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C467" s="7"/>
-      <c r="D467" s="39" t="s">
+      <c r="D467" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E467" s="39" t="s">
+      <c r="E467" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F467" s="39" t="s">
+      <c r="F467" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G467" s="39" t="s">
+      <c r="G467" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H467" s="39" t="s">
+      <c r="H467" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I467" s="40" t="s">
+      <c r="I467" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="468" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C468" s="7"/>
-      <c r="D468" s="42" t="s">
+      <c r="D468" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E468" s="43"/>
-      <c r="F468" s="43"/>
-      <c r="G468" s="43"/>
-      <c r="H468" s="43"/>
-      <c r="I468" s="44"/>
+      <c r="E468" s="32"/>
+      <c r="F468" s="32"/>
+      <c r="G468" s="32"/>
+      <c r="H468" s="32"/>
+      <c r="I468" s="33"/>
     </row>
     <row r="469" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C469" s="7" t="s">
@@ -18325,59 +18325,59 @@
     </row>
     <row r="471" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C471" s="7"/>
-      <c r="D471" s="27" t="s">
+      <c r="D471" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="E471" s="27"/>
-      <c r="F471" s="27"/>
-      <c r="G471" s="27"/>
-      <c r="H471" s="27"/>
-      <c r="I471" s="28"/>
+      <c r="E471" s="36"/>
+      <c r="F471" s="36"/>
+      <c r="G471" s="36"/>
+      <c r="H471" s="36"/>
+      <c r="I471" s="37"/>
     </row>
     <row r="472" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C472" s="7"/>
-      <c r="D472" s="27" t="s">
+      <c r="D472" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E472" s="27"/>
-      <c r="F472" s="27"/>
-      <c r="G472" s="27" t="s">
+      <c r="E472" s="36"/>
+      <c r="F472" s="36"/>
+      <c r="G472" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H472" s="27"/>
-      <c r="I472" s="28"/>
+      <c r="H472" s="36"/>
+      <c r="I472" s="37"/>
     </row>
     <row r="473" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C473" s="7"/>
-      <c r="D473" s="39" t="s">
+      <c r="D473" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E473" s="39" t="s">
+      <c r="E473" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F473" s="39" t="s">
+      <c r="F473" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G473" s="39" t="s">
+      <c r="G473" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H473" s="39" t="s">
+      <c r="H473" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I473" s="40" t="s">
+      <c r="I473" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="474" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C474" s="7"/>
-      <c r="D474" s="42" t="s">
+      <c r="D474" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E474" s="43"/>
-      <c r="F474" s="43"/>
-      <c r="G474" s="43"/>
-      <c r="H474" s="43"/>
-      <c r="I474" s="44"/>
+      <c r="E474" s="32"/>
+      <c r="F474" s="32"/>
+      <c r="G474" s="32"/>
+      <c r="H474" s="32"/>
+      <c r="I474" s="33"/>
     </row>
     <row r="475" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C475" s="7" t="s">
@@ -18427,59 +18427,59 @@
     </row>
     <row r="477" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C477" s="18"/>
-      <c r="D477" s="27" t="s">
+      <c r="D477" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="E477" s="27"/>
-      <c r="F477" s="27"/>
-      <c r="G477" s="27"/>
-      <c r="H477" s="27"/>
-      <c r="I477" s="28"/>
+      <c r="E477" s="36"/>
+      <c r="F477" s="36"/>
+      <c r="G477" s="36"/>
+      <c r="H477" s="36"/>
+      <c r="I477" s="37"/>
     </row>
     <row r="478" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C478" s="18"/>
-      <c r="D478" s="27" t="s">
+      <c r="D478" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="E478" s="27"/>
-      <c r="F478" s="27"/>
-      <c r="G478" s="27" t="s">
+      <c r="E478" s="36"/>
+      <c r="F478" s="36"/>
+      <c r="G478" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="H478" s="27"/>
-      <c r="I478" s="28"/>
+      <c r="H478" s="36"/>
+      <c r="I478" s="37"/>
     </row>
     <row r="479" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C479" s="18"/>
-      <c r="D479" s="39" t="s">
+      <c r="D479" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="E479" s="39" t="s">
+      <c r="E479" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F479" s="39" t="s">
+      <c r="F479" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="G479" s="39" t="s">
+      <c r="G479" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="H479" s="39" t="s">
+      <c r="H479" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="I479" s="40" t="s">
+      <c r="I479" s="30" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="480" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C480" s="18"/>
-      <c r="D480" s="42" t="s">
+      <c r="D480" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="E480" s="43"/>
-      <c r="F480" s="43"/>
-      <c r="G480" s="43"/>
-      <c r="H480" s="43"/>
-      <c r="I480" s="44"/>
+      <c r="E480" s="32"/>
+      <c r="F480" s="32"/>
+      <c r="G480" s="32"/>
+      <c r="H480" s="32"/>
+      <c r="I480" s="33"/>
     </row>
     <row r="481" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C481" s="7" t="s">
@@ -18529,165 +18529,21 @@
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="D453:I453"/>
-    <mergeCell ref="D460:I460"/>
-    <mergeCell ref="D468:I468"/>
-    <mergeCell ref="D474:I474"/>
-    <mergeCell ref="D480:I480"/>
-    <mergeCell ref="D400:I400"/>
-    <mergeCell ref="D415:I415"/>
-    <mergeCell ref="D430:I430"/>
-    <mergeCell ref="D404:I404"/>
-    <mergeCell ref="D419:I419"/>
-    <mergeCell ref="D434:I434"/>
-    <mergeCell ref="D408:I408"/>
-    <mergeCell ref="D423:I423"/>
-    <mergeCell ref="D438:I438"/>
-    <mergeCell ref="D350:I350"/>
-    <mergeCell ref="D329:I329"/>
-    <mergeCell ref="D341:I341"/>
-    <mergeCell ref="D353:I353"/>
-    <mergeCell ref="D332:I332"/>
-    <mergeCell ref="D344:I344"/>
-    <mergeCell ref="D356:I356"/>
-    <mergeCell ref="D363:I363"/>
-    <mergeCell ref="D375:I375"/>
-    <mergeCell ref="D366:I366"/>
-    <mergeCell ref="D369:I369"/>
-    <mergeCell ref="D313:I313"/>
-    <mergeCell ref="D316:I316"/>
-    <mergeCell ref="D319:I319"/>
-    <mergeCell ref="D301:I301"/>
-    <mergeCell ref="D304:I304"/>
-    <mergeCell ref="D307:I307"/>
-    <mergeCell ref="D252:I252"/>
-    <mergeCell ref="D264:I264"/>
-    <mergeCell ref="D276:I276"/>
-    <mergeCell ref="D255:I255"/>
-    <mergeCell ref="D267:I267"/>
-    <mergeCell ref="D279:I279"/>
-    <mergeCell ref="D258:I258"/>
-    <mergeCell ref="D270:I270"/>
-    <mergeCell ref="D282:I282"/>
-    <mergeCell ref="D150:I150"/>
-    <mergeCell ref="D154:I154"/>
-    <mergeCell ref="D158:I158"/>
-    <mergeCell ref="D162:I162"/>
-    <mergeCell ref="D163:F163"/>
-    <mergeCell ref="G163:I163"/>
-    <mergeCell ref="D165:I165"/>
-    <mergeCell ref="D169:I169"/>
-    <mergeCell ref="D173:I173"/>
-    <mergeCell ref="D132:I132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="D135:I135"/>
-    <mergeCell ref="D139:I139"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="D63:I63"/>
-    <mergeCell ref="D80:I80"/>
-    <mergeCell ref="D70:I70"/>
-    <mergeCell ref="D87:I87"/>
-    <mergeCell ref="D98:I98"/>
-    <mergeCell ref="D101:I101"/>
-    <mergeCell ref="D104:I104"/>
-    <mergeCell ref="D110:I110"/>
-    <mergeCell ref="D122:I122"/>
-    <mergeCell ref="D113:I113"/>
-    <mergeCell ref="D116:I116"/>
-    <mergeCell ref="D17:I17"/>
-    <mergeCell ref="D29:I29"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D5:I5"/>
-    <mergeCell ref="D8:I8"/>
-    <mergeCell ref="D11:I11"/>
-    <mergeCell ref="D14:I14"/>
-    <mergeCell ref="D20:I20"/>
-    <mergeCell ref="D23:I23"/>
-    <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D96:F96"/>
-    <mergeCell ref="G96:I96"/>
-    <mergeCell ref="D107:I107"/>
-    <mergeCell ref="D108:F108"/>
-    <mergeCell ref="G108:I108"/>
-    <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D78:F78"/>
-    <mergeCell ref="G78:I78"/>
-    <mergeCell ref="D77:I77"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="D60:I60"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="D43:I43"/>
-    <mergeCell ref="D32:I32"/>
-    <mergeCell ref="D35:I35"/>
-    <mergeCell ref="D38:I38"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D53:I53"/>
-    <mergeCell ref="D191:I191"/>
-    <mergeCell ref="D192:F192"/>
-    <mergeCell ref="G192:I192"/>
-    <mergeCell ref="D204:I204"/>
-    <mergeCell ref="D205:F205"/>
-    <mergeCell ref="G205:I205"/>
-    <mergeCell ref="D119:I119"/>
-    <mergeCell ref="D120:F120"/>
-    <mergeCell ref="G120:I120"/>
-    <mergeCell ref="D179:F179"/>
-    <mergeCell ref="G179:I179"/>
-    <mergeCell ref="D178:I178"/>
-    <mergeCell ref="D125:I125"/>
-    <mergeCell ref="D128:I128"/>
-    <mergeCell ref="D239:I239"/>
-    <mergeCell ref="D240:F240"/>
-    <mergeCell ref="G240:I240"/>
-    <mergeCell ref="D249:I249"/>
-    <mergeCell ref="D250:F250"/>
-    <mergeCell ref="G250:I250"/>
-    <mergeCell ref="D221:I221"/>
-    <mergeCell ref="D222:F222"/>
-    <mergeCell ref="G222:I222"/>
-    <mergeCell ref="D230:I230"/>
-    <mergeCell ref="D231:F231"/>
-    <mergeCell ref="G231:I231"/>
-    <mergeCell ref="D286:I286"/>
-    <mergeCell ref="D287:F287"/>
-    <mergeCell ref="G287:I287"/>
-    <mergeCell ref="D298:I298"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="G299:I299"/>
-    <mergeCell ref="D261:I261"/>
-    <mergeCell ref="D262:F262"/>
-    <mergeCell ref="G262:I262"/>
-    <mergeCell ref="D273:I273"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="G274:I274"/>
-    <mergeCell ref="D289:I289"/>
-    <mergeCell ref="D292:I292"/>
-    <mergeCell ref="D295:I295"/>
-    <mergeCell ref="D335:I335"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="G336:I336"/>
-    <mergeCell ref="D347:I347"/>
-    <mergeCell ref="D348:F348"/>
-    <mergeCell ref="G348:I348"/>
-    <mergeCell ref="D310:I310"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="G311:I311"/>
-    <mergeCell ref="D323:I323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="G324:I324"/>
-    <mergeCell ref="D326:I326"/>
-    <mergeCell ref="D338:I338"/>
+    <mergeCell ref="D428:F428"/>
+    <mergeCell ref="G428:I428"/>
+    <mergeCell ref="D446:I446"/>
+    <mergeCell ref="D471:I471"/>
+    <mergeCell ref="D472:F472"/>
+    <mergeCell ref="G472:I472"/>
+    <mergeCell ref="D477:I477"/>
+    <mergeCell ref="D478:F478"/>
+    <mergeCell ref="G478:I478"/>
+    <mergeCell ref="D457:I457"/>
+    <mergeCell ref="D458:F458"/>
+    <mergeCell ref="G458:I458"/>
+    <mergeCell ref="D465:I465"/>
+    <mergeCell ref="D466:F466"/>
+    <mergeCell ref="G466:I466"/>
     <mergeCell ref="D384:I384"/>
     <mergeCell ref="D385:F385"/>
     <mergeCell ref="G385:I385"/>
@@ -18705,6 +18561,165 @@
     <mergeCell ref="D390:I390"/>
     <mergeCell ref="D393:I393"/>
     <mergeCell ref="D387:I387"/>
+    <mergeCell ref="D273:I273"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="G274:I274"/>
+    <mergeCell ref="D289:I289"/>
+    <mergeCell ref="D292:I292"/>
+    <mergeCell ref="D295:I295"/>
+    <mergeCell ref="D335:I335"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="G336:I336"/>
+    <mergeCell ref="D310:I310"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="G311:I311"/>
+    <mergeCell ref="D323:I323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="G324:I324"/>
+    <mergeCell ref="D326:I326"/>
+    <mergeCell ref="D239:I239"/>
+    <mergeCell ref="D240:F240"/>
+    <mergeCell ref="G240:I240"/>
+    <mergeCell ref="D249:I249"/>
+    <mergeCell ref="D250:F250"/>
+    <mergeCell ref="G250:I250"/>
+    <mergeCell ref="D221:I221"/>
+    <mergeCell ref="D222:F222"/>
+    <mergeCell ref="G222:I222"/>
+    <mergeCell ref="D230:I230"/>
+    <mergeCell ref="D231:F231"/>
+    <mergeCell ref="G231:I231"/>
+    <mergeCell ref="D191:I191"/>
+    <mergeCell ref="D192:F192"/>
+    <mergeCell ref="G192:I192"/>
+    <mergeCell ref="D204:I204"/>
+    <mergeCell ref="D205:F205"/>
+    <mergeCell ref="G205:I205"/>
+    <mergeCell ref="D119:I119"/>
+    <mergeCell ref="D120:F120"/>
+    <mergeCell ref="G120:I120"/>
+    <mergeCell ref="D179:F179"/>
+    <mergeCell ref="G179:I179"/>
+    <mergeCell ref="D178:I178"/>
+    <mergeCell ref="D125:I125"/>
+    <mergeCell ref="D128:I128"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D78:F78"/>
+    <mergeCell ref="G78:I78"/>
+    <mergeCell ref="D77:I77"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="D60:I60"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="D43:I43"/>
+    <mergeCell ref="D32:I32"/>
+    <mergeCell ref="D35:I35"/>
+    <mergeCell ref="D38:I38"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D53:I53"/>
+    <mergeCell ref="D17:I17"/>
+    <mergeCell ref="D29:I29"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="D5:I5"/>
+    <mergeCell ref="D8:I8"/>
+    <mergeCell ref="D11:I11"/>
+    <mergeCell ref="D14:I14"/>
+    <mergeCell ref="D20:I20"/>
+    <mergeCell ref="D23:I23"/>
+    <mergeCell ref="D26:I26"/>
+    <mergeCell ref="D63:I63"/>
+    <mergeCell ref="D80:I80"/>
+    <mergeCell ref="D70:I70"/>
+    <mergeCell ref="D87:I87"/>
+    <mergeCell ref="D98:I98"/>
+    <mergeCell ref="D101:I101"/>
+    <mergeCell ref="D104:I104"/>
+    <mergeCell ref="D110:I110"/>
+    <mergeCell ref="D122:I122"/>
+    <mergeCell ref="D113:I113"/>
+    <mergeCell ref="D116:I116"/>
+    <mergeCell ref="D96:F96"/>
+    <mergeCell ref="G96:I96"/>
+    <mergeCell ref="D107:I107"/>
+    <mergeCell ref="D108:F108"/>
+    <mergeCell ref="G108:I108"/>
+    <mergeCell ref="D95:I95"/>
+    <mergeCell ref="D132:I132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="D135:I135"/>
+    <mergeCell ref="D139:I139"/>
+    <mergeCell ref="D143:I143"/>
+    <mergeCell ref="D147:I147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="D150:I150"/>
+    <mergeCell ref="D154:I154"/>
+    <mergeCell ref="D158:I158"/>
+    <mergeCell ref="D162:I162"/>
+    <mergeCell ref="D163:F163"/>
+    <mergeCell ref="G163:I163"/>
+    <mergeCell ref="D165:I165"/>
+    <mergeCell ref="D169:I169"/>
+    <mergeCell ref="D173:I173"/>
+    <mergeCell ref="D313:I313"/>
+    <mergeCell ref="D316:I316"/>
+    <mergeCell ref="D319:I319"/>
+    <mergeCell ref="D301:I301"/>
+    <mergeCell ref="D304:I304"/>
+    <mergeCell ref="D307:I307"/>
+    <mergeCell ref="D252:I252"/>
+    <mergeCell ref="D264:I264"/>
+    <mergeCell ref="D276:I276"/>
+    <mergeCell ref="D255:I255"/>
+    <mergeCell ref="D267:I267"/>
+    <mergeCell ref="D279:I279"/>
+    <mergeCell ref="D258:I258"/>
+    <mergeCell ref="D270:I270"/>
+    <mergeCell ref="D282:I282"/>
+    <mergeCell ref="D286:I286"/>
+    <mergeCell ref="D287:F287"/>
+    <mergeCell ref="G287:I287"/>
+    <mergeCell ref="D298:I298"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="G299:I299"/>
+    <mergeCell ref="D261:I261"/>
+    <mergeCell ref="D262:F262"/>
+    <mergeCell ref="G262:I262"/>
+    <mergeCell ref="D350:I350"/>
+    <mergeCell ref="D329:I329"/>
+    <mergeCell ref="D341:I341"/>
+    <mergeCell ref="D353:I353"/>
+    <mergeCell ref="D332:I332"/>
+    <mergeCell ref="D344:I344"/>
+    <mergeCell ref="D356:I356"/>
+    <mergeCell ref="D363:I363"/>
+    <mergeCell ref="D375:I375"/>
+    <mergeCell ref="D366:I366"/>
+    <mergeCell ref="D369:I369"/>
+    <mergeCell ref="D347:I347"/>
+    <mergeCell ref="D348:F348"/>
+    <mergeCell ref="G348:I348"/>
+    <mergeCell ref="D338:I338"/>
+    <mergeCell ref="D453:I453"/>
+    <mergeCell ref="D460:I460"/>
+    <mergeCell ref="D468:I468"/>
+    <mergeCell ref="D474:I474"/>
+    <mergeCell ref="D480:I480"/>
+    <mergeCell ref="D400:I400"/>
+    <mergeCell ref="D415:I415"/>
+    <mergeCell ref="D430:I430"/>
+    <mergeCell ref="D404:I404"/>
+    <mergeCell ref="D419:I419"/>
+    <mergeCell ref="D434:I434"/>
+    <mergeCell ref="D408:I408"/>
+    <mergeCell ref="D423:I423"/>
+    <mergeCell ref="D438:I438"/>
     <mergeCell ref="D443:I443"/>
     <mergeCell ref="D444:F444"/>
     <mergeCell ref="G444:I444"/>
@@ -18715,21 +18730,6 @@
     <mergeCell ref="D413:F413"/>
     <mergeCell ref="G413:I413"/>
     <mergeCell ref="D427:I427"/>
-    <mergeCell ref="D428:F428"/>
-    <mergeCell ref="G428:I428"/>
-    <mergeCell ref="D446:I446"/>
-    <mergeCell ref="D471:I471"/>
-    <mergeCell ref="D472:F472"/>
-    <mergeCell ref="G472:I472"/>
-    <mergeCell ref="D477:I477"/>
-    <mergeCell ref="D478:F478"/>
-    <mergeCell ref="G478:I478"/>
-    <mergeCell ref="D457:I457"/>
-    <mergeCell ref="D458:F458"/>
-    <mergeCell ref="G458:I458"/>
-    <mergeCell ref="D465:I465"/>
-    <mergeCell ref="D466:F466"/>
-    <mergeCell ref="G466:I466"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Dokumentace/benchmark-results.xlsx
+++ b/Dokumentace/benchmark-results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projekty\diplomka\Dokumentace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177ACB76-DC95-4F2C-99F9-BACE1EF412C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4299CC7F-0B8F-41C2-916C-6601B07B268C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{209728F2-C094-423C-80BE-A506D0BCB5A3}"/>
   </bookViews>
@@ -942,7 +942,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1027,16 +1027,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1056,6 +1056,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1373,23 +1376,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3950500D-10BC-4704-8A46-A63808D85E74}">
   <dimension ref="C3:AN482"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5:I40"/>
+    <sheetView tabSelected="1" topLeftCell="A112" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P140" sqref="P140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="2" width="8.88671875" style="1"/>
-    <col min="3" max="3" width="12.33203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="7.44140625" style="1" customWidth="1"/>
     <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="13.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="7.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="8.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="11.6640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="13.77734375" style="1" customWidth="1"/>
     <col min="10" max="10" width="8.88671875" style="1"/>
     <col min="11" max="11" width="49.44140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="12.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.77734375" style="1" customWidth="1"/>
     <col min="13" max="13" width="9" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.44140625" style="1" customWidth="1"/>
@@ -1601,16 +1604,16 @@
     </row>
     <row r="6" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C6" s="7"/>
-      <c r="D6" s="36" t="s">
+      <c r="D6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36" t="s">
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
       <c r="L6" s="1" t="s">
         <v>11</v>
       </c>
@@ -2382,14 +2385,14 @@
     </row>
     <row r="17" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C17" s="7"/>
-      <c r="D17" s="36" t="s">
+      <c r="D17" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="36"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="37"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39"/>
       <c r="L17" s="1" t="s">
         <v>17</v>
       </c>
@@ -2465,16 +2468,16 @@
     </row>
     <row r="18" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C18" s="7"/>
-      <c r="D18" s="36" t="s">
+      <c r="D18" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36" t="s">
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="37"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="39"/>
       <c r="L18" s="1" t="s">
         <v>18</v>
       </c>
@@ -3282,14 +3285,14 @@
     </row>
     <row r="29" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C29" s="7"/>
-      <c r="D29" s="36" t="s">
+      <c r="D29" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="36"/>
-      <c r="I29" s="37"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="39"/>
       <c r="L29" s="1" t="s">
         <v>26</v>
       </c>
@@ -3365,16 +3368,16 @@
     </row>
     <row r="30" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C30" s="7"/>
-      <c r="D30" s="36" t="s">
+      <c r="D30" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-      <c r="G30" s="36" t="s">
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H30" s="36"/>
-      <c r="I30" s="37"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="39"/>
       <c r="L30" s="1" t="s">
         <v>9</v>
       </c>
@@ -4348,16 +4351,16 @@
     </row>
     <row r="44" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C44" s="7"/>
-      <c r="D44" s="36" t="s">
+      <c r="D44" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E44" s="36"/>
-      <c r="F44" s="36"/>
-      <c r="G44" s="36" t="s">
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H44" s="36"/>
-      <c r="I44" s="37"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="39"/>
       <c r="L44" s="1" t="s">
         <v>34</v>
       </c>
@@ -5669,14 +5672,14 @@
     </row>
     <row r="60" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C60" s="7"/>
-      <c r="D60" s="36" t="s">
+      <c r="D60" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E60" s="36"/>
-      <c r="F60" s="36"/>
-      <c r="G60" s="36"/>
-      <c r="H60" s="36"/>
-      <c r="I60" s="37"/>
+      <c r="E60" s="38"/>
+      <c r="F60" s="38"/>
+      <c r="G60" s="38"/>
+      <c r="H60" s="38"/>
+      <c r="I60" s="39"/>
       <c r="L60" s="1" t="s">
         <v>46</v>
       </c>
@@ -5752,16 +5755,16 @@
     </row>
     <row r="61" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C61" s="7"/>
-      <c r="D61" s="36" t="s">
+      <c r="D61" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E61" s="36"/>
-      <c r="F61" s="36"/>
-      <c r="G61" s="36" t="s">
+      <c r="E61" s="38"/>
+      <c r="F61" s="38"/>
+      <c r="G61" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H61" s="36"/>
-      <c r="I61" s="37"/>
+      <c r="H61" s="38"/>
+      <c r="I61" s="39"/>
       <c r="L61" s="1" t="s">
         <v>47</v>
       </c>
@@ -7062,14 +7065,14 @@
     </row>
     <row r="77" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C77" s="7"/>
-      <c r="D77" s="36" t="s">
+      <c r="D77" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36"/>
-      <c r="G77" s="36"/>
-      <c r="H77" s="36"/>
-      <c r="I77" s="37"/>
+      <c r="E77" s="38"/>
+      <c r="F77" s="38"/>
+      <c r="G77" s="38"/>
+      <c r="H77" s="38"/>
+      <c r="I77" s="39"/>
       <c r="L77" s="1" t="s">
         <v>9</v>
       </c>
@@ -7127,16 +7130,16 @@
     </row>
     <row r="78" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C78" s="7"/>
-      <c r="D78" s="36" t="s">
+      <c r="D78" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E78" s="36"/>
-      <c r="F78" s="36"/>
-      <c r="G78" s="36" t="s">
+      <c r="E78" s="38"/>
+      <c r="F78" s="38"/>
+      <c r="G78" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H78" s="36"/>
-      <c r="I78" s="37"/>
+      <c r="H78" s="38"/>
+      <c r="I78" s="39"/>
       <c r="L78" s="1" t="s">
         <v>58</v>
       </c>
@@ -8511,14 +8514,14 @@
     </row>
     <row r="95" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C95" s="6"/>
-      <c r="D95" s="40" t="s">
+      <c r="D95" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E95" s="41"/>
-      <c r="F95" s="41"/>
-      <c r="G95" s="41"/>
-      <c r="H95" s="41"/>
-      <c r="I95" s="42"/>
+      <c r="E95" s="36"/>
+      <c r="F95" s="36"/>
+      <c r="G95" s="36"/>
+      <c r="H95" s="36"/>
+      <c r="I95" s="37"/>
       <c r="L95" s="1" t="s">
         <v>9</v>
       </c>
@@ -8576,16 +8579,16 @@
     </row>
     <row r="96" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C96" s="7"/>
-      <c r="D96" s="36" t="s">
+      <c r="D96" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E96" s="36"/>
-      <c r="F96" s="36"/>
-      <c r="G96" s="36" t="s">
+      <c r="E96" s="38"/>
+      <c r="F96" s="38"/>
+      <c r="G96" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H96" s="36"/>
-      <c r="I96" s="37"/>
+      <c r="H96" s="38"/>
+      <c r="I96" s="39"/>
       <c r="L96" s="1" t="s">
         <v>33</v>
       </c>
@@ -8751,14 +8754,14 @@
     </row>
     <row r="98" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C98" s="7"/>
-      <c r="D98" s="31" t="s">
+      <c r="D98" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E98" s="32"/>
-      <c r="F98" s="32"/>
-      <c r="G98" s="32"/>
-      <c r="H98" s="32"/>
-      <c r="I98" s="33"/>
+      <c r="E98" s="34"/>
+      <c r="F98" s="34"/>
+      <c r="G98" s="34"/>
+      <c r="H98" s="34"/>
+      <c r="I98" s="35"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="S98" s="5"/>
@@ -8785,14 +8788,14 @@
       <c r="F99" s="20">
         <v>7.6729900000000002E-3</v>
       </c>
-      <c r="G99" s="8">
-        <v>298667</v>
-      </c>
-      <c r="H99" s="9">
-        <v>2.37002E-3</v>
-      </c>
-      <c r="I99" s="10">
-        <v>2.40653E-3</v>
+      <c r="G99" s="19">
+        <v>344615</v>
+      </c>
+      <c r="H99" s="20">
+        <v>1.96605E-3</v>
+      </c>
+      <c r="I99" s="21">
+        <v>1.9949799999999999E-3</v>
       </c>
       <c r="L99" s="1" t="s">
         <v>36</v>
@@ -8880,14 +8883,14 @@
       <c r="F100" s="20">
         <v>7.6729900000000002E-3</v>
       </c>
-      <c r="G100" s="8">
-        <v>280000</v>
-      </c>
-      <c r="H100" s="9">
-        <v>2.3860499999999998E-3</v>
-      </c>
-      <c r="I100" s="10">
-        <v>2.3437499999999999E-3</v>
+      <c r="G100" s="19">
+        <v>298667</v>
+      </c>
+      <c r="H100" s="20">
+        <v>2.2800199999999998E-3</v>
+      </c>
+      <c r="I100" s="21">
+        <v>2.30189E-3</v>
       </c>
       <c r="L100" s="1" t="s">
         <v>71</v>
@@ -8964,14 +8967,14 @@
     </row>
     <row r="101" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C101" s="18"/>
-      <c r="D101" s="31" t="s">
+      <c r="D101" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E101" s="32"/>
-      <c r="F101" s="32"/>
-      <c r="G101" s="32"/>
-      <c r="H101" s="32"/>
-      <c r="I101" s="33"/>
+      <c r="E101" s="34"/>
+      <c r="F101" s="34"/>
+      <c r="G101" s="34"/>
+      <c r="H101" s="34"/>
+      <c r="I101" s="35"/>
       <c r="N101" s="5"/>
       <c r="O101" s="5"/>
       <c r="S101" s="5"/>
@@ -8998,14 +9001,14 @@
       <c r="F102" s="20">
         <v>0.112305</v>
       </c>
-      <c r="G102" s="8">
-        <v>20364</v>
-      </c>
-      <c r="H102" s="9">
-        <v>3.51396E-2</v>
-      </c>
-      <c r="I102" s="10">
-        <v>3.3760600000000002E-2</v>
+      <c r="G102" s="19">
+        <v>19478</v>
+      </c>
+      <c r="H102" s="20">
+        <v>3.53558E-2</v>
+      </c>
+      <c r="I102" s="21">
+        <v>3.52962E-2</v>
       </c>
       <c r="L102" s="1" t="s">
         <v>39</v>
@@ -9093,14 +9096,14 @@
       <c r="F103" s="20">
         <v>0.117188</v>
       </c>
-      <c r="G103" s="8">
-        <v>20364</v>
-      </c>
-      <c r="H103" s="9">
-        <v>3.4777700000000002E-2</v>
-      </c>
-      <c r="I103" s="10">
-        <v>3.5295100000000003E-2</v>
+      <c r="G103" s="19">
+        <v>22400</v>
+      </c>
+      <c r="H103" s="20">
+        <v>3.2005499999999999E-2</v>
+      </c>
+      <c r="I103" s="21">
+        <v>3.20871E-2</v>
       </c>
       <c r="L103" s="1" t="s">
         <v>72</v>
@@ -9177,14 +9180,14 @@
     </row>
     <row r="104" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C104" s="18"/>
-      <c r="D104" s="31" t="s">
+      <c r="D104" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E104" s="32"/>
-      <c r="F104" s="32"/>
-      <c r="G104" s="32"/>
-      <c r="H104" s="32"/>
-      <c r="I104" s="33"/>
+      <c r="E104" s="34"/>
+      <c r="F104" s="34"/>
+      <c r="G104" s="34"/>
+      <c r="H104" s="34"/>
+      <c r="I104" s="35"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="S104" s="5"/>
@@ -9211,14 +9214,14 @@
       <c r="F105" s="20">
         <v>5.6640600000000001</v>
       </c>
-      <c r="G105" s="8">
-        <v>747</v>
-      </c>
-      <c r="H105" s="9">
-        <v>1.0526599999999999</v>
-      </c>
-      <c r="I105" s="10">
-        <v>1.0458499999999999</v>
+      <c r="G105" s="19">
+        <v>264</v>
+      </c>
+      <c r="H105" s="20">
+        <v>2.6824300000000001</v>
+      </c>
+      <c r="I105" s="21">
+        <v>2.6633499999999999</v>
       </c>
       <c r="L105" s="1" t="s">
         <v>9</v>
@@ -9291,14 +9294,14 @@
       <c r="F106" s="20">
         <v>5.15625</v>
       </c>
-      <c r="G106" s="8">
-        <v>448</v>
-      </c>
-      <c r="H106" s="9">
-        <v>1.5171300000000001</v>
-      </c>
-      <c r="I106" s="10">
-        <v>1.5346</v>
+      <c r="G106" s="19">
+        <v>299</v>
+      </c>
+      <c r="H106" s="20">
+        <v>3.18058</v>
+      </c>
+      <c r="I106" s="21">
+        <v>3.18771</v>
       </c>
       <c r="L106" s="1" t="s">
         <v>73</v>
@@ -9360,14 +9363,14 @@
     </row>
     <row r="107" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C107" s="18"/>
-      <c r="D107" s="36" t="s">
+      <c r="D107" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E107" s="36"/>
-      <c r="F107" s="36"/>
-      <c r="G107" s="36"/>
-      <c r="H107" s="36"/>
-      <c r="I107" s="37"/>
+      <c r="E107" s="38"/>
+      <c r="F107" s="38"/>
+      <c r="G107" s="38"/>
+      <c r="H107" s="38"/>
+      <c r="I107" s="39"/>
       <c r="L107" s="1" t="s">
         <v>74</v>
       </c>
@@ -9440,16 +9443,16 @@
     </row>
     <row r="108" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C108" s="18"/>
-      <c r="D108" s="36" t="s">
+      <c r="D108" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E108" s="36"/>
-      <c r="F108" s="36"/>
-      <c r="G108" s="36" t="s">
+      <c r="E108" s="38"/>
+      <c r="F108" s="38"/>
+      <c r="G108" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H108" s="36"/>
-      <c r="I108" s="37"/>
+      <c r="H108" s="38"/>
+      <c r="I108" s="39"/>
       <c r="L108" s="1" t="s">
         <v>75</v>
       </c>
@@ -9618,14 +9621,14 @@
     </row>
     <row r="110" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C110" s="18"/>
-      <c r="D110" s="31" t="s">
+      <c r="D110" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E110" s="32"/>
-      <c r="F110" s="32"/>
-      <c r="G110" s="32"/>
-      <c r="H110" s="32"/>
-      <c r="I110" s="33"/>
+      <c r="E110" s="34"/>
+      <c r="F110" s="34"/>
+      <c r="G110" s="34"/>
+      <c r="H110" s="34"/>
+      <c r="I110" s="35"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="S110" s="5"/>
@@ -9643,23 +9646,23 @@
       <c r="C111" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D111" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E111" s="9">
-        <v>5.4906800000000004E-3</v>
-      </c>
-      <c r="F111" s="9">
-        <v>5.6249999999999998E-3</v>
-      </c>
-      <c r="G111" s="8">
-        <v>280000</v>
-      </c>
-      <c r="H111" s="9">
-        <v>2.3876100000000001E-3</v>
-      </c>
-      <c r="I111" s="10">
-        <v>2.3437499999999999E-3</v>
+      <c r="D111" s="19">
+        <v>89600</v>
+      </c>
+      <c r="E111" s="20">
+        <v>7.7582800000000002E-3</v>
+      </c>
+      <c r="F111" s="20">
+        <v>7.6729900000000002E-3</v>
+      </c>
+      <c r="G111" s="19">
+        <v>320000</v>
+      </c>
+      <c r="H111" s="20">
+        <v>2.1337000000000001E-3</v>
+      </c>
+      <c r="I111" s="21">
+        <v>2.1484400000000002E-3</v>
       </c>
       <c r="L111" s="1" t="s">
         <v>77</v>
@@ -9738,23 +9741,23 @@
       <c r="C112" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D112" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E112" s="9">
-        <v>5.4596999999999996E-3</v>
-      </c>
-      <c r="F112" s="9">
-        <v>5.4687499999999997E-3</v>
-      </c>
-      <c r="G112" s="8">
-        <v>280000</v>
-      </c>
-      <c r="H112" s="9">
-        <v>2.4300699999999999E-3</v>
-      </c>
-      <c r="I112" s="10">
-        <v>2.3995499999999999E-3</v>
+      <c r="D112" s="19">
+        <v>89600</v>
+      </c>
+      <c r="E112" s="20">
+        <v>7.8757500000000008E-3</v>
+      </c>
+      <c r="F112" s="20">
+        <v>7.8473799999999993E-3</v>
+      </c>
+      <c r="G112" s="19">
+        <v>320000</v>
+      </c>
+      <c r="H112" s="20">
+        <v>2.1280800000000001E-3</v>
+      </c>
+      <c r="I112" s="21">
+        <v>2.09961E-3</v>
       </c>
       <c r="L112" s="1" t="s">
         <v>78</v>
@@ -9831,14 +9834,14 @@
     </row>
     <row r="113" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C113" s="18"/>
-      <c r="D113" s="31" t="s">
+      <c r="D113" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E113" s="32"/>
-      <c r="F113" s="32"/>
-      <c r="G113" s="32"/>
-      <c r="H113" s="32"/>
-      <c r="I113" s="33"/>
+      <c r="E113" s="34"/>
+      <c r="F113" s="34"/>
+      <c r="G113" s="34"/>
+      <c r="H113" s="34"/>
+      <c r="I113" s="35"/>
       <c r="N113" s="5"/>
       <c r="O113" s="5"/>
       <c r="S113" s="5"/>
@@ -9856,23 +9859,23 @@
       <c r="C114" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D114" s="8">
-        <v>8960</v>
-      </c>
-      <c r="E114" s="9">
-        <v>7.9068200000000005E-2</v>
-      </c>
-      <c r="F114" s="9">
-        <v>7.6729900000000004E-2</v>
-      </c>
-      <c r="G114" s="8">
-        <v>17231</v>
-      </c>
-      <c r="H114" s="9">
-        <v>3.6204800000000002E-2</v>
-      </c>
-      <c r="I114" s="10">
-        <v>3.5365000000000001E-2</v>
+      <c r="D114" s="19">
+        <v>4480</v>
+      </c>
+      <c r="E114" s="20">
+        <v>0.124237</v>
+      </c>
+      <c r="F114" s="20">
+        <v>0.125558</v>
+      </c>
+      <c r="G114" s="19">
+        <v>22400</v>
+      </c>
+      <c r="H114" s="20">
+        <v>3.2281400000000002E-2</v>
+      </c>
+      <c r="I114" s="21">
+        <v>3.20871E-2</v>
       </c>
       <c r="L114" s="1" t="s">
         <v>9</v>
@@ -9948,23 +9951,23 @@
       <c r="C115" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D115" s="8">
-        <v>8960</v>
-      </c>
-      <c r="E115" s="9">
-        <v>8.4000400000000003E-2</v>
-      </c>
-      <c r="F115" s="9">
-        <v>8.02176E-2</v>
-      </c>
-      <c r="G115" s="8">
+      <c r="D115" s="19">
+        <v>6400</v>
+      </c>
+      <c r="E115" s="20">
+        <v>0.13211500000000001</v>
+      </c>
+      <c r="F115" s="20">
+        <v>0.13183600000000001</v>
+      </c>
+      <c r="G115" s="19">
         <v>19478</v>
       </c>
-      <c r="H115" s="9">
-        <v>3.7782999999999997E-2</v>
-      </c>
-      <c r="I115" s="10">
-        <v>3.7702800000000002E-2</v>
+      <c r="H115" s="20">
+        <v>3.4192699999999999E-2</v>
+      </c>
+      <c r="I115" s="21">
+        <v>3.3691899999999997E-2</v>
       </c>
       <c r="L115" s="1" t="s">
         <v>9</v>
@@ -10026,14 +10029,14 @@
     </row>
     <row r="116" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C116" s="18"/>
-      <c r="D116" s="31" t="s">
+      <c r="D116" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E116" s="32"/>
-      <c r="F116" s="32"/>
-      <c r="G116" s="32"/>
-      <c r="H116" s="32"/>
-      <c r="I116" s="33"/>
+      <c r="E116" s="34"/>
+      <c r="F116" s="34"/>
+      <c r="G116" s="34"/>
+      <c r="H116" s="34"/>
+      <c r="I116" s="35"/>
       <c r="N116" s="5"/>
       <c r="O116" s="5"/>
       <c r="S116" s="5"/>
@@ -10051,23 +10054,23 @@
       <c r="C117" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D117" s="8">
-        <v>299</v>
-      </c>
-      <c r="E117" s="9">
-        <v>2.3091900000000001</v>
-      </c>
-      <c r="F117" s="9">
-        <v>2.2993299999999999</v>
-      </c>
-      <c r="G117" s="8">
-        <v>640</v>
-      </c>
-      <c r="H117" s="9">
-        <v>1.19834</v>
-      </c>
-      <c r="I117" s="10">
-        <v>1.1962900000000001</v>
+      <c r="D117" s="19">
+        <v>160</v>
+      </c>
+      <c r="E117" s="20">
+        <v>4.3853999999999997</v>
+      </c>
+      <c r="F117" s="20">
+        <v>4.3945299999999996</v>
+      </c>
+      <c r="G117" s="19">
+        <v>166</v>
+      </c>
+      <c r="H117" s="20">
+        <v>3.90442</v>
+      </c>
+      <c r="I117" s="21">
+        <v>3.8591899999999999</v>
       </c>
       <c r="L117" s="1" t="s">
         <v>79</v>
@@ -10131,23 +10134,23 @@
       <c r="C118" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D118" s="8">
-        <v>160</v>
-      </c>
-      <c r="E118" s="9">
-        <v>4.9169299999999998</v>
-      </c>
-      <c r="F118" s="9">
-        <v>4.8828100000000001</v>
-      </c>
-      <c r="G118" s="8">
-        <v>448</v>
-      </c>
-      <c r="H118" s="9">
-        <v>1.6133299999999999</v>
-      </c>
-      <c r="I118" s="10">
-        <v>1.63923</v>
+      <c r="D118" s="19">
+        <v>172</v>
+      </c>
+      <c r="E118" s="20">
+        <v>4.7112800000000004</v>
+      </c>
+      <c r="F118" s="20">
+        <v>4.72384</v>
+      </c>
+      <c r="G118" s="19">
+        <v>249</v>
+      </c>
+      <c r="H118" s="20">
+        <v>2.5510999999999999</v>
+      </c>
+      <c r="I118" s="21">
+        <v>2.5727899999999999</v>
       </c>
       <c r="L118" s="1" t="s">
         <v>80</v>
@@ -10221,14 +10224,14 @@
     </row>
     <row r="119" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C119" s="18"/>
-      <c r="D119" s="36" t="s">
+      <c r="D119" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="36"/>
-      <c r="F119" s="36"/>
-      <c r="G119" s="36"/>
-      <c r="H119" s="36"/>
-      <c r="I119" s="37"/>
+      <c r="E119" s="38"/>
+      <c r="F119" s="38"/>
+      <c r="G119" s="38"/>
+      <c r="H119" s="38"/>
+      <c r="I119" s="39"/>
       <c r="L119" s="1" t="s">
         <v>81</v>
       </c>
@@ -10304,16 +10307,16 @@
     </row>
     <row r="120" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C120" s="18"/>
-      <c r="D120" s="36" t="s">
+      <c r="D120" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E120" s="36"/>
-      <c r="F120" s="36"/>
-      <c r="G120" s="36" t="s">
+      <c r="E120" s="38"/>
+      <c r="F120" s="38"/>
+      <c r="G120" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H120" s="36"/>
-      <c r="I120" s="37"/>
+      <c r="H120" s="38"/>
+      <c r="I120" s="39"/>
       <c r="L120" s="1" t="s">
         <v>82</v>
       </c>
@@ -10482,14 +10485,14 @@
     </row>
     <row r="122" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C122" s="18"/>
-      <c r="D122" s="31" t="s">
+      <c r="D122" s="34" t="s">
         <v>134</v>
       </c>
-      <c r="E122" s="32"/>
-      <c r="F122" s="32"/>
-      <c r="G122" s="32"/>
-      <c r="H122" s="32"/>
-      <c r="I122" s="33"/>
+      <c r="E122" s="34"/>
+      <c r="F122" s="34"/>
+      <c r="G122" s="34"/>
+      <c r="H122" s="34"/>
+      <c r="I122" s="35"/>
       <c r="N122" s="5"/>
       <c r="O122" s="5"/>
       <c r="S122" s="5"/>
@@ -10507,23 +10510,23 @@
       <c r="C123" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D123" s="8">
-        <v>100000</v>
-      </c>
-      <c r="E123" s="9">
-        <v>5.5139300000000002E-3</v>
-      </c>
-      <c r="F123" s="9">
-        <v>5.4687499999999997E-3</v>
-      </c>
-      <c r="G123" s="8">
-        <v>298667</v>
-      </c>
-      <c r="H123" s="9">
-        <v>2.3864200000000002E-3</v>
-      </c>
-      <c r="I123" s="10">
-        <v>2.3542099999999998E-3</v>
+      <c r="D123" s="19">
+        <v>89600</v>
+      </c>
+      <c r="E123" s="20">
+        <v>7.3079399999999997E-3</v>
+      </c>
+      <c r="F123" s="20">
+        <v>7.3242200000000002E-3</v>
+      </c>
+      <c r="G123" s="19">
+        <v>407273</v>
+      </c>
+      <c r="H123" s="20">
+        <v>1.7385199999999999E-3</v>
+      </c>
+      <c r="I123" s="21">
+        <v>1.72642E-3</v>
       </c>
       <c r="L123" s="1" t="s">
         <v>84</v>
@@ -10602,23 +10605,23 @@
       <c r="C124" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D124" s="8">
-        <v>112000</v>
-      </c>
-      <c r="E124" s="9">
-        <v>5.4807199999999997E-3</v>
-      </c>
-      <c r="F124" s="9">
-        <v>5.4408499999999997E-3</v>
-      </c>
-      <c r="G124" s="8">
-        <v>298667</v>
-      </c>
-      <c r="H124" s="9">
-        <v>2.39602E-3</v>
-      </c>
-      <c r="I124" s="10">
-        <v>2.40653E-3</v>
+      <c r="D124" s="19">
+        <v>89600</v>
+      </c>
+      <c r="E124" s="20">
+        <v>8.18142E-3</v>
+      </c>
+      <c r="F124" s="20">
+        <v>8.1961499999999993E-3</v>
+      </c>
+      <c r="G124" s="19">
+        <v>373333</v>
+      </c>
+      <c r="H124" s="20">
+        <v>1.8777100000000001E-3</v>
+      </c>
+      <c r="I124" s="21">
+        <v>1.8833700000000001E-3</v>
       </c>
       <c r="L124" s="1" t="s">
         <v>85</v>
@@ -10695,14 +10698,14 @@
     </row>
     <row r="125" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C125" s="18"/>
-      <c r="D125" s="31" t="s">
+      <c r="D125" s="34" t="s">
         <v>135</v>
       </c>
-      <c r="E125" s="32"/>
-      <c r="F125" s="32"/>
-      <c r="G125" s="32"/>
-      <c r="H125" s="32"/>
-      <c r="I125" s="33"/>
+      <c r="E125" s="34"/>
+      <c r="F125" s="34"/>
+      <c r="G125" s="34"/>
+      <c r="H125" s="34"/>
+      <c r="I125" s="35"/>
       <c r="N125" s="5"/>
       <c r="O125" s="5"/>
       <c r="S125" s="5"/>
@@ -10720,23 +10723,23 @@
       <c r="C126" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D126" s="8">
-        <v>8960</v>
-      </c>
-      <c r="E126" s="9">
-        <v>7.8666799999999995E-2</v>
-      </c>
-      <c r="F126" s="9">
-        <v>7.8473799999999996E-2</v>
-      </c>
-      <c r="G126" s="8">
-        <v>19478</v>
-      </c>
-      <c r="H126" s="9">
-        <v>3.47564E-2</v>
-      </c>
-      <c r="I126" s="10">
-        <v>3.4493999999999997E-2</v>
+      <c r="D126" s="19">
+        <v>6400</v>
+      </c>
+      <c r="E126" s="20">
+        <v>0.11236400000000001</v>
+      </c>
+      <c r="F126" s="20">
+        <v>0.114746</v>
+      </c>
+      <c r="G126" s="19">
+        <v>23579</v>
+      </c>
+      <c r="H126" s="20">
+        <v>3.2772599999999999E-2</v>
+      </c>
+      <c r="I126" s="21">
+        <v>3.2470600000000002E-2</v>
       </c>
       <c r="L126" s="1" t="s">
         <v>86</v>
@@ -10815,23 +10818,23 @@
       <c r="C127" s="18" t="s">
         <v>138</v>
       </c>
-      <c r="D127" s="8">
-        <v>8960</v>
-      </c>
-      <c r="E127" s="9">
-        <v>7.8929100000000002E-2</v>
-      </c>
-      <c r="F127" s="9">
-        <v>7.8473799999999996E-2</v>
-      </c>
-      <c r="G127" s="8">
-        <v>20364</v>
-      </c>
-      <c r="H127" s="9">
-        <v>3.5150099999999997E-2</v>
-      </c>
-      <c r="I127" s="10">
-        <v>3.5295100000000003E-2</v>
+      <c r="D127" s="19">
+        <v>6400</v>
+      </c>
+      <c r="E127" s="20">
+        <v>0.112317</v>
+      </c>
+      <c r="F127" s="20">
+        <v>0.112305</v>
+      </c>
+      <c r="G127" s="19">
+        <v>23579</v>
+      </c>
+      <c r="H127" s="20">
+        <v>3.3748899999999998E-2</v>
+      </c>
+      <c r="I127" s="21">
+        <v>3.3796E-2</v>
       </c>
       <c r="L127" s="1" t="s">
         <v>87</v>
@@ -10906,16 +10909,16 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="128" spans="3:40" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="128" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C128" s="18"/>
-      <c r="D128" s="31" t="s">
+      <c r="D128" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="E128" s="32"/>
-      <c r="F128" s="32"/>
-      <c r="G128" s="32"/>
-      <c r="H128" s="32"/>
-      <c r="I128" s="33"/>
+      <c r="E128" s="34"/>
+      <c r="F128" s="34"/>
+      <c r="G128" s="34"/>
+      <c r="H128" s="34"/>
+      <c r="I128" s="35"/>
       <c r="N128" s="5"/>
       <c r="O128" s="5"/>
       <c r="S128" s="5"/>
@@ -10933,23 +10936,23 @@
       <c r="C129" s="18" t="s">
         <v>137</v>
       </c>
-      <c r="D129" s="8">
-        <v>299</v>
-      </c>
-      <c r="E129" s="9">
-        <v>2.2919299999999998</v>
-      </c>
-      <c r="F129" s="9">
-        <v>2.2993299999999999</v>
-      </c>
-      <c r="G129" s="8">
-        <v>640</v>
-      </c>
-      <c r="H129" s="9">
-        <v>1.0400199999999999</v>
-      </c>
-      <c r="I129" s="10">
-        <v>1.02539</v>
+      <c r="D129" s="19">
+        <v>179</v>
+      </c>
+      <c r="E129" s="20">
+        <v>4.0296099999999999</v>
+      </c>
+      <c r="F129" s="20">
+        <v>4.1026499999999997</v>
+      </c>
+      <c r="G129" s="19">
+        <v>280</v>
+      </c>
+      <c r="H129" s="20">
+        <v>2.9904199999999999</v>
+      </c>
+      <c r="I129" s="21">
+        <v>2.9575900000000002</v>
       </c>
       <c r="L129" s="1" t="s">
         <v>9</v>
@@ -11022,26 +11025,26 @@
       </c>
     </row>
     <row r="130" spans="3:40" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C130" s="18" t="s">
+      <c r="C130" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="D130" s="12">
-        <v>160</v>
-      </c>
-      <c r="E130" s="13">
-        <v>4.3498799999999997</v>
-      </c>
-      <c r="F130" s="13">
-        <v>4.3945299999999996</v>
-      </c>
-      <c r="G130" s="12">
-        <v>448</v>
-      </c>
-      <c r="H130" s="13">
-        <v>1.6419999999999999</v>
-      </c>
-      <c r="I130" s="14">
-        <v>1.63923</v>
+      <c r="D130" s="22">
+        <v>172</v>
+      </c>
+      <c r="E130" s="23">
+        <v>4.0687199999999999</v>
+      </c>
+      <c r="F130" s="23">
+        <v>4.0879399999999997</v>
+      </c>
+      <c r="G130" s="22">
+        <v>345</v>
+      </c>
+      <c r="H130" s="23">
+        <v>2.6093000000000002</v>
+      </c>
+      <c r="I130" s="24">
+        <v>2.6268099999999999</v>
       </c>
       <c r="L130" s="1" t="s">
         <v>9</v>
@@ -11162,14 +11165,14 @@
     </row>
     <row r="132" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C132" s="6"/>
-      <c r="D132" s="38" t="s">
+      <c r="D132" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E132" s="38"/>
-      <c r="F132" s="38"/>
-      <c r="G132" s="38"/>
-      <c r="H132" s="38"/>
-      <c r="I132" s="39"/>
+      <c r="E132" s="36"/>
+      <c r="F132" s="36"/>
+      <c r="G132" s="36"/>
+      <c r="H132" s="36"/>
+      <c r="I132" s="37"/>
       <c r="L132" s="1" t="s">
         <v>89</v>
       </c>
@@ -11242,16 +11245,16 @@
     </row>
     <row r="133" spans="3:40" x14ac:dyDescent="0.3">
       <c r="C133" s="7"/>
-      <c r="D133" s="36" t="s">
+      <c r="D133" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E133" s="36"/>
-      <c r="F133" s="36"/>
-      <c r="G133" s="36" t="s">
+      <c r="E133" s="38"/>
+      <c r="F133" s="38"/>
+      <c r="G133" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H133" s="36"/>
-      <c r="I133" s="37"/>
+      <c r="H133" s="38"/>
+      <c r="I133" s="39"/>
       <c r="L133" s="1" t="s">
         <v>90</v>
       </c>
@@ -11563,7 +11566,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="137" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="137" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C137" s="18" t="s">
         <v>140</v>
       </c>
@@ -11655,7 +11658,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="138" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="138" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C138" s="18" t="s">
         <v>141</v>
       </c>
@@ -11784,7 +11787,7 @@
         <v>3.6098400000000003E-2</v>
       </c>
     </row>
-    <row r="141" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="141" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C141" s="18" t="s">
         <v>140</v>
       </c>
@@ -11807,7 +11810,7 @@
         <v>1.8833900000000001E-2</v>
       </c>
     </row>
-    <row r="142" spans="3:40" x14ac:dyDescent="0.3">
+    <row r="142" spans="3:40" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C142" s="18" t="s">
         <v>141</v>
       </c>
@@ -11864,7 +11867,7 @@
         <v>1.0498000000000001</v>
       </c>
     </row>
-    <row r="145" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="145" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C145" s="18" t="s">
         <v>140</v>
       </c>
@@ -11887,7 +11890,7 @@
         <v>0.53125</v>
       </c>
     </row>
-    <row r="146" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="146" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C146" s="18" t="s">
         <v>141</v>
       </c>
@@ -11912,27 +11915,27 @@
     </row>
     <row r="147" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C147" s="18"/>
-      <c r="D147" s="36" t="s">
+      <c r="D147" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E147" s="36"/>
-      <c r="F147" s="36"/>
-      <c r="G147" s="36"/>
-      <c r="H147" s="36"/>
-      <c r="I147" s="37"/>
+      <c r="E147" s="38"/>
+      <c r="F147" s="38"/>
+      <c r="G147" s="38"/>
+      <c r="H147" s="38"/>
+      <c r="I147" s="39"/>
     </row>
     <row r="148" spans="3:20" x14ac:dyDescent="0.3">
       <c r="C148" s="18"/>
-      <c r="D148" s="36" t="s">
+      <c r="D148" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E148" s="36"/>
-      <c r="F148" s="36"/>
-      <c r="G148" s="36" t="s">
+      <c r="E148" s="38"/>
+      <c r="F148" s="38"/>
+      <c r="G148" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H148" s="36"/>
-      <c r="I148" s="37"/>
+      <c r="H148" s="38"/>
+      <c r="I148" s="39"/>
     </row>
     <row r="149" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C149" s="18"/>
@@ -11989,7 +11992,7 @@
         <v>2.3437499999999999E-3</v>
       </c>
     </row>
-    <row r="152" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="152" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C152" s="18" t="s">
         <v>140</v>
       </c>
@@ -12012,7 +12015,7 @@
         <v>1.1997799999999999E-3</v>
       </c>
     </row>
-    <row r="153" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="153" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C153" s="18" t="s">
         <v>141</v>
       </c>
@@ -12069,7 +12072,7 @@
         <v>3.6900599999999999E-2</v>
       </c>
     </row>
-    <row r="156" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="156" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C156" s="18" t="s">
         <v>140</v>
       </c>
@@ -12092,7 +12095,7 @@
         <v>1.9252399999999999E-2</v>
       </c>
     </row>
-    <row r="157" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="157" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C157" s="18" t="s">
         <v>141</v>
       </c>
@@ -12149,7 +12152,7 @@
         <v>1.07422</v>
       </c>
     </row>
-    <row r="160" spans="3:20" x14ac:dyDescent="0.3">
+    <row r="160" spans="3:20" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C160" s="18" t="s">
         <v>140</v>
       </c>
@@ -12176,7 +12179,7 @@
       <c r="S160" s="5"/>
       <c r="T160" s="5"/>
     </row>
-    <row r="161" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="161" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C161" s="18" t="s">
         <v>141</v>
       </c>
@@ -12205,14 +12208,14 @@
     </row>
     <row r="162" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C162" s="18"/>
-      <c r="D162" s="36" t="s">
+      <c r="D162" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E162" s="36"/>
-      <c r="F162" s="36"/>
-      <c r="G162" s="36"/>
-      <c r="H162" s="36"/>
-      <c r="I162" s="37"/>
+      <c r="E162" s="38"/>
+      <c r="F162" s="38"/>
+      <c r="G162" s="38"/>
+      <c r="H162" s="38"/>
+      <c r="I162" s="39"/>
       <c r="N162" s="5"/>
       <c r="O162" s="5"/>
       <c r="S162" s="5"/>
@@ -12220,16 +12223,16 @@
     </row>
     <row r="163" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C163" s="18"/>
-      <c r="D163" s="36" t="s">
+      <c r="D163" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E163" s="36"/>
-      <c r="F163" s="36"/>
-      <c r="G163" s="36" t="s">
+      <c r="E163" s="38"/>
+      <c r="F163" s="38"/>
+      <c r="G163" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H163" s="36"/>
-      <c r="I163" s="37"/>
+      <c r="H163" s="38"/>
+      <c r="I163" s="39"/>
       <c r="N163" s="5"/>
       <c r="O163" s="5"/>
       <c r="S163" s="5"/>
@@ -12302,7 +12305,7 @@
       <c r="S166" s="5"/>
       <c r="T166" s="5"/>
     </row>
-    <row r="167" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="167" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C167" s="18" t="s">
         <v>140</v>
       </c>
@@ -12329,7 +12332,7 @@
       <c r="S167" s="5"/>
       <c r="T167" s="5"/>
     </row>
-    <row r="168" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="168" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C168" s="18" t="s">
         <v>141</v>
       </c>
@@ -12394,7 +12397,7 @@
         <v>3.8504999999999998E-2</v>
       </c>
     </row>
-    <row r="171" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="171" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C171" s="18" t="s">
         <v>140</v>
       </c>
@@ -12417,7 +12420,7 @@
         <v>1.81359E-2</v>
       </c>
     </row>
-    <row r="172" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="172" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C172" s="18" t="s">
         <v>141</v>
       </c>
@@ -12492,7 +12495,7 @@
       <c r="AB174" s="5"/>
       <c r="AC174" s="5"/>
     </row>
-    <row r="175" spans="3:29" x14ac:dyDescent="0.3">
+    <row r="175" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C175" s="18" t="s">
         <v>140</v>
       </c>
@@ -12521,7 +12524,7 @@
       <c r="AB175" s="5"/>
       <c r="AC175" s="5"/>
     </row>
-    <row r="176" spans="3:29" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="3:29" ht="31.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C176" s="18" t="s">
         <v>141</v>
       </c>
@@ -12560,14 +12563,14 @@
     </row>
     <row r="178" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C178" s="25"/>
-      <c r="D178" s="38" t="s">
+      <c r="D178" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E178" s="38"/>
-      <c r="F178" s="38"/>
-      <c r="G178" s="38"/>
-      <c r="H178" s="38"/>
-      <c r="I178" s="39"/>
+      <c r="E178" s="36"/>
+      <c r="F178" s="36"/>
+      <c r="G178" s="36"/>
+      <c r="H178" s="36"/>
+      <c r="I178" s="37"/>
       <c r="R178" s="5"/>
       <c r="S178" s="5"/>
       <c r="W178" s="5"/>
@@ -12577,16 +12580,16 @@
     </row>
     <row r="179" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C179" s="26"/>
-      <c r="D179" s="36" t="s">
+      <c r="D179" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E179" s="36"/>
-      <c r="F179" s="36"/>
-      <c r="G179" s="36" t="s">
+      <c r="E179" s="38"/>
+      <c r="F179" s="38"/>
+      <c r="G179" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H179" s="36"/>
-      <c r="I179" s="37"/>
+      <c r="H179" s="38"/>
+      <c r="I179" s="39"/>
       <c r="R179" s="5"/>
       <c r="S179" s="5"/>
       <c r="W179" s="5"/>
@@ -12886,28 +12889,28 @@
     </row>
     <row r="191" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C191" s="7"/>
-      <c r="D191" s="36" t="s">
+      <c r="D191" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E191" s="36"/>
-      <c r="F191" s="36"/>
-      <c r="G191" s="36"/>
-      <c r="H191" s="36"/>
-      <c r="I191" s="37"/>
+      <c r="E191" s="38"/>
+      <c r="F191" s="38"/>
+      <c r="G191" s="38"/>
+      <c r="H191" s="38"/>
+      <c r="I191" s="39"/>
       <c r="R191" s="5"/>
     </row>
     <row r="192" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C192" s="7"/>
-      <c r="D192" s="36" t="s">
+      <c r="D192" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E192" s="36"/>
-      <c r="F192" s="36"/>
-      <c r="G192" s="36" t="s">
+      <c r="E192" s="38"/>
+      <c r="F192" s="38"/>
+      <c r="G192" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H192" s="36"/>
-      <c r="I192" s="37"/>
+      <c r="H192" s="38"/>
+      <c r="I192" s="39"/>
       <c r="R192" s="5"/>
     </row>
     <row r="193" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
@@ -13163,27 +13166,27 @@
     </row>
     <row r="204" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C204" s="18"/>
-      <c r="D204" s="36" t="s">
+      <c r="D204" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E204" s="36"/>
-      <c r="F204" s="36"/>
-      <c r="G204" s="36"/>
-      <c r="H204" s="36"/>
-      <c r="I204" s="37"/>
+      <c r="E204" s="38"/>
+      <c r="F204" s="38"/>
+      <c r="G204" s="38"/>
+      <c r="H204" s="38"/>
+      <c r="I204" s="39"/>
     </row>
     <row r="205" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C205" s="18"/>
-      <c r="D205" s="36" t="s">
+      <c r="D205" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E205" s="36"/>
-      <c r="F205" s="36"/>
-      <c r="G205" s="36" t="s">
+      <c r="E205" s="38"/>
+      <c r="F205" s="38"/>
+      <c r="G205" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H205" s="36"/>
-      <c r="I205" s="37"/>
+      <c r="H205" s="38"/>
+      <c r="I205" s="39"/>
     </row>
     <row r="206" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C206" s="18"/>
@@ -13474,29 +13477,29 @@
     </row>
     <row r="221" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C221" s="25"/>
-      <c r="D221" s="38" t="s">
+      <c r="D221" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E221" s="38"/>
-      <c r="F221" s="38"/>
-      <c r="G221" s="38"/>
-      <c r="H221" s="38"/>
-      <c r="I221" s="39"/>
+      <c r="E221" s="36"/>
+      <c r="F221" s="36"/>
+      <c r="G221" s="36"/>
+      <c r="H221" s="36"/>
+      <c r="I221" s="37"/>
       <c r="N221" s="5"/>
       <c r="O221" s="5"/>
     </row>
     <row r="222" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C222" s="26"/>
-      <c r="D222" s="36" t="s">
+      <c r="D222" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E222" s="36"/>
-      <c r="F222" s="36"/>
-      <c r="G222" s="36" t="s">
+      <c r="E222" s="38"/>
+      <c r="F222" s="38"/>
+      <c r="G222" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H222" s="36"/>
-      <c r="I222" s="37"/>
+      <c r="H222" s="38"/>
+      <c r="I222" s="39"/>
       <c r="N222" s="5"/>
       <c r="O222" s="5"/>
     </row>
@@ -13663,27 +13666,27 @@
     </row>
     <row r="230" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C230" s="7"/>
-      <c r="D230" s="36" t="s">
+      <c r="D230" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E230" s="36"/>
-      <c r="F230" s="36"/>
-      <c r="G230" s="36"/>
-      <c r="H230" s="36"/>
-      <c r="I230" s="37"/>
+      <c r="E230" s="38"/>
+      <c r="F230" s="38"/>
+      <c r="G230" s="38"/>
+      <c r="H230" s="38"/>
+      <c r="I230" s="39"/>
     </row>
     <row r="231" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C231" s="7"/>
-      <c r="D231" s="36" t="s">
+      <c r="D231" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E231" s="36"/>
-      <c r="F231" s="36"/>
-      <c r="G231" s="36" t="s">
+      <c r="E231" s="38"/>
+      <c r="F231" s="38"/>
+      <c r="G231" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H231" s="36"/>
-      <c r="I231" s="37"/>
+      <c r="H231" s="38"/>
+      <c r="I231" s="39"/>
     </row>
     <row r="232" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C232" s="7"/>
@@ -13852,29 +13855,29 @@
     </row>
     <row r="239" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C239" s="18"/>
-      <c r="D239" s="36" t="s">
+      <c r="D239" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E239" s="36"/>
-      <c r="F239" s="36"/>
-      <c r="G239" s="36"/>
-      <c r="H239" s="36"/>
-      <c r="I239" s="37"/>
+      <c r="E239" s="38"/>
+      <c r="F239" s="38"/>
+      <c r="G239" s="38"/>
+      <c r="H239" s="38"/>
+      <c r="I239" s="39"/>
       <c r="AC239" s="5"/>
       <c r="AD239" s="5"/>
     </row>
     <row r="240" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C240" s="18"/>
-      <c r="D240" s="36" t="s">
+      <c r="D240" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E240" s="36"/>
-      <c r="F240" s="36"/>
-      <c r="G240" s="36" t="s">
+      <c r="E240" s="38"/>
+      <c r="F240" s="38"/>
+      <c r="G240" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H240" s="36"/>
-      <c r="I240" s="37"/>
+      <c r="H240" s="38"/>
+      <c r="I240" s="39"/>
       <c r="AC240" s="5"/>
       <c r="AD240" s="5"/>
     </row>
@@ -14046,27 +14049,27 @@
     <row r="248" spans="3:30" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="249" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C249" s="25"/>
-      <c r="D249" s="38" t="s">
+      <c r="D249" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E249" s="38"/>
-      <c r="F249" s="38"/>
-      <c r="G249" s="38"/>
-      <c r="H249" s="38"/>
-      <c r="I249" s="39"/>
+      <c r="E249" s="36"/>
+      <c r="F249" s="36"/>
+      <c r="G249" s="36"/>
+      <c r="H249" s="36"/>
+      <c r="I249" s="37"/>
     </row>
     <row r="250" spans="3:30" x14ac:dyDescent="0.3">
       <c r="C250" s="26"/>
-      <c r="D250" s="36" t="s">
+      <c r="D250" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E250" s="36"/>
-      <c r="F250" s="36"/>
-      <c r="G250" s="36" t="s">
+      <c r="E250" s="38"/>
+      <c r="F250" s="38"/>
+      <c r="G250" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H250" s="36"/>
-      <c r="I250" s="37"/>
+      <c r="H250" s="38"/>
+      <c r="I250" s="39"/>
     </row>
     <row r="251" spans="3:30" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C251" s="26"/>
@@ -14262,27 +14265,27 @@
     </row>
     <row r="261" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C261" s="7"/>
-      <c r="D261" s="36" t="s">
+      <c r="D261" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E261" s="36"/>
-      <c r="F261" s="36"/>
-      <c r="G261" s="36"/>
-      <c r="H261" s="36"/>
-      <c r="I261" s="37"/>
+      <c r="E261" s="38"/>
+      <c r="F261" s="38"/>
+      <c r="G261" s="38"/>
+      <c r="H261" s="38"/>
+      <c r="I261" s="39"/>
     </row>
     <row r="262" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C262" s="7"/>
-      <c r="D262" s="36" t="s">
+      <c r="D262" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E262" s="36"/>
-      <c r="F262" s="36"/>
-      <c r="G262" s="36" t="s">
+      <c r="E262" s="38"/>
+      <c r="F262" s="38"/>
+      <c r="G262" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H262" s="36"/>
-      <c r="I262" s="37"/>
+      <c r="H262" s="38"/>
+      <c r="I262" s="39"/>
     </row>
     <row r="263" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C263" s="7"/>
@@ -14490,30 +14493,30 @@
     </row>
     <row r="273" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C273" s="18"/>
-      <c r="D273" s="36" t="s">
+      <c r="D273" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E273" s="36"/>
-      <c r="F273" s="36"/>
-      <c r="G273" s="36"/>
-      <c r="H273" s="36"/>
-      <c r="I273" s="37"/>
+      <c r="E273" s="38"/>
+      <c r="F273" s="38"/>
+      <c r="G273" s="38"/>
+      <c r="H273" s="38"/>
+      <c r="I273" s="39"/>
       <c r="R273" s="5"/>
       <c r="AB273" s="5"/>
       <c r="AC273" s="5"/>
     </row>
     <row r="274" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C274" s="18"/>
-      <c r="D274" s="36" t="s">
+      <c r="D274" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E274" s="36"/>
-      <c r="F274" s="36"/>
-      <c r="G274" s="36" t="s">
+      <c r="E274" s="38"/>
+      <c r="F274" s="38"/>
+      <c r="G274" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H274" s="36"/>
-      <c r="I274" s="37"/>
+      <c r="H274" s="38"/>
+      <c r="I274" s="39"/>
       <c r="R274" s="5"/>
       <c r="AB274" s="5"/>
       <c r="AC274" s="5"/>
@@ -14729,28 +14732,28 @@
     </row>
     <row r="286" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C286" s="25"/>
-      <c r="D286" s="38" t="s">
+      <c r="D286" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E286" s="38"/>
-      <c r="F286" s="38"/>
-      <c r="G286" s="38"/>
-      <c r="H286" s="38"/>
-      <c r="I286" s="39"/>
+      <c r="E286" s="36"/>
+      <c r="F286" s="36"/>
+      <c r="G286" s="36"/>
+      <c r="H286" s="36"/>
+      <c r="I286" s="37"/>
       <c r="R286" s="5"/>
     </row>
     <row r="287" spans="3:29" x14ac:dyDescent="0.3">
       <c r="C287" s="26"/>
-      <c r="D287" s="36" t="s">
+      <c r="D287" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E287" s="36"/>
-      <c r="F287" s="36"/>
-      <c r="G287" s="36" t="s">
+      <c r="E287" s="38"/>
+      <c r="F287" s="38"/>
+      <c r="G287" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H287" s="36"/>
-      <c r="I287" s="37"/>
+      <c r="H287" s="38"/>
+      <c r="I287" s="39"/>
       <c r="R287" s="5"/>
     </row>
     <row r="288" spans="3:29" ht="31.2" x14ac:dyDescent="0.3">
@@ -14947,27 +14950,27 @@
     </row>
     <row r="298" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C298" s="7"/>
-      <c r="D298" s="36" t="s">
+      <c r="D298" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E298" s="36"/>
-      <c r="F298" s="36"/>
-      <c r="G298" s="36"/>
-      <c r="H298" s="36"/>
-      <c r="I298" s="37"/>
+      <c r="E298" s="38"/>
+      <c r="F298" s="38"/>
+      <c r="G298" s="38"/>
+      <c r="H298" s="38"/>
+      <c r="I298" s="39"/>
     </row>
     <row r="299" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C299" s="7"/>
-      <c r="D299" s="36" t="s">
+      <c r="D299" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E299" s="36"/>
-      <c r="F299" s="36"/>
-      <c r="G299" s="36" t="s">
+      <c r="E299" s="38"/>
+      <c r="F299" s="38"/>
+      <c r="G299" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H299" s="36"/>
-      <c r="I299" s="37"/>
+      <c r="H299" s="38"/>
+      <c r="I299" s="39"/>
     </row>
     <row r="300" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C300" s="7"/>
@@ -15187,30 +15190,30 @@
     </row>
     <row r="310" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C310" s="18"/>
-      <c r="D310" s="36" t="s">
+      <c r="D310" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E310" s="36"/>
-      <c r="F310" s="36"/>
-      <c r="G310" s="36"/>
-      <c r="H310" s="36"/>
-      <c r="I310" s="37"/>
+      <c r="E310" s="38"/>
+      <c r="F310" s="38"/>
+      <c r="G310" s="38"/>
+      <c r="H310" s="38"/>
+      <c r="I310" s="39"/>
       <c r="R310" s="5"/>
       <c r="AB310" s="5"/>
       <c r="AC310" s="5"/>
     </row>
     <row r="311" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C311" s="18"/>
-      <c r="D311" s="36" t="s">
+      <c r="D311" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E311" s="36"/>
-      <c r="F311" s="36"/>
-      <c r="G311" s="36" t="s">
+      <c r="E311" s="38"/>
+      <c r="F311" s="38"/>
+      <c r="G311" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H311" s="36"/>
-      <c r="I311" s="37"/>
+      <c r="H311" s="38"/>
+      <c r="I311" s="39"/>
       <c r="R311" s="5"/>
       <c r="AB311" s="5"/>
       <c r="AC311" s="5"/>
@@ -15434,28 +15437,28 @@
     </row>
     <row r="323" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C323" s="25"/>
-      <c r="D323" s="38" t="s">
+      <c r="D323" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E323" s="38"/>
-      <c r="F323" s="38"/>
-      <c r="G323" s="38"/>
-      <c r="H323" s="38"/>
-      <c r="I323" s="39"/>
+      <c r="E323" s="36"/>
+      <c r="F323" s="36"/>
+      <c r="G323" s="36"/>
+      <c r="H323" s="36"/>
+      <c r="I323" s="37"/>
       <c r="R323" s="5"/>
     </row>
     <row r="324" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C324" s="26"/>
-      <c r="D324" s="36" t="s">
+      <c r="D324" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E324" s="36"/>
-      <c r="F324" s="36"/>
-      <c r="G324" s="36" t="s">
+      <c r="E324" s="38"/>
+      <c r="F324" s="38"/>
+      <c r="G324" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H324" s="36"/>
-      <c r="I324" s="37"/>
+      <c r="H324" s="38"/>
+      <c r="I324" s="39"/>
       <c r="R324" s="5"/>
     </row>
     <row r="325" spans="3:18" ht="31.2" x14ac:dyDescent="0.3">
@@ -15654,27 +15657,27 @@
     </row>
     <row r="335" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C335" s="7"/>
-      <c r="D335" s="36" t="s">
+      <c r="D335" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E335" s="36"/>
-      <c r="F335" s="36"/>
-      <c r="G335" s="36"/>
-      <c r="H335" s="36"/>
-      <c r="I335" s="37"/>
+      <c r="E335" s="38"/>
+      <c r="F335" s="38"/>
+      <c r="G335" s="38"/>
+      <c r="H335" s="38"/>
+      <c r="I335" s="39"/>
     </row>
     <row r="336" spans="3:18" x14ac:dyDescent="0.3">
       <c r="C336" s="7"/>
-      <c r="D336" s="36" t="s">
+      <c r="D336" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E336" s="36"/>
-      <c r="F336" s="36"/>
-      <c r="G336" s="36" t="s">
+      <c r="E336" s="38"/>
+      <c r="F336" s="38"/>
+      <c r="G336" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H336" s="36"/>
-      <c r="I336" s="37"/>
+      <c r="H336" s="38"/>
+      <c r="I336" s="39"/>
     </row>
     <row r="337" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C337" s="7"/>
@@ -15912,14 +15915,14 @@
     </row>
     <row r="347" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C347" s="18"/>
-      <c r="D347" s="36" t="s">
+      <c r="D347" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E347" s="36"/>
-      <c r="F347" s="36"/>
-      <c r="G347" s="36"/>
-      <c r="H347" s="36"/>
-      <c r="I347" s="37"/>
+      <c r="E347" s="38"/>
+      <c r="F347" s="38"/>
+      <c r="G347" s="38"/>
+      <c r="H347" s="38"/>
+      <c r="I347" s="39"/>
       <c r="R347" s="5"/>
       <c r="AB347" s="5"/>
       <c r="AC347" s="5"/>
@@ -15930,16 +15933,16 @@
     </row>
     <row r="348" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C348" s="18"/>
-      <c r="D348" s="36" t="s">
+      <c r="D348" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E348" s="36"/>
-      <c r="F348" s="36"/>
-      <c r="G348" s="36" t="s">
+      <c r="E348" s="38"/>
+      <c r="F348" s="38"/>
+      <c r="G348" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H348" s="36"/>
-      <c r="I348" s="37"/>
+      <c r="H348" s="38"/>
+      <c r="I348" s="39"/>
       <c r="R348" s="5"/>
       <c r="AB348" s="5"/>
       <c r="AC348" s="5"/>
@@ -16218,14 +16221,14 @@
     </row>
     <row r="360" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C360" s="25"/>
-      <c r="D360" s="38" t="s">
+      <c r="D360" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E360" s="38"/>
-      <c r="F360" s="38"/>
-      <c r="G360" s="38"/>
-      <c r="H360" s="38"/>
-      <c r="I360" s="39"/>
+      <c r="E360" s="36"/>
+      <c r="F360" s="36"/>
+      <c r="G360" s="36"/>
+      <c r="H360" s="36"/>
+      <c r="I360" s="37"/>
       <c r="AG360" s="5"/>
       <c r="AH360" s="5"/>
       <c r="AL360" s="5"/>
@@ -16233,16 +16236,16 @@
     </row>
     <row r="361" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C361" s="26"/>
-      <c r="D361" s="36" t="s">
+      <c r="D361" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E361" s="36"/>
-      <c r="F361" s="36"/>
-      <c r="G361" s="36" t="s">
+      <c r="E361" s="38"/>
+      <c r="F361" s="38"/>
+      <c r="G361" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H361" s="36"/>
-      <c r="I361" s="37"/>
+      <c r="H361" s="38"/>
+      <c r="I361" s="39"/>
       <c r="AG361" s="5"/>
       <c r="AH361" s="5"/>
       <c r="AL361" s="5"/>
@@ -16477,28 +16480,28 @@
     </row>
     <row r="372" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C372" s="7"/>
-      <c r="D372" s="36" t="s">
+      <c r="D372" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E372" s="36"/>
-      <c r="F372" s="36"/>
-      <c r="G372" s="36"/>
-      <c r="H372" s="36"/>
-      <c r="I372" s="37"/>
+      <c r="E372" s="38"/>
+      <c r="F372" s="38"/>
+      <c r="G372" s="38"/>
+      <c r="H372" s="38"/>
+      <c r="I372" s="39"/>
       <c r="R372" s="5"/>
     </row>
     <row r="373" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C373" s="7"/>
-      <c r="D373" s="36" t="s">
+      <c r="D373" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E373" s="36"/>
-      <c r="F373" s="36"/>
-      <c r="G373" s="36" t="s">
+      <c r="E373" s="38"/>
+      <c r="F373" s="38"/>
+      <c r="G373" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H373" s="36"/>
-      <c r="I373" s="37"/>
+      <c r="H373" s="38"/>
+      <c r="I373" s="39"/>
       <c r="R373" s="5"/>
     </row>
     <row r="374" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
@@ -16700,27 +16703,27 @@
     </row>
     <row r="384" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C384" s="18"/>
-      <c r="D384" s="36" t="s">
+      <c r="D384" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E384" s="36"/>
-      <c r="F384" s="36"/>
-      <c r="G384" s="36"/>
-      <c r="H384" s="36"/>
-      <c r="I384" s="37"/>
+      <c r="E384" s="38"/>
+      <c r="F384" s="38"/>
+      <c r="G384" s="38"/>
+      <c r="H384" s="38"/>
+      <c r="I384" s="39"/>
     </row>
     <row r="385" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C385" s="18"/>
-      <c r="D385" s="36" t="s">
+      <c r="D385" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E385" s="36"/>
-      <c r="F385" s="36"/>
-      <c r="G385" s="36" t="s">
+      <c r="E385" s="38"/>
+      <c r="F385" s="38"/>
+      <c r="G385" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H385" s="36"/>
-      <c r="I385" s="37"/>
+      <c r="H385" s="38"/>
+      <c r="I385" s="39"/>
     </row>
     <row r="386" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C386" s="18"/>
@@ -16945,14 +16948,14 @@
     </row>
     <row r="397" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C397" s="25"/>
-      <c r="D397" s="38" t="s">
+      <c r="D397" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E397" s="38"/>
-      <c r="F397" s="38"/>
-      <c r="G397" s="38"/>
-      <c r="H397" s="38"/>
-      <c r="I397" s="39"/>
+      <c r="E397" s="36"/>
+      <c r="F397" s="36"/>
+      <c r="G397" s="36"/>
+      <c r="H397" s="36"/>
+      <c r="I397" s="37"/>
       <c r="R397" s="5"/>
       <c r="AB397" s="5"/>
       <c r="AC397" s="5"/>
@@ -16963,16 +16966,16 @@
     </row>
     <row r="398" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C398" s="26"/>
-      <c r="D398" s="36" t="s">
+      <c r="D398" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E398" s="36"/>
-      <c r="F398" s="36"/>
-      <c r="G398" s="36" t="s">
+      <c r="E398" s="38"/>
+      <c r="F398" s="38"/>
+      <c r="G398" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H398" s="36"/>
-      <c r="I398" s="37"/>
+      <c r="H398" s="38"/>
+      <c r="I398" s="39"/>
       <c r="R398" s="5"/>
       <c r="AB398" s="5"/>
       <c r="AC398" s="5"/>
@@ -17276,27 +17279,27 @@
     </row>
     <row r="412" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C412" s="7"/>
-      <c r="D412" s="36" t="s">
+      <c r="D412" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E412" s="36"/>
-      <c r="F412" s="36"/>
-      <c r="G412" s="36"/>
-      <c r="H412" s="36"/>
-      <c r="I412" s="37"/>
+      <c r="E412" s="38"/>
+      <c r="F412" s="38"/>
+      <c r="G412" s="38"/>
+      <c r="H412" s="38"/>
+      <c r="I412" s="39"/>
     </row>
     <row r="413" spans="3:39" x14ac:dyDescent="0.3">
       <c r="C413" s="7"/>
-      <c r="D413" s="36" t="s">
+      <c r="D413" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E413" s="36"/>
-      <c r="F413" s="36"/>
-      <c r="G413" s="36" t="s">
+      <c r="E413" s="38"/>
+      <c r="F413" s="38"/>
+      <c r="G413" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H413" s="36"/>
-      <c r="I413" s="37"/>
+      <c r="H413" s="38"/>
+      <c r="I413" s="39"/>
     </row>
     <row r="414" spans="3:39" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C414" s="7"/>
@@ -17561,27 +17564,27 @@
     </row>
     <row r="427" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C427" s="18"/>
-      <c r="D427" s="36" t="s">
+      <c r="D427" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E427" s="36"/>
-      <c r="F427" s="36"/>
-      <c r="G427" s="36"/>
-      <c r="H427" s="36"/>
-      <c r="I427" s="37"/>
+      <c r="E427" s="38"/>
+      <c r="F427" s="38"/>
+      <c r="G427" s="38"/>
+      <c r="H427" s="38"/>
+      <c r="I427" s="39"/>
     </row>
     <row r="428" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C428" s="18"/>
-      <c r="D428" s="36" t="s">
+      <c r="D428" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E428" s="36"/>
-      <c r="F428" s="36"/>
-      <c r="G428" s="36" t="s">
+      <c r="E428" s="38"/>
+      <c r="F428" s="38"/>
+      <c r="G428" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H428" s="36"/>
-      <c r="I428" s="37"/>
+      <c r="H428" s="38"/>
+      <c r="I428" s="39"/>
     </row>
     <row r="429" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C429" s="18"/>
@@ -17847,27 +17850,27 @@
     <row r="442" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="443" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C443" s="25"/>
-      <c r="D443" s="38" t="s">
+      <c r="D443" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E443" s="38"/>
-      <c r="F443" s="38"/>
-      <c r="G443" s="38"/>
-      <c r="H443" s="38"/>
-      <c r="I443" s="39"/>
+      <c r="E443" s="36"/>
+      <c r="F443" s="36"/>
+      <c r="G443" s="36"/>
+      <c r="H443" s="36"/>
+      <c r="I443" s="37"/>
     </row>
     <row r="444" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C444" s="26"/>
-      <c r="D444" s="36" t="s">
+      <c r="D444" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E444" s="36"/>
-      <c r="F444" s="36"/>
-      <c r="G444" s="36" t="s">
+      <c r="E444" s="38"/>
+      <c r="F444" s="38"/>
+      <c r="G444" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H444" s="36"/>
-      <c r="I444" s="37"/>
+      <c r="H444" s="38"/>
+      <c r="I444" s="39"/>
     </row>
     <row r="445" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C445" s="7"/>
@@ -17972,27 +17975,27 @@
     </row>
     <row r="450" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C450" s="7"/>
-      <c r="D450" s="36" t="s">
+      <c r="D450" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E450" s="36"/>
-      <c r="F450" s="36"/>
-      <c r="G450" s="36"/>
-      <c r="H450" s="36"/>
-      <c r="I450" s="37"/>
+      <c r="E450" s="38"/>
+      <c r="F450" s="38"/>
+      <c r="G450" s="38"/>
+      <c r="H450" s="38"/>
+      <c r="I450" s="39"/>
     </row>
     <row r="451" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C451" s="7"/>
-      <c r="D451" s="36" t="s">
+      <c r="D451" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E451" s="36"/>
-      <c r="F451" s="36"/>
-      <c r="G451" s="36" t="s">
+      <c r="E451" s="38"/>
+      <c r="F451" s="38"/>
+      <c r="G451" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H451" s="36"/>
-      <c r="I451" s="37"/>
+      <c r="H451" s="38"/>
+      <c r="I451" s="39"/>
     </row>
     <row r="452" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C452" s="7"/>
@@ -18097,27 +18100,27 @@
     </row>
     <row r="457" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C457" s="18"/>
-      <c r="D457" s="36" t="s">
+      <c r="D457" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E457" s="36"/>
-      <c r="F457" s="36"/>
-      <c r="G457" s="36"/>
-      <c r="H457" s="36"/>
-      <c r="I457" s="37"/>
+      <c r="E457" s="38"/>
+      <c r="F457" s="38"/>
+      <c r="G457" s="38"/>
+      <c r="H457" s="38"/>
+      <c r="I457" s="39"/>
     </row>
     <row r="458" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C458" s="18"/>
-      <c r="D458" s="36" t="s">
+      <c r="D458" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E458" s="36"/>
-      <c r="F458" s="36"/>
-      <c r="G458" s="36" t="s">
+      <c r="E458" s="38"/>
+      <c r="F458" s="38"/>
+      <c r="G458" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H458" s="36"/>
-      <c r="I458" s="37"/>
+      <c r="H458" s="38"/>
+      <c r="I458" s="39"/>
     </row>
     <row r="459" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C459" s="18"/>
@@ -18223,27 +18226,27 @@
     <row r="464" spans="3:9" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="465" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C465" s="25"/>
-      <c r="D465" s="38" t="s">
+      <c r="D465" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="E465" s="38"/>
-      <c r="F465" s="38"/>
-      <c r="G465" s="38"/>
-      <c r="H465" s="38"/>
-      <c r="I465" s="39"/>
+      <c r="E465" s="36"/>
+      <c r="F465" s="36"/>
+      <c r="G465" s="36"/>
+      <c r="H465" s="36"/>
+      <c r="I465" s="37"/>
     </row>
     <row r="466" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C466" s="26"/>
-      <c r="D466" s="36" t="s">
+      <c r="D466" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E466" s="36"/>
-      <c r="F466" s="36"/>
-      <c r="G466" s="36" t="s">
+      <c r="E466" s="38"/>
+      <c r="F466" s="38"/>
+      <c r="G466" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H466" s="36"/>
-      <c r="I466" s="37"/>
+      <c r="H466" s="38"/>
+      <c r="I466" s="39"/>
     </row>
     <row r="467" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C467" s="7"/>
@@ -18325,27 +18328,27 @@
     </row>
     <row r="471" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C471" s="7"/>
-      <c r="D471" s="36" t="s">
+      <c r="D471" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="E471" s="36"/>
-      <c r="F471" s="36"/>
-      <c r="G471" s="36"/>
-      <c r="H471" s="36"/>
-      <c r="I471" s="37"/>
+      <c r="E471" s="38"/>
+      <c r="F471" s="38"/>
+      <c r="G471" s="38"/>
+      <c r="H471" s="38"/>
+      <c r="I471" s="39"/>
     </row>
     <row r="472" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C472" s="7"/>
-      <c r="D472" s="36" t="s">
+      <c r="D472" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E472" s="36"/>
-      <c r="F472" s="36"/>
-      <c r="G472" s="36" t="s">
+      <c r="E472" s="38"/>
+      <c r="F472" s="38"/>
+      <c r="G472" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H472" s="36"/>
-      <c r="I472" s="37"/>
+      <c r="H472" s="38"/>
+      <c r="I472" s="39"/>
     </row>
     <row r="473" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C473" s="7"/>
@@ -18427,27 +18430,27 @@
     </row>
     <row r="477" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C477" s="18"/>
-      <c r="D477" s="36" t="s">
+      <c r="D477" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="E477" s="36"/>
-      <c r="F477" s="36"/>
-      <c r="G477" s="36"/>
-      <c r="H477" s="36"/>
-      <c r="I477" s="37"/>
+      <c r="E477" s="38"/>
+      <c r="F477" s="38"/>
+      <c r="G477" s="38"/>
+      <c r="H477" s="38"/>
+      <c r="I477" s="39"/>
     </row>
     <row r="478" spans="3:9" x14ac:dyDescent="0.3">
       <c r="C478" s="18"/>
-      <c r="D478" s="36" t="s">
+      <c r="D478" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E478" s="36"/>
-      <c r="F478" s="36"/>
-      <c r="G478" s="36" t="s">
+      <c r="E478" s="38"/>
+      <c r="F478" s="38"/>
+      <c r="G478" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="H478" s="36"/>
-      <c r="I478" s="37"/>
+      <c r="H478" s="38"/>
+      <c r="I478" s="39"/>
     </row>
     <row r="479" spans="3:9" ht="31.2" x14ac:dyDescent="0.3">
       <c r="C479" s="18"/>
@@ -18529,10 +18532,10 @@
     </row>
   </sheetData>
   <mergeCells count="201">
-    <mergeCell ref="D428:F428"/>
-    <mergeCell ref="G428:I428"/>
-    <mergeCell ref="D446:I446"/>
-    <mergeCell ref="D471:I471"/>
+    <mergeCell ref="D453:I453"/>
+    <mergeCell ref="D460:I460"/>
+    <mergeCell ref="D468:I468"/>
+    <mergeCell ref="D474:I474"/>
     <mergeCell ref="D472:F472"/>
     <mergeCell ref="G472:I472"/>
     <mergeCell ref="D477:I477"/>
@@ -18544,9 +18547,6 @@
     <mergeCell ref="D465:I465"/>
     <mergeCell ref="D466:F466"/>
     <mergeCell ref="G466:I466"/>
-    <mergeCell ref="D384:I384"/>
-    <mergeCell ref="D385:F385"/>
-    <mergeCell ref="G385:I385"/>
     <mergeCell ref="D397:I397"/>
     <mergeCell ref="D398:F398"/>
     <mergeCell ref="G398:I398"/>
@@ -18561,22 +18561,15 @@
     <mergeCell ref="D390:I390"/>
     <mergeCell ref="D393:I393"/>
     <mergeCell ref="D387:I387"/>
-    <mergeCell ref="D273:I273"/>
-    <mergeCell ref="D274:F274"/>
-    <mergeCell ref="G274:I274"/>
-    <mergeCell ref="D289:I289"/>
-    <mergeCell ref="D292:I292"/>
-    <mergeCell ref="D295:I295"/>
-    <mergeCell ref="D335:I335"/>
-    <mergeCell ref="D336:F336"/>
-    <mergeCell ref="G336:I336"/>
-    <mergeCell ref="D310:I310"/>
-    <mergeCell ref="D311:F311"/>
-    <mergeCell ref="G311:I311"/>
-    <mergeCell ref="D323:I323"/>
-    <mergeCell ref="D324:F324"/>
-    <mergeCell ref="G324:I324"/>
     <mergeCell ref="D326:I326"/>
+    <mergeCell ref="D316:I316"/>
+    <mergeCell ref="D319:I319"/>
+    <mergeCell ref="D298:I298"/>
+    <mergeCell ref="D299:F299"/>
+    <mergeCell ref="G299:I299"/>
+    <mergeCell ref="D384:I384"/>
+    <mergeCell ref="D385:F385"/>
+    <mergeCell ref="G385:I385"/>
     <mergeCell ref="D239:I239"/>
     <mergeCell ref="D240:F240"/>
     <mergeCell ref="G240:I240"/>
@@ -18603,6 +18596,16 @@
     <mergeCell ref="D178:I178"/>
     <mergeCell ref="D125:I125"/>
     <mergeCell ref="D128:I128"/>
+    <mergeCell ref="D132:I132"/>
+    <mergeCell ref="D133:F133"/>
+    <mergeCell ref="G133:I133"/>
+    <mergeCell ref="D135:I135"/>
+    <mergeCell ref="D139:I139"/>
+    <mergeCell ref="D143:I143"/>
+    <mergeCell ref="D147:I147"/>
+    <mergeCell ref="D148:F148"/>
+    <mergeCell ref="G148:I148"/>
+    <mergeCell ref="D150:I150"/>
     <mergeCell ref="D30:F30"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="D78:F78"/>
@@ -18619,6 +18622,7 @@
     <mergeCell ref="D38:I38"/>
     <mergeCell ref="D46:I46"/>
     <mergeCell ref="D53:I53"/>
+    <mergeCell ref="D63:I63"/>
     <mergeCell ref="D17:I17"/>
     <mergeCell ref="D29:I29"/>
     <mergeCell ref="D6:F6"/>
@@ -18632,7 +18636,6 @@
     <mergeCell ref="D20:I20"/>
     <mergeCell ref="D23:I23"/>
     <mergeCell ref="D26:I26"/>
-    <mergeCell ref="D63:I63"/>
     <mergeCell ref="D80:I80"/>
     <mergeCell ref="D70:I70"/>
     <mergeCell ref="D87:I87"/>
@@ -18649,16 +18652,6 @@
     <mergeCell ref="D108:F108"/>
     <mergeCell ref="G108:I108"/>
     <mergeCell ref="D95:I95"/>
-    <mergeCell ref="D132:I132"/>
-    <mergeCell ref="D133:F133"/>
-    <mergeCell ref="G133:I133"/>
-    <mergeCell ref="D135:I135"/>
-    <mergeCell ref="D139:I139"/>
-    <mergeCell ref="D143:I143"/>
-    <mergeCell ref="D147:I147"/>
-    <mergeCell ref="D148:F148"/>
-    <mergeCell ref="G148:I148"/>
-    <mergeCell ref="D150:I150"/>
     <mergeCell ref="D154:I154"/>
     <mergeCell ref="D158:I158"/>
     <mergeCell ref="D162:I162"/>
@@ -18668,8 +18661,6 @@
     <mergeCell ref="D169:I169"/>
     <mergeCell ref="D173:I173"/>
     <mergeCell ref="D313:I313"/>
-    <mergeCell ref="D316:I316"/>
-    <mergeCell ref="D319:I319"/>
     <mergeCell ref="D301:I301"/>
     <mergeCell ref="D304:I304"/>
     <mergeCell ref="D307:I307"/>
@@ -18685,9 +18676,6 @@
     <mergeCell ref="D286:I286"/>
     <mergeCell ref="D287:F287"/>
     <mergeCell ref="G287:I287"/>
-    <mergeCell ref="D298:I298"/>
-    <mergeCell ref="D299:F299"/>
-    <mergeCell ref="G299:I299"/>
     <mergeCell ref="D261:I261"/>
     <mergeCell ref="D262:F262"/>
     <mergeCell ref="G262:I262"/>
@@ -18697,6 +18685,21 @@
     <mergeCell ref="D353:I353"/>
     <mergeCell ref="D332:I332"/>
     <mergeCell ref="D344:I344"/>
+    <mergeCell ref="D273:I273"/>
+    <mergeCell ref="D274:F274"/>
+    <mergeCell ref="G274:I274"/>
+    <mergeCell ref="D289:I289"/>
+    <mergeCell ref="D292:I292"/>
+    <mergeCell ref="D295:I295"/>
+    <mergeCell ref="D335:I335"/>
+    <mergeCell ref="D336:F336"/>
+    <mergeCell ref="G336:I336"/>
+    <mergeCell ref="D310:I310"/>
+    <mergeCell ref="D311:F311"/>
+    <mergeCell ref="G311:I311"/>
+    <mergeCell ref="D323:I323"/>
+    <mergeCell ref="D324:F324"/>
+    <mergeCell ref="G324:I324"/>
     <mergeCell ref="D356:I356"/>
     <mergeCell ref="D363:I363"/>
     <mergeCell ref="D375:I375"/>
@@ -18706,10 +18709,6 @@
     <mergeCell ref="D348:F348"/>
     <mergeCell ref="G348:I348"/>
     <mergeCell ref="D338:I338"/>
-    <mergeCell ref="D453:I453"/>
-    <mergeCell ref="D460:I460"/>
-    <mergeCell ref="D468:I468"/>
-    <mergeCell ref="D474:I474"/>
     <mergeCell ref="D480:I480"/>
     <mergeCell ref="D400:I400"/>
     <mergeCell ref="D415:I415"/>
@@ -18730,6 +18729,10 @@
     <mergeCell ref="D413:F413"/>
     <mergeCell ref="G413:I413"/>
     <mergeCell ref="D427:I427"/>
+    <mergeCell ref="D428:F428"/>
+    <mergeCell ref="G428:I428"/>
+    <mergeCell ref="D446:I446"/>
+    <mergeCell ref="D471:I471"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
